--- a/AAII_Financials/Quarterly/SOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>SOY</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,156 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E7" s="2">
         <v>44380</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44289</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44198</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44009</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43918</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43827</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43736</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>259500</v>
+        <v>252800</v>
       </c>
       <c r="E8" s="3">
-        <v>266300</v>
+        <v>257700</v>
       </c>
       <c r="F8" s="3">
-        <v>1012200</v>
+        <v>264400</v>
       </c>
       <c r="G8" s="3">
-        <v>404000</v>
+        <v>1005300</v>
       </c>
       <c r="H8" s="3">
-        <v>398800</v>
+        <v>244200</v>
       </c>
       <c r="I8" s="3">
-        <v>266300</v>
+        <v>234900</v>
       </c>
       <c r="J8" s="3">
+        <v>264400</v>
+      </c>
+      <c r="K8" s="3">
         <v>925500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>379500</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>225700</v>
+        <v>223100</v>
       </c>
       <c r="E9" s="3">
-        <v>227900</v>
+        <v>224100</v>
       </c>
       <c r="F9" s="3">
-        <v>872300</v>
+        <v>226300</v>
       </c>
       <c r="G9" s="3">
-        <v>350300</v>
+        <v>866400</v>
       </c>
       <c r="H9" s="3">
-        <v>347900</v>
+        <v>209900</v>
       </c>
       <c r="I9" s="3">
-        <v>606200</v>
+        <v>205300</v>
       </c>
       <c r="J9" s="3">
+        <v>602100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1178100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>345800</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>33800</v>
+        <v>29800</v>
       </c>
       <c r="E10" s="3">
-        <v>38400</v>
+        <v>33600</v>
       </c>
       <c r="F10" s="3">
-        <v>139900</v>
+        <v>38100</v>
       </c>
       <c r="G10" s="3">
-        <v>53700</v>
+        <v>138900</v>
       </c>
       <c r="H10" s="3">
-        <v>50900</v>
+        <v>34200</v>
       </c>
       <c r="I10" s="3">
-        <v>-340000</v>
+        <v>29600</v>
       </c>
       <c r="J10" s="3">
+        <v>-337600</v>
+      </c>
+      <c r="K10" s="3">
         <v>-252500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +826,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,8 +856,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,66 +888,75 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>600</v>
+      </c>
+      <c r="E14" s="3">
         <v>5300</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
-        <v>26500</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>26300</v>
+      </c>
+      <c r="H14" s="3">
         <v>1200</v>
       </c>
-      <c r="H14" s="3">
-        <v>300</v>
-      </c>
       <c r="I14" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J14" s="3">
         <v>-1100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-54500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E15" s="3">
         <v>3200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2800</v>
       </c>
-      <c r="F15" s="3">
-        <v>11500</v>
-      </c>
       <c r="G15" s="3">
-        <v>3300</v>
+        <v>11400</v>
       </c>
       <c r="H15" s="3">
-        <v>3300</v>
+        <v>2800</v>
       </c>
       <c r="I15" s="3">
         <v>2900</v>
       </c>
       <c r="J15" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K15" s="3">
         <v>11700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +965,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>263200</v>
+        <v>249300</v>
       </c>
       <c r="E17" s="3">
-        <v>260600</v>
+        <v>261400</v>
       </c>
       <c r="F17" s="3">
-        <v>1037900</v>
+        <v>258800</v>
       </c>
       <c r="G17" s="3">
-        <v>393300</v>
+        <v>1030800</v>
       </c>
       <c r="H17" s="3">
-        <v>387100</v>
+        <v>241500</v>
       </c>
       <c r="I17" s="3">
-        <v>263400</v>
+        <v>234300</v>
       </c>
       <c r="J17" s="3">
+        <v>261600</v>
+      </c>
+      <c r="K17" s="3">
         <v>904200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>388400</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3700</v>
       </c>
-      <c r="E18" s="3">
-        <v>5700</v>
-      </c>
       <c r="F18" s="3">
-        <v>-25700</v>
+        <v>5600</v>
       </c>
       <c r="G18" s="3">
-        <v>10700</v>
+        <v>-25500</v>
       </c>
       <c r="H18" s="3">
-        <v>11700</v>
+        <v>2700</v>
       </c>
       <c r="I18" s="3">
+        <v>600</v>
+      </c>
+      <c r="J18" s="3">
         <v>2800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>21300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,66 +1043,73 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2100</v>
+        <v>-3700</v>
       </c>
       <c r="E20" s="3">
         <v>-2100</v>
       </c>
       <c r="F20" s="3">
-        <v>-38500</v>
+        <v>-2100</v>
       </c>
       <c r="G20" s="3">
-        <v>-10300</v>
+        <v>-38300</v>
       </c>
       <c r="H20" s="3">
-        <v>-10100</v>
+        <v>-9400</v>
       </c>
       <c r="I20" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="J20" s="3">
         <v>-9800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-41700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5600</v>
+        <v>11100</v>
       </c>
       <c r="E21" s="3">
-        <v>13900</v>
+        <v>5500</v>
       </c>
       <c r="F21" s="3">
-        <v>-25300</v>
+        <v>13800</v>
       </c>
       <c r="G21" s="3">
-        <v>11500</v>
+        <v>-25100</v>
       </c>
       <c r="H21" s="3">
-        <v>12800</v>
+        <v>4300</v>
       </c>
       <c r="I21" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J21" s="3">
         <v>4400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>23100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1091,72 +1131,81 @@
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-5900</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F23" s="3">
         <v>3600</v>
       </c>
-      <c r="F23" s="3">
-        <v>-64200</v>
-      </c>
       <c r="G23" s="3">
-        <v>400</v>
+        <v>-63700</v>
       </c>
       <c r="H23" s="3">
-        <v>1600</v>
+        <v>-6800</v>
       </c>
       <c r="I23" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="J23" s="3">
         <v>-7000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-20800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-20200</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-4700</v>
       </c>
-      <c r="E24" s="3">
-        <v>1500</v>
-      </c>
       <c r="F24" s="3">
-        <v>-6700</v>
+        <v>1400</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>-6600</v>
       </c>
       <c r="H24" s="3">
-        <v>600</v>
+        <v>-1800</v>
       </c>
       <c r="I24" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J24" s="3">
         <v>-1900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-4000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1233,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2100</v>
       </c>
-      <c r="F26" s="3">
-        <v>-57500</v>
-      </c>
       <c r="G26" s="3">
-        <v>400</v>
+        <v>-57100</v>
       </c>
       <c r="H26" s="3">
-        <v>1000</v>
+        <v>-4900</v>
       </c>
       <c r="I26" s="3">
-        <v>-5100</v>
+        <v>-6500</v>
       </c>
       <c r="J26" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-16800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15100</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
-        <v>-70700</v>
-      </c>
       <c r="G27" s="3">
-        <v>-3500</v>
+        <v>-70300</v>
       </c>
       <c r="H27" s="3">
-        <v>-2000</v>
+        <v>-8800</v>
       </c>
       <c r="I27" s="3">
-        <v>-7700</v>
+        <v>-9600</v>
       </c>
       <c r="J27" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-27100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1329,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1283,25 +1344,28 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>156900</v>
-      </c>
-      <c r="G29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>155800</v>
+      </c>
+      <c r="H29" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I29" s="3">
+        <v>7800</v>
+      </c>
+      <c r="J29" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K29" s="3">
+        <v>15800</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3">
-        <v>9400</v>
-      </c>
-      <c r="J29" s="3">
-        <v>15800</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1393,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1425,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2100</v>
+        <v>3700</v>
       </c>
       <c r="E32" s="3">
         <v>2100</v>
       </c>
       <c r="F32" s="3">
-        <v>38500</v>
+        <v>2100</v>
       </c>
       <c r="G32" s="3">
-        <v>10300</v>
+        <v>38300</v>
       </c>
       <c r="H32" s="3">
-        <v>10100</v>
+        <v>9400</v>
       </c>
       <c r="I32" s="3">
+        <v>9400</v>
+      </c>
+      <c r="J32" s="3">
         <v>9800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>41700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
-        <v>86200</v>
-      </c>
       <c r="G33" s="3">
-        <v>-3500</v>
+        <v>85600</v>
       </c>
       <c r="H33" s="3">
-        <v>-2000</v>
+        <v>-3800</v>
       </c>
       <c r="I33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J33" s="3">
         <v>1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1521,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
-        <v>86200</v>
-      </c>
       <c r="G35" s="3">
-        <v>-3500</v>
+        <v>85600</v>
       </c>
       <c r="H35" s="3">
-        <v>-2000</v>
+        <v>-3800</v>
       </c>
       <c r="I35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J35" s="3">
         <v>1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E38" s="2">
         <v>44380</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44289</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44198</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44009</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43918</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43827</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43736</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1606,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,37 +1620,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1583,133 +1673,148 @@
       <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3">
         <v>200</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>115700</v>
+        <v>119900</v>
       </c>
       <c r="E43" s="3">
-        <v>122300</v>
+        <v>114900</v>
       </c>
       <c r="F43" s="3">
-        <v>102200</v>
+        <v>121400</v>
       </c>
       <c r="G43" s="3">
-        <v>189000</v>
+        <v>101500</v>
       </c>
       <c r="H43" s="3">
-        <v>166700</v>
+        <v>187700</v>
       </c>
       <c r="I43" s="3">
-        <v>194300</v>
+        <v>165500</v>
       </c>
       <c r="J43" s="3">
+        <v>193000</v>
+      </c>
+      <c r="K43" s="3">
         <v>101700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>174900</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>294800</v>
+        <v>294100</v>
       </c>
       <c r="E44" s="3">
-        <v>212100</v>
+        <v>292800</v>
       </c>
       <c r="F44" s="3">
-        <v>189500</v>
+        <v>210600</v>
       </c>
       <c r="G44" s="3">
-        <v>398000</v>
+        <v>188200</v>
       </c>
       <c r="H44" s="3">
-        <v>407900</v>
+        <v>395300</v>
       </c>
       <c r="I44" s="3">
-        <v>349500</v>
+        <v>405100</v>
       </c>
       <c r="J44" s="3">
+        <v>347100</v>
+      </c>
+      <c r="K44" s="3">
         <v>197000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>443400</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>20300</v>
+        <v>21100</v>
       </c>
       <c r="E45" s="3">
-        <v>23700</v>
+        <v>20100</v>
       </c>
       <c r="F45" s="3">
-        <v>27800</v>
+        <v>23500</v>
       </c>
       <c r="G45" s="3">
-        <v>38600</v>
+        <v>27600</v>
       </c>
       <c r="H45" s="3">
-        <v>36000</v>
+        <v>38400</v>
       </c>
       <c r="I45" s="3">
-        <v>45300</v>
+        <v>35800</v>
       </c>
       <c r="J45" s="3">
+        <v>45000</v>
+      </c>
+      <c r="K45" s="3">
         <v>329600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>46200</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>431400</v>
+        <v>435400</v>
       </c>
       <c r="E46" s="3">
-        <v>359000</v>
+        <v>428400</v>
       </c>
       <c r="F46" s="3">
-        <v>319800</v>
+        <v>356500</v>
       </c>
       <c r="G46" s="3">
-        <v>626900</v>
+        <v>317600</v>
       </c>
       <c r="H46" s="3">
-        <v>612700</v>
+        <v>622600</v>
       </c>
       <c r="I46" s="3">
-        <v>592700</v>
+        <v>608500</v>
       </c>
       <c r="J46" s="3">
+        <v>588700</v>
+      </c>
+      <c r="K46" s="3">
         <v>628400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>667300</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,66 +1842,75 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>300300</v>
+        <v>313400</v>
       </c>
       <c r="E48" s="3">
-        <v>283700</v>
+        <v>298200</v>
       </c>
       <c r="F48" s="3">
-        <v>247800</v>
+        <v>281700</v>
       </c>
       <c r="G48" s="3">
-        <v>327300</v>
+        <v>246100</v>
       </c>
       <c r="H48" s="3">
-        <v>324200</v>
+        <v>325100</v>
       </c>
       <c r="I48" s="3">
-        <v>323300</v>
+        <v>322000</v>
       </c>
       <c r="J48" s="3">
+        <v>321100</v>
+      </c>
+      <c r="K48" s="3">
         <v>289400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>325500</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>202200</v>
+        <v>197500</v>
       </c>
       <c r="E49" s="3">
-        <v>173300</v>
+        <v>200800</v>
       </c>
       <c r="F49" s="3">
-        <v>176100</v>
+        <v>172100</v>
       </c>
       <c r="G49" s="3">
-        <v>219200</v>
+        <v>174900</v>
       </c>
       <c r="H49" s="3">
-        <v>222100</v>
+        <v>217700</v>
       </c>
       <c r="I49" s="3">
-        <v>225200</v>
+        <v>220500</v>
       </c>
       <c r="J49" s="3">
+        <v>223700</v>
+      </c>
+      <c r="K49" s="3">
         <v>187600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>232000</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1938,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +1970,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>18100</v>
+        <v>7900</v>
       </c>
       <c r="E52" s="3">
-        <v>9600</v>
+        <v>18000</v>
       </c>
       <c r="F52" s="3">
+        <v>9500</v>
+      </c>
+      <c r="G52" s="3">
+        <v>7300</v>
+      </c>
+      <c r="H52" s="3">
+        <v>8200</v>
+      </c>
+      <c r="I52" s="3">
         <v>7400</v>
       </c>
-      <c r="G52" s="3">
-        <v>8300</v>
-      </c>
-      <c r="H52" s="3">
-        <v>7500</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>78900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2034,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>952000</v>
+        <v>954200</v>
       </c>
       <c r="E54" s="3">
-        <v>825500</v>
+        <v>945500</v>
       </c>
       <c r="F54" s="3">
-        <v>751100</v>
+        <v>819800</v>
       </c>
       <c r="G54" s="3">
-        <v>1181700</v>
+        <v>746000</v>
       </c>
       <c r="H54" s="3">
-        <v>1166400</v>
+        <v>1173600</v>
       </c>
       <c r="I54" s="3">
-        <v>1147200</v>
+        <v>1158400</v>
       </c>
       <c r="J54" s="3">
+        <v>1139300</v>
+      </c>
+      <c r="K54" s="3">
         <v>1184300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1229500</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2082,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,182 +2096,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>148600</v>
+        <v>145900</v>
       </c>
       <c r="E57" s="3">
-        <v>137600</v>
+        <v>147600</v>
       </c>
       <c r="F57" s="3">
-        <v>152100</v>
+        <v>136600</v>
       </c>
       <c r="G57" s="3">
-        <v>185300</v>
+        <v>151100</v>
       </c>
       <c r="H57" s="3">
-        <v>170300</v>
+        <v>184000</v>
       </c>
       <c r="I57" s="3">
-        <v>157500</v>
+        <v>169200</v>
       </c>
       <c r="J57" s="3">
+        <v>156400</v>
+      </c>
+      <c r="K57" s="3">
         <v>114300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>172300</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E58" s="3">
         <v>9700</v>
       </c>
-      <c r="E58" s="3">
-        <v>9600</v>
-      </c>
       <c r="F58" s="3">
-        <v>4500</v>
+        <v>9500</v>
       </c>
       <c r="G58" s="3">
-        <v>260600</v>
+        <v>4400</v>
       </c>
       <c r="H58" s="3">
-        <v>266900</v>
+        <v>258800</v>
       </c>
       <c r="I58" s="3">
-        <v>292600</v>
+        <v>265100</v>
       </c>
       <c r="J58" s="3">
+        <v>290600</v>
+      </c>
+      <c r="K58" s="3">
         <v>313800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>350100</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>18500</v>
+        <v>16500</v>
       </c>
       <c r="E59" s="3">
-        <v>19200</v>
+        <v>18300</v>
       </c>
       <c r="F59" s="3">
-        <v>18400</v>
+        <v>19100</v>
       </c>
       <c r="G59" s="3">
-        <v>22800</v>
+        <v>18300</v>
       </c>
       <c r="H59" s="3">
-        <v>24700</v>
+        <v>22600</v>
       </c>
       <c r="I59" s="3">
-        <v>29100</v>
+        <v>24600</v>
       </c>
       <c r="J59" s="3">
+        <v>28900</v>
+      </c>
+      <c r="K59" s="3">
         <v>93900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>176800</v>
+        <v>172300</v>
       </c>
       <c r="E60" s="3">
-        <v>166400</v>
+        <v>175600</v>
       </c>
       <c r="F60" s="3">
-        <v>175000</v>
+        <v>165200</v>
       </c>
       <c r="G60" s="3">
-        <v>468700</v>
+        <v>173800</v>
       </c>
       <c r="H60" s="3">
-        <v>462000</v>
+        <v>465500</v>
       </c>
       <c r="I60" s="3">
-        <v>479200</v>
+        <v>458800</v>
       </c>
       <c r="J60" s="3">
+        <v>475900</v>
+      </c>
+      <c r="K60" s="3">
         <v>520300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>553500</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>254700</v>
+        <v>270800</v>
       </c>
       <c r="E61" s="3">
-        <v>166800</v>
+        <v>253000</v>
       </c>
       <c r="F61" s="3">
-        <v>85000</v>
+        <v>165700</v>
       </c>
       <c r="G61" s="3">
-        <v>308600</v>
+        <v>84400</v>
       </c>
       <c r="H61" s="3">
-        <v>308800</v>
+        <v>306500</v>
       </c>
       <c r="I61" s="3">
-        <v>309200</v>
+        <v>306700</v>
       </c>
       <c r="J61" s="3">
+        <v>307100</v>
+      </c>
+      <c r="K61" s="3">
         <v>302500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>310300</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>84500</v>
+        <v>82800</v>
       </c>
       <c r="E62" s="3">
-        <v>64900</v>
+        <v>83900</v>
       </c>
       <c r="F62" s="3">
-        <v>64100</v>
+        <v>64500</v>
       </c>
       <c r="G62" s="3">
-        <v>84800</v>
+        <v>63700</v>
       </c>
       <c r="H62" s="3">
-        <v>81300</v>
+        <v>84200</v>
       </c>
       <c r="I62" s="3">
-        <v>79100</v>
+        <v>80700</v>
       </c>
       <c r="J62" s="3">
+        <v>78600</v>
+      </c>
+      <c r="K62" s="3">
         <v>89000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>87600</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2318,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2350,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2382,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>516000</v>
+        <v>525900</v>
       </c>
       <c r="E66" s="3">
-        <v>398100</v>
+        <v>512500</v>
       </c>
       <c r="F66" s="3">
-        <v>324100</v>
+        <v>395400</v>
       </c>
       <c r="G66" s="3">
-        <v>864400</v>
+        <v>321900</v>
       </c>
       <c r="H66" s="3">
-        <v>854200</v>
+        <v>858500</v>
       </c>
       <c r="I66" s="3">
-        <v>870000</v>
+        <v>848300</v>
       </c>
       <c r="J66" s="3">
+        <v>864000</v>
+      </c>
+      <c r="K66" s="3">
         <v>914300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>953600</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2430,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2460,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2492,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2336,28 +2504,31 @@
         <v>35700</v>
       </c>
       <c r="E70" s="3">
-        <v>35600</v>
+        <v>35500</v>
       </c>
       <c r="F70" s="3">
-        <v>147400</v>
+        <v>35300</v>
       </c>
       <c r="G70" s="3">
-        <v>146800</v>
+        <v>146400</v>
       </c>
       <c r="H70" s="3">
-        <v>143400</v>
+        <v>145800</v>
       </c>
       <c r="I70" s="3">
-        <v>108400</v>
+        <v>142400</v>
       </c>
       <c r="J70" s="3">
+        <v>107700</v>
+      </c>
+      <c r="K70" s="3">
         <v>105800</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>105400</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2556,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-192000</v>
+        <v>-195500</v>
       </c>
       <c r="E72" s="3">
-        <v>-189900</v>
+        <v>-190700</v>
       </c>
       <c r="F72" s="3">
-        <v>-189500</v>
+        <v>-188600</v>
       </c>
       <c r="G72" s="3">
-        <v>-279500</v>
+        <v>-188200</v>
       </c>
       <c r="H72" s="3">
-        <v>-276000</v>
+        <v>-277600</v>
       </c>
       <c r="I72" s="3">
-        <v>-274000</v>
+        <v>-274100</v>
       </c>
       <c r="J72" s="3">
+        <v>-272100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-275700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-265900</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2620,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2652,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2684,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>400300</v>
+        <v>392700</v>
       </c>
       <c r="E76" s="3">
-        <v>391800</v>
+        <v>397500</v>
       </c>
       <c r="F76" s="3">
-        <v>279600</v>
+        <v>389100</v>
       </c>
       <c r="G76" s="3">
-        <v>170600</v>
+        <v>277700</v>
       </c>
       <c r="H76" s="3">
-        <v>168900</v>
+        <v>169400</v>
       </c>
       <c r="I76" s="3">
-        <v>168800</v>
+        <v>167700</v>
       </c>
       <c r="J76" s="3">
+        <v>167600</v>
+      </c>
+      <c r="K76" s="3">
         <v>164200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>170400</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2748,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E80" s="2">
         <v>44380</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44289</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44198</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44009</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43918</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43827</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43736</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
-        <v>86200</v>
-      </c>
       <c r="G81" s="3">
-        <v>-3500</v>
+        <v>85600</v>
       </c>
       <c r="H81" s="3">
-        <v>-2000</v>
+        <v>-3800</v>
       </c>
       <c r="I81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J81" s="3">
         <v>1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,37 +2833,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F83" s="3">
+        <v>10200</v>
+      </c>
+      <c r="G83" s="3">
+        <v>38600</v>
+      </c>
+      <c r="H83" s="3">
+        <v>11000</v>
+      </c>
+      <c r="I83" s="3">
+        <v>11100</v>
+      </c>
+      <c r="J83" s="3">
         <v>11400</v>
       </c>
-      <c r="E83" s="3">
-        <v>10300</v>
-      </c>
-      <c r="F83" s="3">
-        <v>38900</v>
-      </c>
-      <c r="G83" s="3">
-        <v>11100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>11200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>11400</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>43500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2895,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2927,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2959,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2991,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3023,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-50200</v>
+        <v>6500</v>
       </c>
       <c r="E89" s="3">
-        <v>-9000</v>
+        <v>-49900</v>
       </c>
       <c r="F89" s="3">
-        <v>117600</v>
+        <v>-8900</v>
       </c>
       <c r="G89" s="3">
-        <v>25900</v>
+        <v>116800</v>
       </c>
       <c r="H89" s="3">
+        <v>25700</v>
+      </c>
+      <c r="I89" s="3">
         <v>3400</v>
       </c>
-      <c r="I89" s="3">
-        <v>44600</v>
-      </c>
       <c r="J89" s="3">
+        <v>44300</v>
+      </c>
+      <c r="K89" s="3">
         <v>12600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3071,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9400</v>
+        <v>-23400</v>
       </c>
       <c r="E91" s="3">
-        <v>-11900</v>
+        <v>-9300</v>
       </c>
       <c r="F91" s="3">
-        <v>-31700</v>
+        <v>-11800</v>
       </c>
       <c r="G91" s="3">
-        <v>-15200</v>
+        <v>-31500</v>
       </c>
       <c r="H91" s="3">
-        <v>-8200</v>
+        <v>-15100</v>
       </c>
       <c r="I91" s="3">
-        <v>-12400</v>
+        <v>-8100</v>
       </c>
       <c r="J91" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-42000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3133,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3165,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-41500</v>
+        <v>-22200</v>
       </c>
       <c r="E94" s="3">
-        <v>-27400</v>
+        <v>-41200</v>
       </c>
       <c r="F94" s="3">
-        <v>416200</v>
+        <v>-27200</v>
       </c>
       <c r="G94" s="3">
-        <v>-15100</v>
+        <v>413400</v>
       </c>
       <c r="H94" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="I94" s="3">
         <v>-8100</v>
       </c>
-      <c r="I94" s="3">
-        <v>-12400</v>
-      </c>
       <c r="J94" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="K94" s="3">
         <v>34900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3213,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3243,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3275,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3307,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,37 +3339,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>91400</v>
+        <v>15500</v>
       </c>
       <c r="E100" s="3">
-        <v>37000</v>
+        <v>90800</v>
       </c>
       <c r="F100" s="3">
-        <v>-535700</v>
+        <v>36700</v>
       </c>
       <c r="G100" s="3">
-        <v>-11700</v>
+        <v>-532000</v>
       </c>
       <c r="H100" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="I100" s="3">
         <v>3300</v>
       </c>
-      <c r="I100" s="3">
-        <v>-30600</v>
-      </c>
       <c r="J100" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-49700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3137,11 +3386,11 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -3149,38 +3398,44 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K101" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>SOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,156 +665,169 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E7" s="2">
         <v>44471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44380</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44289</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44198</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43827</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43736</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>252800</v>
+        <v>260200</v>
       </c>
       <c r="E8" s="3">
-        <v>257700</v>
+        <v>252900</v>
       </c>
       <c r="F8" s="3">
+        <v>257800</v>
+      </c>
+      <c r="G8" s="3">
+        <v>264500</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1005700</v>
+      </c>
+      <c r="I8" s="3">
+        <v>244300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>235000</v>
+      </c>
+      <c r="K8" s="3">
         <v>264400</v>
       </c>
-      <c r="G8" s="3">
-        <v>1005300</v>
-      </c>
-      <c r="H8" s="3">
-        <v>244200</v>
-      </c>
-      <c r="I8" s="3">
-        <v>234900</v>
-      </c>
-      <c r="J8" s="3">
-        <v>264400</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>925500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>379500</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>223100</v>
+        <v>236800</v>
       </c>
       <c r="E9" s="3">
-        <v>224100</v>
+        <v>223200</v>
       </c>
       <c r="F9" s="3">
-        <v>226300</v>
+        <v>224200</v>
       </c>
       <c r="G9" s="3">
-        <v>866400</v>
+        <v>226400</v>
       </c>
       <c r="H9" s="3">
-        <v>209900</v>
+        <v>866700</v>
       </c>
       <c r="I9" s="3">
+        <v>210000</v>
+      </c>
+      <c r="J9" s="3">
         <v>205300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>602100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1178100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>345800</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E10" s="3">
         <v>29800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>33600</v>
       </c>
-      <c r="F10" s="3">
-        <v>38100</v>
-      </c>
       <c r="G10" s="3">
-        <v>138900</v>
+        <v>38200</v>
       </c>
       <c r="H10" s="3">
-        <v>34200</v>
+        <v>139000</v>
       </c>
       <c r="I10" s="3">
+        <v>34300</v>
+      </c>
+      <c r="J10" s="3">
         <v>29600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-337600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-252500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,8 +840,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -859,8 +873,11 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,40 +908,46 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E14" s="3">
         <v>600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5300</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>26300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-1100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-54500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -932,31 +955,34 @@
         <v>3300</v>
       </c>
       <c r="E15" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F15" s="3">
         <v>3200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>11400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2800</v>
-      </c>
-      <c r="I15" s="3">
-        <v>2900</v>
       </c>
       <c r="J15" s="3">
         <v>2900</v>
       </c>
       <c r="K15" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L15" s="3">
         <v>11700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -966,72 +992,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>249300</v>
+        <v>264100</v>
       </c>
       <c r="E17" s="3">
-        <v>261400</v>
+        <v>249400</v>
       </c>
       <c r="F17" s="3">
-        <v>258800</v>
+        <v>261500</v>
       </c>
       <c r="G17" s="3">
-        <v>1030800</v>
+        <v>258900</v>
       </c>
       <c r="H17" s="3">
-        <v>241500</v>
+        <v>1031200</v>
       </c>
       <c r="I17" s="3">
-        <v>234300</v>
+        <v>241600</v>
       </c>
       <c r="J17" s="3">
+        <v>234400</v>
+      </c>
+      <c r="K17" s="3">
         <v>261600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>904200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>388400</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E18" s="3">
         <v>3500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-25500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>21300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1044,72 +1077,79 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3700</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-2100</v>
       </c>
       <c r="F20" s="3">
         <v>-2100</v>
       </c>
       <c r="G20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="H20" s="3">
         <v>-38300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-9400</v>
       </c>
       <c r="I20" s="3">
         <v>-9400</v>
       </c>
       <c r="J20" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-9800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-41700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E21" s="3">
         <v>11100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>13800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-25100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>23100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1134,78 +1174,87 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3600</v>
       </c>
-      <c r="G23" s="3">
-        <v>-63700</v>
-      </c>
       <c r="H23" s="3">
+        <v>-63800</v>
+      </c>
+      <c r="I23" s="3">
         <v>-6800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-20800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-20200</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E24" s="3">
         <v>3700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-4700</v>
       </c>
-      <c r="F24" s="3">
-        <v>1400</v>
-      </c>
       <c r="G24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H24" s="3">
         <v>-6600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-4000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1236,72 +1285,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-57100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-16800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-15100</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-70300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-27100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1332,8 +1390,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1347,25 +1408,28 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>155800</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>5000</v>
+        <v>155900</v>
       </c>
       <c r="I29" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J29" s="3">
         <v>7800</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>9300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>15800</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1396,8 +1460,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1428,72 +1495,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E32" s="3">
         <v>3700</v>
-      </c>
-      <c r="E32" s="3">
-        <v>2100</v>
       </c>
       <c r="F32" s="3">
         <v>2100</v>
       </c>
       <c r="G32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H32" s="3">
         <v>38300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>9400</v>
       </c>
       <c r="I32" s="3">
         <v>9400</v>
       </c>
       <c r="J32" s="3">
+        <v>9400</v>
+      </c>
+      <c r="K32" s="3">
         <v>9800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>41700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>85600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1524,77 +1600,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>85600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E38" s="2">
         <v>44471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44380</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44289</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44198</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43827</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43736</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1607,8 +1692,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1621,40 +1707,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1676,145 +1766,160 @@
       <c r="I42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="3">
         <v>200</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>118500</v>
+      </c>
+      <c r="E43" s="3">
         <v>119900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>114900</v>
       </c>
-      <c r="F43" s="3">
-        <v>121400</v>
-      </c>
       <c r="G43" s="3">
+        <v>121500</v>
+      </c>
+      <c r="H43" s="3">
         <v>101500</v>
       </c>
-      <c r="H43" s="3">
-        <v>187700</v>
-      </c>
       <c r="I43" s="3">
-        <v>165500</v>
+        <v>187800</v>
       </c>
       <c r="J43" s="3">
+        <v>165600</v>
+      </c>
+      <c r="K43" s="3">
         <v>193000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>101700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>174900</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>294100</v>
+        <v>280500</v>
       </c>
       <c r="E44" s="3">
-        <v>292800</v>
+        <v>294200</v>
       </c>
       <c r="F44" s="3">
-        <v>210600</v>
+        <v>292900</v>
       </c>
       <c r="G44" s="3">
-        <v>188200</v>
+        <v>210700</v>
       </c>
       <c r="H44" s="3">
-        <v>395300</v>
+        <v>188300</v>
       </c>
       <c r="I44" s="3">
-        <v>405100</v>
+        <v>395500</v>
       </c>
       <c r="J44" s="3">
+        <v>405200</v>
+      </c>
+      <c r="K44" s="3">
         <v>347100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>197000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>443400</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E45" s="3">
         <v>21100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>20100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>23500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>27600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>38400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>35800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>45000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>329600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>46200</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>435400</v>
+        <v>420500</v>
       </c>
       <c r="E46" s="3">
-        <v>428400</v>
+        <v>435600</v>
       </c>
       <c r="F46" s="3">
-        <v>356500</v>
+        <v>428600</v>
       </c>
       <c r="G46" s="3">
-        <v>317600</v>
+        <v>356700</v>
       </c>
       <c r="H46" s="3">
-        <v>622600</v>
+        <v>317700</v>
       </c>
       <c r="I46" s="3">
-        <v>608500</v>
+        <v>622800</v>
       </c>
       <c r="J46" s="3">
+        <v>608700</v>
+      </c>
+      <c r="K46" s="3">
         <v>588700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>628400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>667300</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1845,72 +1950,81 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>313400</v>
+        <v>340000</v>
       </c>
       <c r="E48" s="3">
-        <v>298200</v>
+        <v>313500</v>
       </c>
       <c r="F48" s="3">
-        <v>281700</v>
+        <v>298300</v>
       </c>
       <c r="G48" s="3">
-        <v>246100</v>
+        <v>281800</v>
       </c>
       <c r="H48" s="3">
-        <v>325100</v>
+        <v>246200</v>
       </c>
       <c r="I48" s="3">
-        <v>322000</v>
+        <v>325200</v>
       </c>
       <c r="J48" s="3">
+        <v>322100</v>
+      </c>
+      <c r="K48" s="3">
         <v>321100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>289400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>325500</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>197500</v>
+        <v>194300</v>
       </c>
       <c r="E49" s="3">
-        <v>200800</v>
+        <v>197600</v>
       </c>
       <c r="F49" s="3">
-        <v>172100</v>
+        <v>200900</v>
       </c>
       <c r="G49" s="3">
-        <v>174900</v>
+        <v>172200</v>
       </c>
       <c r="H49" s="3">
-        <v>217700</v>
+        <v>175000</v>
       </c>
       <c r="I49" s="3">
-        <v>220500</v>
+        <v>217800</v>
       </c>
       <c r="J49" s="3">
+        <v>220600</v>
+      </c>
+      <c r="K49" s="3">
         <v>223700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>187600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>232000</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1941,8 +2055,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1973,40 +2090,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E52" s="3">
         <v>7900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>18000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8200</v>
       </c>
-      <c r="I52" s="3">
-        <v>7400</v>
-      </c>
       <c r="J52" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K52" s="3">
         <v>5900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>78900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2037,40 +2160,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>954200</v>
+        <v>962200</v>
       </c>
       <c r="E54" s="3">
-        <v>945500</v>
+        <v>954600</v>
       </c>
       <c r="F54" s="3">
-        <v>819800</v>
+        <v>945800</v>
       </c>
       <c r="G54" s="3">
-        <v>746000</v>
+        <v>820200</v>
       </c>
       <c r="H54" s="3">
-        <v>1173600</v>
+        <v>746200</v>
       </c>
       <c r="I54" s="3">
-        <v>1158400</v>
+        <v>1174100</v>
       </c>
       <c r="J54" s="3">
+        <v>1158900</v>
+      </c>
+      <c r="K54" s="3">
         <v>1139300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1184300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1229500</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2083,8 +2212,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2097,200 +2227,219 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>145900</v>
+        <v>154700</v>
       </c>
       <c r="E57" s="3">
+        <v>146000</v>
+      </c>
+      <c r="F57" s="3">
         <v>147600</v>
       </c>
-      <c r="F57" s="3">
-        <v>136600</v>
-      </c>
       <c r="G57" s="3">
+        <v>136700</v>
+      </c>
+      <c r="H57" s="3">
         <v>151100</v>
       </c>
-      <c r="H57" s="3">
-        <v>184000</v>
-      </c>
       <c r="I57" s="3">
+        <v>184100</v>
+      </c>
+      <c r="J57" s="3">
         <v>169200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>156400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>114300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>172300</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E58" s="3">
         <v>9900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>9700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4400</v>
       </c>
-      <c r="H58" s="3">
-        <v>258800</v>
-      </c>
       <c r="I58" s="3">
-        <v>265100</v>
+        <v>258900</v>
       </c>
       <c r="J58" s="3">
+        <v>265200</v>
+      </c>
+      <c r="K58" s="3">
         <v>290600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>313800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>350100</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E59" s="3">
         <v>16500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>18300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>19100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>18300</v>
       </c>
-      <c r="H59" s="3">
-        <v>22600</v>
-      </c>
       <c r="I59" s="3">
+        <v>22700</v>
+      </c>
+      <c r="J59" s="3">
         <v>24600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>28900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>93900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>182700</v>
+      </c>
+      <c r="E60" s="3">
         <v>172300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>175600</v>
       </c>
-      <c r="F60" s="3">
-        <v>165200</v>
-      </c>
       <c r="G60" s="3">
-        <v>173800</v>
+        <v>165300</v>
       </c>
       <c r="H60" s="3">
-        <v>465500</v>
+        <v>173900</v>
       </c>
       <c r="I60" s="3">
-        <v>458800</v>
+        <v>465700</v>
       </c>
       <c r="J60" s="3">
+        <v>459000</v>
+      </c>
+      <c r="K60" s="3">
         <v>475900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>520300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>553500</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>270800</v>
+        <v>273800</v>
       </c>
       <c r="E61" s="3">
-        <v>253000</v>
+        <v>270900</v>
       </c>
       <c r="F61" s="3">
+        <v>253100</v>
+      </c>
+      <c r="G61" s="3">
         <v>165700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>84400</v>
       </c>
-      <c r="H61" s="3">
-        <v>306500</v>
-      </c>
       <c r="I61" s="3">
-        <v>306700</v>
+        <v>306600</v>
       </c>
       <c r="J61" s="3">
+        <v>306800</v>
+      </c>
+      <c r="K61" s="3">
         <v>307100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>302500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>310300</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>82800</v>
+        <v>81200</v>
       </c>
       <c r="E62" s="3">
-        <v>83900</v>
+        <v>82900</v>
       </c>
       <c r="F62" s="3">
+        <v>84000</v>
+      </c>
+      <c r="G62" s="3">
         <v>64500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>63700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>84200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>80700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>78600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>89000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>87600</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2321,8 +2470,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2353,8 +2505,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2385,40 +2540,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>525900</v>
+        <v>537700</v>
       </c>
       <c r="E66" s="3">
-        <v>512500</v>
+        <v>526100</v>
       </c>
       <c r="F66" s="3">
-        <v>395400</v>
+        <v>512700</v>
       </c>
       <c r="G66" s="3">
-        <v>321900</v>
+        <v>395500</v>
       </c>
       <c r="H66" s="3">
-        <v>858500</v>
+        <v>322000</v>
       </c>
       <c r="I66" s="3">
-        <v>848300</v>
+        <v>858800</v>
       </c>
       <c r="J66" s="3">
+        <v>848700</v>
+      </c>
+      <c r="K66" s="3">
         <v>864000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>914300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>953600</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2431,8 +2592,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2463,8 +2625,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2495,40 +2660,46 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E70" s="3">
         <v>35700</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>35500</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>35300</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>146400</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>145800</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>142400</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>107700</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>105800</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>105400</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2559,40 +2730,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-195500</v>
+        <v>-198900</v>
       </c>
       <c r="E72" s="3">
+        <v>-195600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-190700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-188600</v>
       </c>
-      <c r="G72" s="3">
-        <v>-188200</v>
-      </c>
       <c r="H72" s="3">
-        <v>-277600</v>
+        <v>-188300</v>
       </c>
       <c r="I72" s="3">
-        <v>-274100</v>
+        <v>-277700</v>
       </c>
       <c r="J72" s="3">
+        <v>-274200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-272100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-275700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-265900</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2623,8 +2800,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2655,8 +2835,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2687,40 +2870,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>392700</v>
+        <v>388600</v>
       </c>
       <c r="E76" s="3">
-        <v>397500</v>
+        <v>392800</v>
       </c>
       <c r="F76" s="3">
-        <v>389100</v>
+        <v>397700</v>
       </c>
       <c r="G76" s="3">
-        <v>277700</v>
+        <v>389300</v>
       </c>
       <c r="H76" s="3">
-        <v>169400</v>
+        <v>277800</v>
       </c>
       <c r="I76" s="3">
-        <v>167700</v>
+        <v>169500</v>
       </c>
       <c r="J76" s="3">
+        <v>167800</v>
+      </c>
+      <c r="K76" s="3">
         <v>167600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>164200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>170400</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2751,77 +2940,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E80" s="2">
         <v>44471</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44380</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44289</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44198</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43827</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43736</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>85600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2834,8 +3032,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2846,28 +3045,31 @@
         <v>11300</v>
       </c>
       <c r="F83" s="3">
+        <v>11400</v>
+      </c>
+      <c r="G83" s="3">
         <v>10200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>38600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>11000</v>
       </c>
-      <c r="I83" s="3">
-        <v>11100</v>
-      </c>
       <c r="J83" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K83" s="3">
         <v>11400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>43500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2898,8 +3100,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2930,8 +3135,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2962,8 +3170,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2994,8 +3205,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3026,40 +3240,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E89" s="3">
         <v>6500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-49900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-8900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>116800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>25700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>44300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>12600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3072,40 +3292,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-23400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-31500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-12300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-42000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3136,8 +3360,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3168,40 +3395,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-22200</v>
       </c>
-      <c r="E94" s="3">
-        <v>-41200</v>
-      </c>
       <c r="F94" s="3">
+        <v>-41300</v>
+      </c>
+      <c r="G94" s="3">
         <v>-27200</v>
       </c>
-      <c r="G94" s="3">
-        <v>413400</v>
-      </c>
       <c r="H94" s="3">
+        <v>413500</v>
+      </c>
+      <c r="I94" s="3">
         <v>-15000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-12300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>34900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3214,8 +3447,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3246,8 +3480,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3278,8 +3515,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3310,8 +3550,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3342,40 +3585,46 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E100" s="3">
         <v>15500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>90800</v>
       </c>
-      <c r="F100" s="3">
-        <v>36700</v>
-      </c>
       <c r="G100" s="3">
-        <v>-532000</v>
+        <v>36800</v>
       </c>
       <c r="H100" s="3">
+        <v>-532300</v>
+      </c>
+      <c r="I100" s="3">
         <v>-11600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-30400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-49700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3389,11 +3638,11 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -3401,41 +3650,47 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L101" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>SOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,169 +665,182 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E7" s="2">
         <v>44562</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44471</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44380</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44289</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44198</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43827</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43736</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>260200</v>
+        <v>313300</v>
       </c>
       <c r="E8" s="3">
-        <v>252900</v>
+        <v>266400</v>
       </c>
       <c r="F8" s="3">
-        <v>257800</v>
+        <v>258900</v>
       </c>
       <c r="G8" s="3">
-        <v>264500</v>
+        <v>263900</v>
       </c>
       <c r="H8" s="3">
-        <v>1005700</v>
+        <v>270800</v>
       </c>
       <c r="I8" s="3">
-        <v>244300</v>
+        <v>1029400</v>
       </c>
       <c r="J8" s="3">
+        <v>250100</v>
+      </c>
+      <c r="K8" s="3">
         <v>235000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>264400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>925500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>379500</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>236800</v>
+        <v>276800</v>
       </c>
       <c r="E9" s="3">
-        <v>223200</v>
+        <v>242400</v>
       </c>
       <c r="F9" s="3">
-        <v>224200</v>
+        <v>228400</v>
       </c>
       <c r="G9" s="3">
-        <v>226400</v>
+        <v>229500</v>
       </c>
       <c r="H9" s="3">
-        <v>866700</v>
+        <v>231700</v>
       </c>
       <c r="I9" s="3">
-        <v>210000</v>
+        <v>887200</v>
       </c>
       <c r="J9" s="3">
+        <v>215000</v>
+      </c>
+      <c r="K9" s="3">
         <v>205300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>602100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1178100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>345800</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>23400</v>
+        <v>36500</v>
       </c>
       <c r="E10" s="3">
-        <v>29800</v>
+        <v>24000</v>
       </c>
       <c r="F10" s="3">
-        <v>33600</v>
+        <v>30500</v>
       </c>
       <c r="G10" s="3">
-        <v>38200</v>
+        <v>34400</v>
       </c>
       <c r="H10" s="3">
-        <v>139000</v>
+        <v>39100</v>
       </c>
       <c r="I10" s="3">
-        <v>34300</v>
+        <v>142300</v>
       </c>
       <c r="J10" s="3">
+        <v>35100</v>
+      </c>
+      <c r="K10" s="3">
         <v>29600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-337600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-252500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -841,8 +854,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -876,8 +890,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,63 +928,69 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>4200</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>600</v>
+        <v>4300</v>
       </c>
       <c r="F14" s="3">
-        <v>5300</v>
+        <v>700</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="H14" s="3">
-        <v>26300</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>27000</v>
+      </c>
+      <c r="J14" s="3">
         <v>1200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-1100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-54500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G15" s="3">
         <v>3300</v>
       </c>
-      <c r="E15" s="3">
-        <v>3300</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3200</v>
-      </c>
-      <c r="G15" s="3">
-        <v>2800</v>
-      </c>
       <c r="H15" s="3">
-        <v>11400</v>
+        <v>2900</v>
       </c>
       <c r="I15" s="3">
-        <v>2800</v>
+        <v>11700</v>
       </c>
       <c r="J15" s="3">
         <v>2900</v>
@@ -976,13 +999,16 @@
         <v>2900</v>
       </c>
       <c r="L15" s="3">
+        <v>2900</v>
+      </c>
+      <c r="M15" s="3">
         <v>11700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -993,78 +1019,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>264100</v>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E17" s="3">
-        <v>249400</v>
+        <v>270300</v>
       </c>
       <c r="F17" s="3">
-        <v>261500</v>
+        <v>255300</v>
       </c>
       <c r="G17" s="3">
-        <v>258900</v>
+        <v>267700</v>
       </c>
       <c r="H17" s="3">
-        <v>1031200</v>
+        <v>265000</v>
       </c>
       <c r="I17" s="3">
-        <v>241600</v>
+        <v>1055500</v>
       </c>
       <c r="J17" s="3">
+        <v>247300</v>
+      </c>
+      <c r="K17" s="3">
         <v>234400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>261600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>904200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>388400</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-3900</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>3500</v>
+        <v>-4000</v>
       </c>
       <c r="F18" s="3">
-        <v>-3700</v>
+        <v>3600</v>
       </c>
       <c r="G18" s="3">
-        <v>5600</v>
+        <v>-3800</v>
       </c>
       <c r="H18" s="3">
-        <v>-25500</v>
+        <v>5800</v>
       </c>
       <c r="I18" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="J18" s="3">
         <v>2700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>21300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1078,78 +1111,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-3300</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>-3700</v>
+        <v>-3400</v>
       </c>
       <c r="F20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H20" s="3">
         <v>-2100</v>
       </c>
-      <c r="G20" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-38300</v>
-      </c>
       <c r="I20" s="3">
+        <v>-39200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-9400</v>
       </c>
-      <c r="J20" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-9800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-41700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>4100</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>11100</v>
+        <v>4200</v>
       </c>
       <c r="F21" s="3">
-        <v>5500</v>
+        <v>11400</v>
       </c>
       <c r="G21" s="3">
-        <v>13800</v>
+        <v>5700</v>
       </c>
       <c r="H21" s="3">
-        <v>-25100</v>
+        <v>14200</v>
       </c>
       <c r="I21" s="3">
-        <v>4300</v>
+        <v>-25700</v>
       </c>
       <c r="J21" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K21" s="3">
         <v>2300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>23100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1177,84 +1217,93 @@
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-7200</v>
+        <v>1400</v>
       </c>
       <c r="E23" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>-5800</v>
-      </c>
       <c r="G23" s="3">
-        <v>3600</v>
+        <v>-6000</v>
       </c>
       <c r="H23" s="3">
-        <v>-63800</v>
+        <v>3700</v>
       </c>
       <c r="I23" s="3">
-        <v>-6800</v>
+        <v>-65300</v>
       </c>
       <c r="J23" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-8900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-20800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-20200</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="F24" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G24" s="3">
         <v>-4800</v>
       </c>
-      <c r="E24" s="3">
-        <v>3700</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1500</v>
       </c>
-      <c r="H24" s="3">
-        <v>-6600</v>
-      </c>
       <c r="I24" s="3">
-        <v>-1800</v>
+        <v>-6800</v>
       </c>
       <c r="J24" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K24" s="3">
         <v>-2300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-4000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1288,78 +1337,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2400</v>
       </c>
-      <c r="E26" s="3">
-        <v>-3900</v>
-      </c>
       <c r="F26" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="G26" s="3">
-        <v>2100</v>
-      </c>
       <c r="H26" s="3">
-        <v>-57100</v>
+        <v>2200</v>
       </c>
       <c r="I26" s="3">
-        <v>-4900</v>
+        <v>-58500</v>
       </c>
       <c r="J26" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-6500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-16800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-15100</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-3300</v>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E27" s="3">
-        <v>-4800</v>
+        <v>-3400</v>
       </c>
       <c r="F27" s="3">
-        <v>-2100</v>
+        <v>-4900</v>
       </c>
       <c r="G27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
-        <v>-70300</v>
-      </c>
       <c r="I27" s="3">
-        <v>-8800</v>
+        <v>-71900</v>
       </c>
       <c r="J27" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-9600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-27100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1393,13 +1451,16 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1411,25 +1472,28 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>155900</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>5100</v>
+        <v>159600</v>
       </c>
       <c r="J29" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K29" s="3">
         <v>7800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>9300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>15800</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1463,8 +1527,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1498,78 +1565,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>3300</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>3700</v>
+        <v>3400</v>
       </c>
       <c r="F32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H32" s="3">
         <v>2100</v>
       </c>
-      <c r="G32" s="3">
-        <v>2100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>38300</v>
-      </c>
       <c r="I32" s="3">
+        <v>39200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K32" s="3">
         <v>9400</v>
       </c>
-      <c r="J32" s="3">
-        <v>9400</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>9800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>41700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-3300</v>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E33" s="3">
-        <v>-4800</v>
+        <v>-3400</v>
       </c>
       <c r="F33" s="3">
-        <v>-2100</v>
+        <v>-4900</v>
       </c>
       <c r="G33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
-        <v>85600</v>
-      </c>
       <c r="I33" s="3">
-        <v>-3800</v>
+        <v>87600</v>
       </c>
       <c r="J33" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1603,83 +1679,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-3300</v>
+      <c r="D35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>-4800</v>
+        <v>-3400</v>
       </c>
       <c r="F35" s="3">
-        <v>-2100</v>
+        <v>-4900</v>
       </c>
       <c r="G35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
-        <v>85600</v>
-      </c>
       <c r="I35" s="3">
-        <v>-3800</v>
+        <v>87600</v>
       </c>
       <c r="J35" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E38" s="2">
         <v>44562</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44471</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44380</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44289</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44198</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43827</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43736</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1693,8 +1778,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1708,218 +1794,237 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>200</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>118500</v>
+        <v>138700</v>
       </c>
       <c r="E43" s="3">
-        <v>119900</v>
+        <v>121300</v>
       </c>
       <c r="F43" s="3">
-        <v>114900</v>
+        <v>122700</v>
       </c>
       <c r="G43" s="3">
-        <v>121500</v>
+        <v>117700</v>
       </c>
       <c r="H43" s="3">
-        <v>101500</v>
+        <v>124400</v>
       </c>
       <c r="I43" s="3">
-        <v>187800</v>
+        <v>103900</v>
       </c>
       <c r="J43" s="3">
+        <v>192200</v>
+      </c>
+      <c r="K43" s="3">
         <v>165600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>193000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>101700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>174900</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>280500</v>
+        <v>284300</v>
       </c>
       <c r="E44" s="3">
-        <v>294200</v>
+        <v>287200</v>
       </c>
       <c r="F44" s="3">
-        <v>292900</v>
+        <v>301200</v>
       </c>
       <c r="G44" s="3">
-        <v>210700</v>
+        <v>299800</v>
       </c>
       <c r="H44" s="3">
-        <v>188300</v>
+        <v>215700</v>
       </c>
       <c r="I44" s="3">
-        <v>395500</v>
+        <v>192700</v>
       </c>
       <c r="J44" s="3">
+        <v>404800</v>
+      </c>
+      <c r="K44" s="3">
         <v>405200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>347100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>197000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>443400</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>21200</v>
+        <v>20900</v>
       </c>
       <c r="E45" s="3">
-        <v>21100</v>
+        <v>21700</v>
       </c>
       <c r="F45" s="3">
-        <v>20100</v>
+        <v>21600</v>
       </c>
       <c r="G45" s="3">
-        <v>23500</v>
+        <v>20600</v>
       </c>
       <c r="H45" s="3">
-        <v>27600</v>
+        <v>24100</v>
       </c>
       <c r="I45" s="3">
-        <v>38400</v>
+        <v>28300</v>
       </c>
       <c r="J45" s="3">
+        <v>39300</v>
+      </c>
+      <c r="K45" s="3">
         <v>35800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>45000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>329600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>46200</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>420500</v>
+        <v>444600</v>
       </c>
       <c r="E46" s="3">
-        <v>435600</v>
+        <v>430400</v>
       </c>
       <c r="F46" s="3">
-        <v>428600</v>
+        <v>445900</v>
       </c>
       <c r="G46" s="3">
-        <v>356700</v>
+        <v>438700</v>
       </c>
       <c r="H46" s="3">
-        <v>317700</v>
+        <v>365100</v>
       </c>
       <c r="I46" s="3">
-        <v>622800</v>
+        <v>325200</v>
       </c>
       <c r="J46" s="3">
+        <v>637600</v>
+      </c>
+      <c r="K46" s="3">
         <v>608700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>588700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>628400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>667300</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1953,78 +2058,87 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>340000</v>
+        <v>377100</v>
       </c>
       <c r="E48" s="3">
-        <v>313500</v>
+        <v>348000</v>
       </c>
       <c r="F48" s="3">
-        <v>298300</v>
+        <v>320900</v>
       </c>
       <c r="G48" s="3">
-        <v>281800</v>
+        <v>305400</v>
       </c>
       <c r="H48" s="3">
-        <v>246200</v>
+        <v>288500</v>
       </c>
       <c r="I48" s="3">
-        <v>325200</v>
+        <v>252000</v>
       </c>
       <c r="J48" s="3">
+        <v>332900</v>
+      </c>
+      <c r="K48" s="3">
         <v>322100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>321100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>289400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>325500</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>194300</v>
+        <v>195400</v>
       </c>
       <c r="E49" s="3">
-        <v>197600</v>
+        <v>198800</v>
       </c>
       <c r="F49" s="3">
-        <v>200900</v>
+        <v>202200</v>
       </c>
       <c r="G49" s="3">
-        <v>172200</v>
+        <v>205700</v>
       </c>
       <c r="H49" s="3">
-        <v>175000</v>
+        <v>176300</v>
       </c>
       <c r="I49" s="3">
-        <v>217800</v>
+        <v>179100</v>
       </c>
       <c r="J49" s="3">
+        <v>223000</v>
+      </c>
+      <c r="K49" s="3">
         <v>220600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>223700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>187600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>232000</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2058,8 +2172,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2093,43 +2210,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7600</v>
+        <v>7900</v>
       </c>
       <c r="E52" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="F52" s="3">
-        <v>18000</v>
+        <v>8100</v>
       </c>
       <c r="G52" s="3">
-        <v>9500</v>
+        <v>18500</v>
       </c>
       <c r="H52" s="3">
-        <v>7300</v>
+        <v>9700</v>
       </c>
       <c r="I52" s="3">
-        <v>8200</v>
+        <v>7500</v>
       </c>
       <c r="J52" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K52" s="3">
         <v>7500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>78900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2163,43 +2286,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>962200</v>
+        <v>1025000</v>
       </c>
       <c r="E54" s="3">
-        <v>954600</v>
+        <v>985000</v>
       </c>
       <c r="F54" s="3">
-        <v>945800</v>
+        <v>977200</v>
       </c>
       <c r="G54" s="3">
-        <v>820200</v>
+        <v>968200</v>
       </c>
       <c r="H54" s="3">
-        <v>746200</v>
+        <v>839500</v>
       </c>
       <c r="I54" s="3">
-        <v>1174100</v>
+        <v>763900</v>
       </c>
       <c r="J54" s="3">
+        <v>1201800</v>
+      </c>
+      <c r="K54" s="3">
         <v>1158900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1139300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1184300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1229500</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2213,8 +2342,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2228,218 +2358,237 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>176800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>158400</v>
+      </c>
+      <c r="F57" s="3">
+        <v>149400</v>
+      </c>
+      <c r="G57" s="3">
+        <v>151100</v>
+      </c>
+      <c r="H57" s="3">
+        <v>139900</v>
+      </c>
+      <c r="I57" s="3">
         <v>154700</v>
       </c>
-      <c r="E57" s="3">
-        <v>146000</v>
-      </c>
-      <c r="F57" s="3">
-        <v>147600</v>
-      </c>
-      <c r="G57" s="3">
-        <v>136700</v>
-      </c>
-      <c r="H57" s="3">
-        <v>151100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>184100</v>
-      </c>
       <c r="J57" s="3">
+        <v>188500</v>
+      </c>
+      <c r="K57" s="3">
         <v>169200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>156400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>114300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>172300</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12400</v>
+        <v>23300</v>
       </c>
       <c r="E58" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F58" s="3">
+        <v>10100</v>
+      </c>
+      <c r="G58" s="3">
         <v>9900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>9700</v>
       </c>
-      <c r="G58" s="3">
-        <v>9500</v>
-      </c>
-      <c r="H58" s="3">
-        <v>4400</v>
-      </c>
       <c r="I58" s="3">
-        <v>258900</v>
+        <v>4500</v>
       </c>
       <c r="J58" s="3">
+        <v>265100</v>
+      </c>
+      <c r="K58" s="3">
         <v>265200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>290600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>313800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>350100</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15600</v>
+        <v>13200</v>
       </c>
       <c r="E59" s="3">
-        <v>16500</v>
+        <v>15900</v>
       </c>
       <c r="F59" s="3">
-        <v>18300</v>
+        <v>16900</v>
       </c>
       <c r="G59" s="3">
-        <v>19100</v>
+        <v>18800</v>
       </c>
       <c r="H59" s="3">
-        <v>18300</v>
+        <v>19500</v>
       </c>
       <c r="I59" s="3">
-        <v>22700</v>
+        <v>18800</v>
       </c>
       <c r="J59" s="3">
+        <v>23200</v>
+      </c>
+      <c r="K59" s="3">
         <v>24600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>28900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>93900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>182700</v>
+        <v>213300</v>
       </c>
       <c r="E60" s="3">
-        <v>172300</v>
+        <v>187000</v>
       </c>
       <c r="F60" s="3">
-        <v>175600</v>
+        <v>176400</v>
       </c>
       <c r="G60" s="3">
-        <v>165300</v>
+        <v>179800</v>
       </c>
       <c r="H60" s="3">
-        <v>173900</v>
+        <v>169200</v>
       </c>
       <c r="I60" s="3">
-        <v>465700</v>
+        <v>178000</v>
       </c>
       <c r="J60" s="3">
+        <v>476700</v>
+      </c>
+      <c r="K60" s="3">
         <v>459000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>475900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>520300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>553500</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>273800</v>
+        <v>302400</v>
       </c>
       <c r="E61" s="3">
-        <v>270900</v>
+        <v>280200</v>
       </c>
       <c r="F61" s="3">
-        <v>253100</v>
+        <v>277300</v>
       </c>
       <c r="G61" s="3">
-        <v>165700</v>
+        <v>259100</v>
       </c>
       <c r="H61" s="3">
-        <v>84400</v>
+        <v>169700</v>
       </c>
       <c r="I61" s="3">
-        <v>306600</v>
+        <v>86400</v>
       </c>
       <c r="J61" s="3">
+        <v>313800</v>
+      </c>
+      <c r="K61" s="3">
         <v>306800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>307100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>302500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>310300</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>81200</v>
+        <v>67800</v>
       </c>
       <c r="E62" s="3">
-        <v>82900</v>
+        <v>83200</v>
       </c>
       <c r="F62" s="3">
-        <v>84000</v>
+        <v>84800</v>
       </c>
       <c r="G62" s="3">
-        <v>64500</v>
+        <v>85900</v>
       </c>
       <c r="H62" s="3">
-        <v>63700</v>
+        <v>66000</v>
       </c>
       <c r="I62" s="3">
-        <v>84200</v>
+        <v>65200</v>
       </c>
       <c r="J62" s="3">
+        <v>86200</v>
+      </c>
+      <c r="K62" s="3">
         <v>80700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>78600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>89000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>87600</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2473,8 +2622,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2508,8 +2660,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2543,43 +2698,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>537700</v>
+        <v>583400</v>
       </c>
       <c r="E66" s="3">
-        <v>526100</v>
+        <v>550400</v>
       </c>
       <c r="F66" s="3">
-        <v>512700</v>
+        <v>538500</v>
       </c>
       <c r="G66" s="3">
-        <v>395500</v>
+        <v>524800</v>
       </c>
       <c r="H66" s="3">
-        <v>322000</v>
+        <v>404900</v>
       </c>
       <c r="I66" s="3">
-        <v>858800</v>
+        <v>329600</v>
       </c>
       <c r="J66" s="3">
+        <v>879100</v>
+      </c>
+      <c r="K66" s="3">
         <v>848700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>864000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>914300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>953600</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2593,8 +2754,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2628,8 +2790,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2663,43 +2828,49 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>35900</v>
+        <v>36900</v>
       </c>
       <c r="E70" s="3">
-        <v>35700</v>
+        <v>36700</v>
       </c>
       <c r="F70" s="3">
-        <v>35500</v>
+        <v>36500</v>
       </c>
       <c r="G70" s="3">
-        <v>35300</v>
+        <v>36300</v>
       </c>
       <c r="H70" s="3">
-        <v>146400</v>
+        <v>36200</v>
       </c>
       <c r="I70" s="3">
-        <v>145800</v>
+        <v>149900</v>
       </c>
       <c r="J70" s="3">
+        <v>149300</v>
+      </c>
+      <c r="K70" s="3">
         <v>142400</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>107700</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>105800</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>105400</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2733,43 +2904,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-198900</v>
+        <v>-199100</v>
       </c>
       <c r="E72" s="3">
-        <v>-195600</v>
+        <v>-203600</v>
       </c>
       <c r="F72" s="3">
-        <v>-190700</v>
+        <v>-200200</v>
       </c>
       <c r="G72" s="3">
-        <v>-188600</v>
+        <v>-195200</v>
       </c>
       <c r="H72" s="3">
-        <v>-188300</v>
+        <v>-193100</v>
       </c>
       <c r="I72" s="3">
-        <v>-277700</v>
+        <v>-192700</v>
       </c>
       <c r="J72" s="3">
+        <v>-284300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-274200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-272100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-275700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-265900</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2803,8 +2980,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2838,8 +3018,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2873,43 +3056,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>388600</v>
+        <v>367800</v>
       </c>
       <c r="E76" s="3">
-        <v>392800</v>
+        <v>397800</v>
       </c>
       <c r="F76" s="3">
-        <v>397700</v>
+        <v>402100</v>
       </c>
       <c r="G76" s="3">
-        <v>389300</v>
+        <v>407100</v>
       </c>
       <c r="H76" s="3">
-        <v>277800</v>
+        <v>398500</v>
       </c>
       <c r="I76" s="3">
-        <v>169500</v>
+        <v>284400</v>
       </c>
       <c r="J76" s="3">
+        <v>173500</v>
+      </c>
+      <c r="K76" s="3">
         <v>167800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>167600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>164200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>170400</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2943,83 +3132,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E80" s="2">
         <v>44562</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44471</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44380</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44289</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44198</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43827</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43736</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-3300</v>
+      <c r="D81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E81" s="3">
-        <v>-4800</v>
+        <v>-3400</v>
       </c>
       <c r="F81" s="3">
-        <v>-2100</v>
+        <v>-4900</v>
       </c>
       <c r="G81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
-        <v>85600</v>
-      </c>
       <c r="I81" s="3">
-        <v>-3800</v>
+        <v>87600</v>
       </c>
       <c r="J81" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3033,43 +3231,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F83" s="3">
+        <v>11500</v>
+      </c>
+      <c r="G83" s="3">
+        <v>11600</v>
+      </c>
+      <c r="H83" s="3">
+        <v>10500</v>
+      </c>
+      <c r="I83" s="3">
+        <v>39500</v>
+      </c>
+      <c r="J83" s="3">
         <v>11300</v>
       </c>
-      <c r="E83" s="3">
-        <v>11300</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="K83" s="3">
+        <v>11200</v>
+      </c>
+      <c r="L83" s="3">
         <v>11400</v>
       </c>
-      <c r="G83" s="3">
-        <v>10200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>38600</v>
-      </c>
-      <c r="I83" s="3">
-        <v>11000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>11200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>11400</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>43500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3103,8 +3305,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3138,8 +3343,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3173,8 +3381,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3208,8 +3419,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3243,43 +3457,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>25100</v>
+        <v>20300</v>
       </c>
       <c r="E89" s="3">
-        <v>6500</v>
+        <v>25700</v>
       </c>
       <c r="F89" s="3">
-        <v>-49900</v>
+        <v>6600</v>
       </c>
       <c r="G89" s="3">
-        <v>-8900</v>
+        <v>-51100</v>
       </c>
       <c r="H89" s="3">
-        <v>116800</v>
+        <v>-9200</v>
       </c>
       <c r="I89" s="3">
-        <v>25700</v>
+        <v>119600</v>
       </c>
       <c r="J89" s="3">
+        <v>26300</v>
+      </c>
+      <c r="K89" s="3">
         <v>3400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>44300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>12600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3293,43 +3513,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-29700</v>
+        <v>-33600</v>
       </c>
       <c r="E91" s="3">
-        <v>-23400</v>
+        <v>-30400</v>
       </c>
       <c r="F91" s="3">
-        <v>-9300</v>
+        <v>-24000</v>
       </c>
       <c r="G91" s="3">
-        <v>-11800</v>
+        <v>-9500</v>
       </c>
       <c r="H91" s="3">
-        <v>-31500</v>
+        <v>-12100</v>
       </c>
       <c r="I91" s="3">
-        <v>-15100</v>
+        <v>-32300</v>
       </c>
       <c r="J91" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-8100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-42000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3363,8 +3587,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3398,43 +3625,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-29700</v>
+        <v>-32000</v>
       </c>
       <c r="E94" s="3">
-        <v>-22200</v>
+        <v>-30400</v>
       </c>
       <c r="F94" s="3">
-        <v>-41300</v>
+        <v>-22700</v>
       </c>
       <c r="G94" s="3">
-        <v>-27200</v>
+        <v>-42200</v>
       </c>
       <c r="H94" s="3">
-        <v>413500</v>
+        <v>-27800</v>
       </c>
       <c r="I94" s="3">
-        <v>-15000</v>
+        <v>423300</v>
       </c>
       <c r="J94" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-8100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-12300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>34900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3448,8 +3681,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3483,8 +3717,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3518,8 +3755,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3553,8 +3793,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3588,48 +3831,54 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4600</v>
+        <v>12100</v>
       </c>
       <c r="E100" s="3">
-        <v>15500</v>
+        <v>4700</v>
       </c>
       <c r="F100" s="3">
-        <v>90800</v>
+        <v>15900</v>
       </c>
       <c r="G100" s="3">
-        <v>36800</v>
+        <v>92900</v>
       </c>
       <c r="H100" s="3">
-        <v>-532300</v>
+        <v>37600</v>
       </c>
       <c r="I100" s="3">
-        <v>-11600</v>
+        <v>-544800</v>
       </c>
       <c r="J100" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="K100" s="3">
         <v>3300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-30400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-49700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -3641,11 +3890,11 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
@@ -3653,44 +3902,50 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M101" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>-200</v>
-      </c>
       <c r="F102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
-        <v>600</v>
-      </c>
       <c r="H102" s="3">
+        <v>700</v>
+      </c>
+      <c r="I102" s="3">
         <v>-1600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>SOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,182 +665,194 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
         <v>44653</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44562</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44471</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44380</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44289</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44198</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43827</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>313300</v>
+        <v>314700</v>
       </c>
       <c r="E8" s="3">
-        <v>266400</v>
+        <v>310400</v>
       </c>
       <c r="F8" s="3">
-        <v>258900</v>
+        <v>263900</v>
       </c>
       <c r="G8" s="3">
-        <v>263900</v>
+        <v>256500</v>
       </c>
       <c r="H8" s="3">
-        <v>270800</v>
+        <v>261500</v>
       </c>
       <c r="I8" s="3">
-        <v>1029400</v>
+        <v>268300</v>
       </c>
       <c r="J8" s="3">
+        <v>1020000</v>
+      </c>
+      <c r="K8" s="3">
         <v>250100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>235000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>264400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>925500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>379500</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>276800</v>
+        <v>269300</v>
       </c>
       <c r="E9" s="3">
-        <v>242400</v>
+        <v>273700</v>
       </c>
       <c r="F9" s="3">
-        <v>228400</v>
+        <v>240200</v>
       </c>
       <c r="G9" s="3">
-        <v>229500</v>
+        <v>226300</v>
       </c>
       <c r="H9" s="3">
-        <v>231700</v>
+        <v>227400</v>
       </c>
       <c r="I9" s="3">
-        <v>887200</v>
+        <v>229600</v>
       </c>
       <c r="J9" s="3">
+        <v>879000</v>
+      </c>
+      <c r="K9" s="3">
         <v>215000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>205300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>602100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1178100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>345800</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>36500</v>
+        <v>45400</v>
       </c>
       <c r="E10" s="3">
-        <v>24000</v>
+        <v>36800</v>
       </c>
       <c r="F10" s="3">
-        <v>30500</v>
+        <v>23700</v>
       </c>
       <c r="G10" s="3">
-        <v>34400</v>
+        <v>30200</v>
       </c>
       <c r="H10" s="3">
-        <v>39100</v>
+        <v>34100</v>
       </c>
       <c r="I10" s="3">
-        <v>142300</v>
+        <v>38700</v>
       </c>
       <c r="J10" s="3">
+        <v>141000</v>
+      </c>
+      <c r="K10" s="3">
         <v>35100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>29600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-337600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-252500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -855,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,8 +906,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -931,46 +947,52 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>1200</v>
       </c>
       <c r="E14" s="3">
-        <v>4300</v>
+        <v>1100</v>
       </c>
       <c r="F14" s="3">
-        <v>700</v>
+        <v>8400</v>
       </c>
       <c r="G14" s="3">
-        <v>5400</v>
+        <v>2700</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>6900</v>
       </c>
       <c r="I14" s="3">
-        <v>27000</v>
+        <v>200</v>
       </c>
       <c r="J14" s="3">
+        <v>26700</v>
+      </c>
+      <c r="K14" s="3">
         <v>1200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-1100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-54500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -984,16 +1006,16 @@
         <v>3400</v>
       </c>
       <c r="G15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H15" s="3">
         <v>3300</v>
       </c>
-      <c r="H15" s="3">
-        <v>2900</v>
-      </c>
       <c r="I15" s="3">
-        <v>11700</v>
+        <v>2800</v>
       </c>
       <c r="J15" s="3">
-        <v>2900</v>
+        <v>11600</v>
       </c>
       <c r="K15" s="3">
         <v>2900</v>
@@ -1002,13 +1024,16 @@
         <v>2900</v>
       </c>
       <c r="M15" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N15" s="3">
         <v>11700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1020,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>306200</v>
       </c>
       <c r="E17" s="3">
-        <v>270300</v>
+        <v>305700</v>
       </c>
       <c r="F17" s="3">
-        <v>255300</v>
+        <v>267900</v>
       </c>
       <c r="G17" s="3">
-        <v>267700</v>
+        <v>253000</v>
       </c>
       <c r="H17" s="3">
-        <v>265000</v>
+        <v>265200</v>
       </c>
       <c r="I17" s="3">
-        <v>1055500</v>
+        <v>262600</v>
       </c>
       <c r="J17" s="3">
+        <v>1045800</v>
+      </c>
+      <c r="K17" s="3">
         <v>247300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>234400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>261600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>904200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>388400</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>8400</v>
       </c>
       <c r="E18" s="3">
-        <v>-4000</v>
+        <v>4700</v>
       </c>
       <c r="F18" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="G18" s="3">
         <v>3600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3800</v>
       </c>
-      <c r="H18" s="3">
-        <v>5800</v>
-      </c>
       <c r="I18" s="3">
-        <v>-26100</v>
+        <v>5700</v>
       </c>
       <c r="J18" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="K18" s="3">
         <v>2700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>21300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1112,84 +1144,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>-4000</v>
       </c>
       <c r="E20" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="F20" s="3">
-        <v>-3800</v>
+        <v>-3300</v>
       </c>
       <c r="G20" s="3">
-        <v>-2200</v>
+        <v>-3700</v>
       </c>
       <c r="H20" s="3">
         <v>-2100</v>
       </c>
       <c r="I20" s="3">
-        <v>-39200</v>
+        <v>-2100</v>
       </c>
       <c r="J20" s="3">
+        <v>-38800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-9700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-9400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-9800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-41700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>16600</v>
       </c>
       <c r="E21" s="3">
-        <v>4200</v>
+        <v>13600</v>
       </c>
       <c r="F21" s="3">
-        <v>11400</v>
+        <v>4100</v>
       </c>
       <c r="G21" s="3">
-        <v>5700</v>
+        <v>11300</v>
       </c>
       <c r="H21" s="3">
-        <v>14200</v>
+        <v>5600</v>
       </c>
       <c r="I21" s="3">
-        <v>-25700</v>
+        <v>14000</v>
       </c>
       <c r="J21" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="K21" s="3">
         <v>4400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>23100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1220,90 +1259,99 @@
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E23" s="3">
         <v>1400</v>
       </c>
-      <c r="E23" s="3">
-        <v>-7400</v>
-      </c>
       <c r="F23" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>-6000</v>
-      </c>
       <c r="H23" s="3">
-        <v>3700</v>
+        <v>-5900</v>
       </c>
       <c r="I23" s="3">
-        <v>-65300</v>
+        <v>3600</v>
       </c>
       <c r="J23" s="3">
+        <v>-64700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-6900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-20800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-20200</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-4900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3800</v>
       </c>
-      <c r="G24" s="3">
-        <v>-4800</v>
-      </c>
       <c r="H24" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="I24" s="3">
         <v>1500</v>
       </c>
-      <c r="I24" s="3">
-        <v>-6800</v>
-      </c>
       <c r="J24" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-4000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1340,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>3200</v>
       </c>
       <c r="E26" s="3">
+        <v>800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2400</v>
       </c>
-      <c r="F26" s="3">
-        <v>-4000</v>
-      </c>
       <c r="G26" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="H26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2200</v>
       </c>
-      <c r="I26" s="3">
-        <v>-58500</v>
-      </c>
       <c r="J26" s="3">
+        <v>-57900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-5100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-16800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-15100</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>2200</v>
       </c>
       <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4900</v>
       </c>
-      <c r="G27" s="3">
-        <v>-2200</v>
-      </c>
       <c r="H27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
-        <v>-71900</v>
-      </c>
       <c r="J27" s="3">
+        <v>-71300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-9000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-27100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1454,16 +1511,19 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>4700</v>
+        <v>-1100</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1475,25 +1535,28 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>159600</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>158100</v>
+      </c>
+      <c r="K29" s="3">
         <v>5200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>7800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>9300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>15800</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1530,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1568,84 +1634,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>4000</v>
       </c>
       <c r="E32" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="F32" s="3">
-        <v>3800</v>
+        <v>3300</v>
       </c>
       <c r="G32" s="3">
-        <v>2200</v>
+        <v>3700</v>
       </c>
       <c r="H32" s="3">
         <v>2100</v>
       </c>
       <c r="I32" s="3">
-        <v>39200</v>
+        <v>2100</v>
       </c>
       <c r="J32" s="3">
+        <v>38800</v>
+      </c>
+      <c r="K32" s="3">
         <v>9700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>9400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>9800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>41700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>1200</v>
       </c>
       <c r="E33" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4900</v>
       </c>
-      <c r="G33" s="3">
-        <v>-2200</v>
-      </c>
       <c r="H33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
-        <v>87600</v>
-      </c>
       <c r="J33" s="3">
+        <v>86800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-3900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-11300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1682,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>1200</v>
       </c>
       <c r="E35" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4900</v>
       </c>
-      <c r="G35" s="3">
-        <v>-2200</v>
-      </c>
       <c r="H35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
-        <v>87600</v>
-      </c>
       <c r="J35" s="3">
+        <v>86800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-3900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-11300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
         <v>44653</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44562</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44471</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44380</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44289</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44198</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43827</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1779,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1795,46 +1880,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1859,172 +1948,187 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>200</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>138700</v>
+        <v>121100</v>
       </c>
       <c r="E43" s="3">
-        <v>121300</v>
+        <v>137400</v>
       </c>
       <c r="F43" s="3">
-        <v>122700</v>
+        <v>120100</v>
       </c>
       <c r="G43" s="3">
-        <v>117700</v>
+        <v>121600</v>
       </c>
       <c r="H43" s="3">
-        <v>124400</v>
+        <v>116600</v>
       </c>
       <c r="I43" s="3">
-        <v>103900</v>
+        <v>123200</v>
       </c>
       <c r="J43" s="3">
+        <v>103000</v>
+      </c>
+      <c r="K43" s="3">
         <v>192200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>165600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>193000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>101700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>174900</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>284300</v>
+        <v>338500</v>
       </c>
       <c r="E44" s="3">
-        <v>287200</v>
+        <v>281700</v>
       </c>
       <c r="F44" s="3">
-        <v>301200</v>
+        <v>284500</v>
       </c>
       <c r="G44" s="3">
-        <v>299800</v>
+        <v>298400</v>
       </c>
       <c r="H44" s="3">
-        <v>215700</v>
+        <v>297100</v>
       </c>
       <c r="I44" s="3">
-        <v>192700</v>
+        <v>213700</v>
       </c>
       <c r="J44" s="3">
+        <v>190900</v>
+      </c>
+      <c r="K44" s="3">
         <v>404800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>405200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>347100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>197000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>443400</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>20900</v>
+        <v>37600</v>
       </c>
       <c r="E45" s="3">
-        <v>21700</v>
+        <v>20700</v>
       </c>
       <c r="F45" s="3">
-        <v>21600</v>
+        <v>21500</v>
       </c>
       <c r="G45" s="3">
-        <v>20600</v>
+        <v>21400</v>
       </c>
       <c r="H45" s="3">
-        <v>24100</v>
+        <v>20400</v>
       </c>
       <c r="I45" s="3">
-        <v>28300</v>
+        <v>23800</v>
       </c>
       <c r="J45" s="3">
+        <v>28000</v>
+      </c>
+      <c r="K45" s="3">
         <v>39300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>35800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>45000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>329600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>46200</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>444600</v>
+        <v>497800</v>
       </c>
       <c r="E46" s="3">
-        <v>430400</v>
+        <v>440500</v>
       </c>
       <c r="F46" s="3">
-        <v>445900</v>
+        <v>426500</v>
       </c>
       <c r="G46" s="3">
-        <v>438700</v>
+        <v>441800</v>
       </c>
       <c r="H46" s="3">
-        <v>365100</v>
+        <v>434700</v>
       </c>
       <c r="I46" s="3">
-        <v>325200</v>
+        <v>361700</v>
       </c>
       <c r="J46" s="3">
+        <v>322200</v>
+      </c>
+      <c r="K46" s="3">
         <v>637600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>608700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>588700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>628400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>667300</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2061,84 +2165,93 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>377100</v>
+        <v>395100</v>
       </c>
       <c r="E48" s="3">
-        <v>348000</v>
+        <v>373600</v>
       </c>
       <c r="F48" s="3">
-        <v>320900</v>
+        <v>344800</v>
       </c>
       <c r="G48" s="3">
-        <v>305400</v>
+        <v>318000</v>
       </c>
       <c r="H48" s="3">
-        <v>288500</v>
+        <v>302600</v>
       </c>
       <c r="I48" s="3">
-        <v>252000</v>
+        <v>285800</v>
       </c>
       <c r="J48" s="3">
+        <v>249700</v>
+      </c>
+      <c r="K48" s="3">
         <v>332900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>322100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>321100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>289400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>325500</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>195400</v>
+        <v>190300</v>
       </c>
       <c r="E49" s="3">
-        <v>198800</v>
+        <v>193600</v>
       </c>
       <c r="F49" s="3">
-        <v>202200</v>
+        <v>197000</v>
       </c>
       <c r="G49" s="3">
-        <v>205700</v>
+        <v>200400</v>
       </c>
       <c r="H49" s="3">
-        <v>176300</v>
+        <v>203800</v>
       </c>
       <c r="I49" s="3">
-        <v>179100</v>
+        <v>174600</v>
       </c>
       <c r="J49" s="3">
+        <v>177500</v>
+      </c>
+      <c r="K49" s="3">
         <v>223000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>220600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>223700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>187600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>232000</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2175,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2213,46 +2329,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7900</v>
+        <v>7500</v>
       </c>
       <c r="E52" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F52" s="3">
         <v>7700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8100</v>
       </c>
-      <c r="G52" s="3">
-        <v>18500</v>
-      </c>
       <c r="H52" s="3">
-        <v>9700</v>
+        <v>18300</v>
       </c>
       <c r="I52" s="3">
+        <v>9600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K52" s="3">
+        <v>8400</v>
+      </c>
+      <c r="L52" s="3">
         <v>7500</v>
       </c>
-      <c r="J52" s="3">
-        <v>8400</v>
-      </c>
-      <c r="K52" s="3">
-        <v>7500</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>78900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2289,46 +2411,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1025000</v>
+        <v>1090700</v>
       </c>
       <c r="E54" s="3">
-        <v>985000</v>
+        <v>1015600</v>
       </c>
       <c r="F54" s="3">
-        <v>977200</v>
+        <v>975900</v>
       </c>
       <c r="G54" s="3">
         <v>968200</v>
       </c>
       <c r="H54" s="3">
-        <v>839500</v>
+        <v>959300</v>
       </c>
       <c r="I54" s="3">
-        <v>763900</v>
+        <v>831800</v>
       </c>
       <c r="J54" s="3">
+        <v>756800</v>
+      </c>
+      <c r="K54" s="3">
         <v>1201800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1158900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1139300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1184300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1229500</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2343,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2359,236 +2488,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>176800</v>
+        <v>184900</v>
       </c>
       <c r="E57" s="3">
-        <v>158400</v>
+        <v>175100</v>
       </c>
       <c r="F57" s="3">
-        <v>149400</v>
+        <v>156900</v>
       </c>
       <c r="G57" s="3">
-        <v>151100</v>
+        <v>148000</v>
       </c>
       <c r="H57" s="3">
-        <v>139900</v>
+        <v>149700</v>
       </c>
       <c r="I57" s="3">
-        <v>154700</v>
+        <v>138600</v>
       </c>
       <c r="J57" s="3">
+        <v>153300</v>
+      </c>
+      <c r="K57" s="3">
         <v>188500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>169200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>156400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>114300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>172300</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>23300</v>
+        <v>29800</v>
       </c>
       <c r="E58" s="3">
-        <v>12700</v>
+        <v>23100</v>
       </c>
       <c r="F58" s="3">
-        <v>10100</v>
+        <v>12600</v>
       </c>
       <c r="G58" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="H58" s="3">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="I58" s="3">
+        <v>9600</v>
+      </c>
+      <c r="J58" s="3">
         <v>4500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>265100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>265200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>290600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>313800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>350100</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13200</v>
+        <v>13800</v>
       </c>
       <c r="E59" s="3">
-        <v>15900</v>
+        <v>13100</v>
       </c>
       <c r="F59" s="3">
-        <v>16900</v>
+        <v>15800</v>
       </c>
       <c r="G59" s="3">
-        <v>18800</v>
+        <v>16800</v>
       </c>
       <c r="H59" s="3">
-        <v>19500</v>
+        <v>18600</v>
       </c>
       <c r="I59" s="3">
-        <v>18800</v>
+        <v>19400</v>
       </c>
       <c r="J59" s="3">
+        <v>18600</v>
+      </c>
+      <c r="K59" s="3">
         <v>23200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>24600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>28900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>93900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>213300</v>
+        <v>228500</v>
       </c>
       <c r="E60" s="3">
-        <v>187000</v>
+        <v>211300</v>
       </c>
       <c r="F60" s="3">
-        <v>176400</v>
+        <v>185300</v>
       </c>
       <c r="G60" s="3">
-        <v>179800</v>
+        <v>174800</v>
       </c>
       <c r="H60" s="3">
-        <v>169200</v>
+        <v>178100</v>
       </c>
       <c r="I60" s="3">
-        <v>178000</v>
+        <v>167600</v>
       </c>
       <c r="J60" s="3">
+        <v>176300</v>
+      </c>
+      <c r="K60" s="3">
         <v>476700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>459000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>475900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>520300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>553500</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>302400</v>
+        <v>353500</v>
       </c>
       <c r="E61" s="3">
-        <v>280200</v>
+        <v>299600</v>
       </c>
       <c r="F61" s="3">
-        <v>277300</v>
+        <v>277700</v>
       </c>
       <c r="G61" s="3">
-        <v>259100</v>
+        <v>274700</v>
       </c>
       <c r="H61" s="3">
-        <v>169700</v>
+        <v>256700</v>
       </c>
       <c r="I61" s="3">
-        <v>86400</v>
+        <v>168100</v>
       </c>
       <c r="J61" s="3">
+        <v>85600</v>
+      </c>
+      <c r="K61" s="3">
         <v>313800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>306800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>307100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>302500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>310300</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>67800</v>
+        <v>65400</v>
       </c>
       <c r="E62" s="3">
-        <v>83200</v>
+        <v>67200</v>
       </c>
       <c r="F62" s="3">
-        <v>84800</v>
+        <v>82400</v>
       </c>
       <c r="G62" s="3">
-        <v>85900</v>
+        <v>84100</v>
       </c>
       <c r="H62" s="3">
-        <v>66000</v>
+        <v>85200</v>
       </c>
       <c r="I62" s="3">
-        <v>65200</v>
+        <v>65400</v>
       </c>
       <c r="J62" s="3">
+        <v>64600</v>
+      </c>
+      <c r="K62" s="3">
         <v>86200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>80700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>78600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>89000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>87600</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2625,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2663,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2701,46 +2855,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>583400</v>
+        <v>647300</v>
       </c>
       <c r="E66" s="3">
-        <v>550400</v>
+        <v>578100</v>
       </c>
       <c r="F66" s="3">
-        <v>538500</v>
+        <v>545400</v>
       </c>
       <c r="G66" s="3">
-        <v>524800</v>
+        <v>533600</v>
       </c>
       <c r="H66" s="3">
-        <v>404900</v>
+        <v>520000</v>
       </c>
       <c r="I66" s="3">
-        <v>329600</v>
+        <v>401200</v>
       </c>
       <c r="J66" s="3">
+        <v>326600</v>
+      </c>
+      <c r="K66" s="3">
         <v>879100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>848700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>864000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>914300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>953600</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2755,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2793,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2831,46 +2995,52 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>36900</v>
+        <v>36800</v>
       </c>
       <c r="E70" s="3">
-        <v>36700</v>
+        <v>36600</v>
       </c>
       <c r="F70" s="3">
-        <v>36500</v>
+        <v>36400</v>
       </c>
       <c r="G70" s="3">
-        <v>36300</v>
+        <v>36200</v>
       </c>
       <c r="H70" s="3">
-        <v>36200</v>
+        <v>36000</v>
       </c>
       <c r="I70" s="3">
-        <v>149900</v>
+        <v>35800</v>
       </c>
       <c r="J70" s="3">
+        <v>148500</v>
+      </c>
+      <c r="K70" s="3">
         <v>149300</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>142400</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>107700</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>105800</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>105400</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2907,46 +3077,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-199100</v>
+        <v>-196000</v>
       </c>
       <c r="E72" s="3">
-        <v>-203600</v>
+        <v>-197200</v>
       </c>
       <c r="F72" s="3">
-        <v>-200200</v>
+        <v>-201700</v>
       </c>
       <c r="G72" s="3">
-        <v>-195200</v>
+        <v>-198300</v>
       </c>
       <c r="H72" s="3">
-        <v>-193100</v>
+        <v>-193500</v>
       </c>
       <c r="I72" s="3">
-        <v>-192700</v>
+        <v>-191300</v>
       </c>
       <c r="J72" s="3">
+        <v>-190900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-284300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-274200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-272100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-275700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-265900</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2983,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3021,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3059,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>367800</v>
+        <v>406600</v>
       </c>
       <c r="E76" s="3">
-        <v>397800</v>
+        <v>401000</v>
       </c>
       <c r="F76" s="3">
-        <v>402100</v>
+        <v>394200</v>
       </c>
       <c r="G76" s="3">
-        <v>407100</v>
+        <v>398400</v>
       </c>
       <c r="H76" s="3">
-        <v>398500</v>
+        <v>403300</v>
       </c>
       <c r="I76" s="3">
-        <v>284400</v>
+        <v>394800</v>
       </c>
       <c r="J76" s="3">
+        <v>281800</v>
+      </c>
+      <c r="K76" s="3">
         <v>173500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>167800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>167600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>164200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>170400</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3135,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
         <v>44653</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44562</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44471</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44380</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44289</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44198</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43827</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>1200</v>
       </c>
       <c r="E81" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4900</v>
       </c>
-      <c r="G81" s="3">
-        <v>-2200</v>
-      </c>
       <c r="H81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
-        <v>87600</v>
-      </c>
       <c r="J81" s="3">
+        <v>86800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-3900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-11300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3232,46 +3429,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>12300</v>
+        <v>12100</v>
       </c>
       <c r="E83" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F83" s="3">
+        <v>11400</v>
+      </c>
+      <c r="G83" s="3">
+        <v>11400</v>
+      </c>
+      <c r="H83" s="3">
         <v>11500</v>
       </c>
-      <c r="F83" s="3">
-        <v>11500</v>
-      </c>
-      <c r="G83" s="3">
-        <v>11600</v>
-      </c>
-      <c r="H83" s="3">
-        <v>10500</v>
-      </c>
       <c r="I83" s="3">
-        <v>39500</v>
+        <v>10400</v>
       </c>
       <c r="J83" s="3">
+        <v>39200</v>
+      </c>
+      <c r="K83" s="3">
         <v>11300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>43500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3308,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3346,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3384,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3422,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3460,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>20300</v>
+        <v>-3200</v>
       </c>
       <c r="E89" s="3">
-        <v>25700</v>
+        <v>20100</v>
       </c>
       <c r="F89" s="3">
-        <v>6600</v>
+        <v>25400</v>
       </c>
       <c r="G89" s="3">
-        <v>-51100</v>
+        <v>6500</v>
       </c>
       <c r="H89" s="3">
-        <v>-9200</v>
+        <v>-50600</v>
       </c>
       <c r="I89" s="3">
-        <v>119600</v>
+        <v>-9100</v>
       </c>
       <c r="J89" s="3">
+        <v>118500</v>
+      </c>
+      <c r="K89" s="3">
         <v>26300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>44300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>12600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3514,46 +3733,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-33600</v>
+        <v>-47900</v>
       </c>
       <c r="E91" s="3">
-        <v>-30400</v>
+        <v>-33200</v>
       </c>
       <c r="F91" s="3">
-        <v>-24000</v>
+        <v>-30100</v>
       </c>
       <c r="G91" s="3">
-        <v>-9500</v>
+        <v>-23800</v>
       </c>
       <c r="H91" s="3">
-        <v>-12100</v>
+        <v>-9400</v>
       </c>
       <c r="I91" s="3">
-        <v>-32300</v>
+        <v>-12000</v>
       </c>
       <c r="J91" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-15400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-12300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-42000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3590,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3628,46 +3854,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-32000</v>
+        <v>-52200</v>
       </c>
       <c r="E94" s="3">
-        <v>-30400</v>
+        <v>-31700</v>
       </c>
       <c r="F94" s="3">
-        <v>-22700</v>
+        <v>-30100</v>
       </c>
       <c r="G94" s="3">
-        <v>-42200</v>
+        <v>-22500</v>
       </c>
       <c r="H94" s="3">
-        <v>-27800</v>
+        <v>-41800</v>
       </c>
       <c r="I94" s="3">
-        <v>423300</v>
+        <v>-27600</v>
       </c>
       <c r="J94" s="3">
+        <v>419400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-15400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>34900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3682,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3720,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3758,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3796,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3834,54 +4076,60 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>12100</v>
+        <v>55400</v>
       </c>
       <c r="E100" s="3">
-        <v>4700</v>
+        <v>11900</v>
       </c>
       <c r="F100" s="3">
-        <v>15900</v>
+        <v>4600</v>
       </c>
       <c r="G100" s="3">
-        <v>92900</v>
+        <v>15700</v>
       </c>
       <c r="H100" s="3">
-        <v>37600</v>
+        <v>92100</v>
       </c>
       <c r="I100" s="3">
-        <v>-544800</v>
+        <v>37300</v>
       </c>
       <c r="J100" s="3">
+        <v>-539800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-11900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-30400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-49700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -3893,11 +4141,11 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
@@ -3905,47 +4153,53 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N101" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>SOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,206 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44653</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44562</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44471</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44380</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44289</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44198</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43736</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>314700</v>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E8" s="3">
-        <v>310400</v>
+        <v>324300</v>
       </c>
       <c r="F8" s="3">
-        <v>263900</v>
+        <v>319900</v>
       </c>
       <c r="G8" s="3">
-        <v>256500</v>
+        <v>272000</v>
       </c>
       <c r="H8" s="3">
-        <v>261500</v>
+        <v>264400</v>
       </c>
       <c r="I8" s="3">
-        <v>268300</v>
+        <v>269400</v>
       </c>
       <c r="J8" s="3">
+        <v>276500</v>
+      </c>
+      <c r="K8" s="3">
         <v>1020000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>250100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>235000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>264400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>925500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>379500</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>269300</v>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E9" s="3">
-        <v>273700</v>
+        <v>277500</v>
       </c>
       <c r="F9" s="3">
-        <v>240200</v>
+        <v>282000</v>
       </c>
       <c r="G9" s="3">
-        <v>226300</v>
+        <v>247500</v>
       </c>
       <c r="H9" s="3">
-        <v>227400</v>
+        <v>233200</v>
       </c>
       <c r="I9" s="3">
-        <v>229600</v>
+        <v>234300</v>
       </c>
       <c r="J9" s="3">
+        <v>236600</v>
+      </c>
+      <c r="K9" s="3">
         <v>879000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>215000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>205300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>602100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1178100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>345800</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>45400</v>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="3">
-        <v>36800</v>
+        <v>46800</v>
       </c>
       <c r="F10" s="3">
-        <v>23700</v>
+        <v>37900</v>
       </c>
       <c r="G10" s="3">
-        <v>30200</v>
+        <v>24500</v>
       </c>
       <c r="H10" s="3">
-        <v>34100</v>
+        <v>31100</v>
       </c>
       <c r="I10" s="3">
-        <v>38700</v>
+        <v>35100</v>
       </c>
       <c r="J10" s="3">
+        <v>39900</v>
+      </c>
+      <c r="K10" s="3">
         <v>141000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>35100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>29600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-337600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-252500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,75 +966,81 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>1200</v>
       </c>
-      <c r="E14" s="3">
-        <v>1100</v>
-      </c>
       <c r="F14" s="3">
-        <v>8400</v>
+        <v>1200</v>
       </c>
       <c r="G14" s="3">
-        <v>2700</v>
+        <v>8700</v>
       </c>
       <c r="H14" s="3">
-        <v>6900</v>
+        <v>2800</v>
       </c>
       <c r="I14" s="3">
+        <v>7100</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>26700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-1100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-54500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I15" s="3">
         <v>3400</v>
       </c>
-      <c r="E15" s="3">
-        <v>3400</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3400</v>
-      </c>
-      <c r="G15" s="3">
-        <v>3400</v>
-      </c>
-      <c r="H15" s="3">
-        <v>3300</v>
-      </c>
-      <c r="I15" s="3">
-        <v>2800</v>
-      </c>
       <c r="J15" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K15" s="3">
         <v>11600</v>
-      </c>
-      <c r="K15" s="3">
-        <v>2900</v>
       </c>
       <c r="L15" s="3">
         <v>2900</v>
@@ -1027,13 +1049,16 @@
         <v>2900</v>
       </c>
       <c r="N15" s="3">
+        <v>2900</v>
+      </c>
+      <c r="O15" s="3">
         <v>11700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>306200</v>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E17" s="3">
-        <v>305700</v>
+        <v>315600</v>
       </c>
       <c r="F17" s="3">
-        <v>267900</v>
+        <v>315000</v>
       </c>
       <c r="G17" s="3">
-        <v>253000</v>
+        <v>276000</v>
       </c>
       <c r="H17" s="3">
-        <v>265200</v>
+        <v>260700</v>
       </c>
       <c r="I17" s="3">
-        <v>262600</v>
+        <v>273300</v>
       </c>
       <c r="J17" s="3">
+        <v>270600</v>
+      </c>
+      <c r="K17" s="3">
         <v>1045800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>247300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>234400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>261600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>904200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>388400</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>8400</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>4700</v>
+        <v>8700</v>
       </c>
       <c r="F18" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I18" s="3">
         <v>-3900</v>
       </c>
-      <c r="G18" s="3">
-        <v>3600</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="I18" s="3">
-        <v>5700</v>
-      </c>
       <c r="J18" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-25900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>21300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,101 +1177,108 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-4000</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>-3300</v>
+        <v>-2700</v>
       </c>
       <c r="F20" s="3">
-        <v>-3300</v>
+        <v>-2400</v>
       </c>
       <c r="G20" s="3">
-        <v>-3700</v>
+        <v>-3500</v>
       </c>
       <c r="H20" s="3">
-        <v>-2100</v>
+        <v>-3800</v>
       </c>
       <c r="I20" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="J20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-38800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-9700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-9400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-9800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-41700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>16600</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>13600</v>
+        <v>18500</v>
       </c>
       <c r="F21" s="3">
-        <v>4100</v>
+        <v>15000</v>
       </c>
       <c r="G21" s="3">
-        <v>11300</v>
+        <v>4300</v>
       </c>
       <c r="H21" s="3">
-        <v>5600</v>
+        <v>11600</v>
       </c>
       <c r="I21" s="3">
-        <v>14000</v>
+        <v>5800</v>
       </c>
       <c r="J21" s="3">
+        <v>14500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-25500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>23100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
+      <c r="E22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1000</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
@@ -1262,96 +1301,105 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>1400</v>
+        <v>4600</v>
       </c>
       <c r="F23" s="3">
-        <v>-7300</v>
+        <v>1500</v>
       </c>
       <c r="G23" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>-5900</v>
-      </c>
       <c r="I23" s="3">
-        <v>3600</v>
+        <v>-6100</v>
       </c>
       <c r="J23" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-64700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-20800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-20200</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I24" s="3">
         <v>-4900</v>
       </c>
-      <c r="G24" s="3">
-        <v>3800</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-6700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-4000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>3200</v>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E26" s="3">
-        <v>800</v>
+        <v>3300</v>
       </c>
       <c r="F26" s="3">
-        <v>-2400</v>
+        <v>900</v>
       </c>
       <c r="G26" s="3">
-        <v>-3900</v>
+        <v>-2500</v>
       </c>
       <c r="H26" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-57900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-16800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-15100</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>2200</v>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E27" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>-3400</v>
-      </c>
       <c r="G27" s="3">
-        <v>-4900</v>
+        <v>-3500</v>
       </c>
       <c r="H27" s="3">
-        <v>-2100</v>
+        <v>-5000</v>
       </c>
       <c r="I27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-71300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-27100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,19 +1571,22 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-1100</v>
       </c>
-      <c r="E29" s="3">
-        <v>4600</v>
-      </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1538,25 +1598,28 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>158100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>5200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>7800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>9300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>15800</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>4000</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>3300</v>
+        <v>2700</v>
       </c>
       <c r="F32" s="3">
-        <v>3300</v>
+        <v>2400</v>
       </c>
       <c r="G32" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="H32" s="3">
-        <v>2100</v>
+        <v>3800</v>
       </c>
       <c r="I32" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="J32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K32" s="3">
         <v>38800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>9700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>9400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>9800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>41700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>1200</v>
       </c>
-      <c r="E33" s="3">
-        <v>4500</v>
-      </c>
       <c r="F33" s="3">
-        <v>-3400</v>
+        <v>4600</v>
       </c>
       <c r="G33" s="3">
-        <v>-4900</v>
+        <v>-3500</v>
       </c>
       <c r="H33" s="3">
-        <v>-2100</v>
+        <v>-5000</v>
       </c>
       <c r="I33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>86800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-11300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>1200</v>
       </c>
-      <c r="E35" s="3">
-        <v>4500</v>
-      </c>
       <c r="F35" s="3">
-        <v>-3400</v>
+        <v>4600</v>
       </c>
       <c r="G35" s="3">
-        <v>-4900</v>
+        <v>-3500</v>
       </c>
       <c r="H35" s="3">
-        <v>-2100</v>
+        <v>-5000</v>
       </c>
       <c r="I35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>86800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-11300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44653</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44562</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44471</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44380</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44289</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44198</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43736</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,49 +1966,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>700</v>
+      </c>
+      <c r="G41" s="3">
+        <v>300</v>
+      </c>
+      <c r="H41" s="3">
+        <v>400</v>
+      </c>
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="J41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
-        <v>400</v>
-      </c>
-      <c r="H41" s="3">
-        <v>600</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J41" s="3">
-        <v>300</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1951,184 +2040,199 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>200</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>121100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>137400</v>
+        <v>124700</v>
       </c>
       <c r="F43" s="3">
+        <v>141600</v>
+      </c>
+      <c r="G43" s="3">
+        <v>123800</v>
+      </c>
+      <c r="H43" s="3">
+        <v>125300</v>
+      </c>
+      <c r="I43" s="3">
         <v>120100</v>
       </c>
-      <c r="G43" s="3">
-        <v>121600</v>
-      </c>
-      <c r="H43" s="3">
-        <v>116600</v>
-      </c>
-      <c r="I43" s="3">
-        <v>123200</v>
-      </c>
       <c r="J43" s="3">
+        <v>127000</v>
+      </c>
+      <c r="K43" s="3">
         <v>103000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>192200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>165600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>193000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>101700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>174900</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>338500</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>281700</v>
+        <v>348800</v>
       </c>
       <c r="F44" s="3">
-        <v>284500</v>
+        <v>290300</v>
       </c>
       <c r="G44" s="3">
-        <v>298400</v>
+        <v>293200</v>
       </c>
       <c r="H44" s="3">
-        <v>297100</v>
+        <v>307500</v>
       </c>
       <c r="I44" s="3">
-        <v>213700</v>
+        <v>306100</v>
       </c>
       <c r="J44" s="3">
+        <v>220200</v>
+      </c>
+      <c r="K44" s="3">
         <v>190900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>404800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>405200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>347100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>197000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>443400</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>37600</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>20700</v>
+        <v>38700</v>
       </c>
       <c r="F45" s="3">
-        <v>21500</v>
+        <v>21400</v>
       </c>
       <c r="G45" s="3">
-        <v>21400</v>
+        <v>22200</v>
       </c>
       <c r="H45" s="3">
-        <v>20400</v>
+        <v>22000</v>
       </c>
       <c r="I45" s="3">
-        <v>23800</v>
+        <v>21000</v>
       </c>
       <c r="J45" s="3">
+        <v>24600</v>
+      </c>
+      <c r="K45" s="3">
         <v>28000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>39300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>35800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>45000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>329600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>46200</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>497800</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>440500</v>
+        <v>513000</v>
       </c>
       <c r="F46" s="3">
-        <v>426500</v>
+        <v>454000</v>
       </c>
       <c r="G46" s="3">
-        <v>441800</v>
+        <v>439500</v>
       </c>
       <c r="H46" s="3">
-        <v>434700</v>
+        <v>455200</v>
       </c>
       <c r="I46" s="3">
-        <v>361700</v>
+        <v>447900</v>
       </c>
       <c r="J46" s="3">
+        <v>372800</v>
+      </c>
+      <c r="K46" s="3">
         <v>322200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>637600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>608700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>588700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>628400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>667300</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,90 +2272,99 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>395100</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>373600</v>
+        <v>407100</v>
       </c>
       <c r="F48" s="3">
-        <v>344800</v>
+        <v>385000</v>
       </c>
       <c r="G48" s="3">
-        <v>318000</v>
+        <v>355300</v>
       </c>
       <c r="H48" s="3">
-        <v>302600</v>
+        <v>327700</v>
       </c>
       <c r="I48" s="3">
-        <v>285800</v>
+        <v>311800</v>
       </c>
       <c r="J48" s="3">
+        <v>294500</v>
+      </c>
+      <c r="K48" s="3">
         <v>249700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>332900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>322100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>321100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>289400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>325500</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>190300</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>193600</v>
+        <v>196100</v>
       </c>
       <c r="F49" s="3">
-        <v>197000</v>
+        <v>199500</v>
       </c>
       <c r="G49" s="3">
-        <v>200400</v>
+        <v>203000</v>
       </c>
       <c r="H49" s="3">
-        <v>203800</v>
+        <v>206500</v>
       </c>
       <c r="I49" s="3">
-        <v>174600</v>
+        <v>210000</v>
       </c>
       <c r="J49" s="3">
+        <v>180000</v>
+      </c>
+      <c r="K49" s="3">
         <v>177500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>223000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>220600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>223700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>187600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>232000</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
         <v>7800</v>
       </c>
       <c r="F52" s="3">
-        <v>7700</v>
+        <v>8100</v>
       </c>
       <c r="G52" s="3">
-        <v>8100</v>
+        <v>7900</v>
       </c>
       <c r="H52" s="3">
-        <v>18300</v>
+        <v>8300</v>
       </c>
       <c r="I52" s="3">
-        <v>9600</v>
+        <v>18800</v>
       </c>
       <c r="J52" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K52" s="3">
         <v>7400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>78900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1090700</v>
+        <v>0</v>
       </c>
       <c r="E54" s="3">
-        <v>1015600</v>
+        <v>1123900</v>
       </c>
       <c r="F54" s="3">
-        <v>975900</v>
+        <v>1046500</v>
       </c>
       <c r="G54" s="3">
-        <v>968200</v>
+        <v>1005700</v>
       </c>
       <c r="H54" s="3">
-        <v>959300</v>
+        <v>997700</v>
       </c>
       <c r="I54" s="3">
-        <v>831800</v>
+        <v>988500</v>
       </c>
       <c r="J54" s="3">
+        <v>857200</v>
+      </c>
+      <c r="K54" s="3">
         <v>756800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1201800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1158900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1139300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1184300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1229500</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,254 +2618,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>184900</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>175100</v>
+        <v>190600</v>
       </c>
       <c r="F57" s="3">
-        <v>156900</v>
+        <v>180500</v>
       </c>
       <c r="G57" s="3">
-        <v>148000</v>
+        <v>161700</v>
       </c>
       <c r="H57" s="3">
-        <v>149700</v>
+        <v>152500</v>
       </c>
       <c r="I57" s="3">
-        <v>138600</v>
+        <v>154300</v>
       </c>
       <c r="J57" s="3">
+        <v>142900</v>
+      </c>
+      <c r="K57" s="3">
         <v>153300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>188500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>169200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>156400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>114300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>172300</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>29800</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>23100</v>
+        <v>30700</v>
       </c>
       <c r="F58" s="3">
-        <v>12600</v>
+        <v>23800</v>
       </c>
       <c r="G58" s="3">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="H58" s="3">
-        <v>9800</v>
+        <v>10300</v>
       </c>
       <c r="I58" s="3">
-        <v>9600</v>
+        <v>10100</v>
       </c>
       <c r="J58" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K58" s="3">
         <v>4500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>265100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>265200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>290600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>313800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>350100</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13800</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>13100</v>
+        <v>14200</v>
       </c>
       <c r="F59" s="3">
-        <v>15800</v>
+        <v>13500</v>
       </c>
       <c r="G59" s="3">
-        <v>16800</v>
+        <v>16300</v>
       </c>
       <c r="H59" s="3">
+        <v>17300</v>
+      </c>
+      <c r="I59" s="3">
+        <v>19200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>19900</v>
+      </c>
+      <c r="K59" s="3">
         <v>18600</v>
       </c>
-      <c r="I59" s="3">
-        <v>19400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>18600</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>23200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>24600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>28900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>93900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>228500</v>
+        <v>0</v>
       </c>
       <c r="E60" s="3">
-        <v>211300</v>
+        <v>235500</v>
       </c>
       <c r="F60" s="3">
-        <v>185300</v>
+        <v>217700</v>
       </c>
       <c r="G60" s="3">
-        <v>174800</v>
+        <v>191000</v>
       </c>
       <c r="H60" s="3">
-        <v>178100</v>
+        <v>180100</v>
       </c>
       <c r="I60" s="3">
-        <v>167600</v>
+        <v>183600</v>
       </c>
       <c r="J60" s="3">
+        <v>172700</v>
+      </c>
+      <c r="K60" s="3">
         <v>176300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>476700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>459000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>475900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>520300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>553500</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>353500</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>299600</v>
+        <v>364200</v>
       </c>
       <c r="F61" s="3">
-        <v>277700</v>
+        <v>308700</v>
       </c>
       <c r="G61" s="3">
-        <v>274700</v>
+        <v>286100</v>
       </c>
       <c r="H61" s="3">
-        <v>256700</v>
+        <v>283100</v>
       </c>
       <c r="I61" s="3">
-        <v>168100</v>
+        <v>264500</v>
       </c>
       <c r="J61" s="3">
+        <v>173200</v>
+      </c>
+      <c r="K61" s="3">
         <v>85600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>313800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>306800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>307100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>302500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>310300</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>65400</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>67200</v>
+        <v>67400</v>
       </c>
       <c r="F62" s="3">
-        <v>82400</v>
+        <v>69200</v>
       </c>
       <c r="G62" s="3">
-        <v>84100</v>
+        <v>84900</v>
       </c>
       <c r="H62" s="3">
-        <v>85200</v>
+        <v>86600</v>
       </c>
       <c r="I62" s="3">
-        <v>65400</v>
+        <v>87700</v>
       </c>
       <c r="J62" s="3">
+        <v>67400</v>
+      </c>
+      <c r="K62" s="3">
         <v>64600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>86200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>80700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>78600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>89000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>87600</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>647300</v>
+        <v>0</v>
       </c>
       <c r="E66" s="3">
-        <v>578100</v>
+        <v>667100</v>
       </c>
       <c r="F66" s="3">
-        <v>545400</v>
+        <v>595700</v>
       </c>
       <c r="G66" s="3">
-        <v>533600</v>
+        <v>562000</v>
       </c>
       <c r="H66" s="3">
-        <v>520000</v>
+        <v>549900</v>
       </c>
       <c r="I66" s="3">
-        <v>401200</v>
+        <v>535800</v>
       </c>
       <c r="J66" s="3">
+        <v>413400</v>
+      </c>
+      <c r="K66" s="3">
         <v>326600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>879100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>848700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>864000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>914300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>953600</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,49 +3162,55 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>36800</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>36600</v>
+        <v>37900</v>
       </c>
       <c r="F70" s="3">
-        <v>36400</v>
+        <v>37700</v>
       </c>
       <c r="G70" s="3">
-        <v>36200</v>
+        <v>37500</v>
       </c>
       <c r="H70" s="3">
-        <v>36000</v>
+        <v>37300</v>
       </c>
       <c r="I70" s="3">
-        <v>35800</v>
+        <v>37100</v>
       </c>
       <c r="J70" s="3">
+        <v>36900</v>
+      </c>
+      <c r="K70" s="3">
         <v>148500</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>149300</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>142400</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>107700</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>105800</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>105400</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-196000</v>
+        <v>0</v>
       </c>
       <c r="E72" s="3">
-        <v>-197200</v>
+        <v>-202000</v>
       </c>
       <c r="F72" s="3">
-        <v>-201700</v>
+        <v>-203300</v>
       </c>
       <c r="G72" s="3">
-        <v>-198300</v>
+        <v>-207900</v>
       </c>
       <c r="H72" s="3">
-        <v>-193500</v>
+        <v>-204400</v>
       </c>
       <c r="I72" s="3">
-        <v>-191300</v>
+        <v>-199300</v>
       </c>
       <c r="J72" s="3">
+        <v>-197100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-190900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-284300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-274200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-272100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-275700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-265900</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>406600</v>
+        <v>0</v>
       </c>
       <c r="E76" s="3">
-        <v>401000</v>
+        <v>419000</v>
       </c>
       <c r="F76" s="3">
-        <v>394200</v>
+        <v>413200</v>
       </c>
       <c r="G76" s="3">
-        <v>398400</v>
+        <v>406200</v>
       </c>
       <c r="H76" s="3">
-        <v>403300</v>
+        <v>410500</v>
       </c>
       <c r="I76" s="3">
-        <v>394800</v>
+        <v>415600</v>
       </c>
       <c r="J76" s="3">
+        <v>406900</v>
+      </c>
+      <c r="K76" s="3">
         <v>281800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>173500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>167800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>167600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>164200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>170400</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44653</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44562</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44471</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44380</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44289</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44198</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43736</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>1200</v>
       </c>
-      <c r="E81" s="3">
-        <v>4500</v>
-      </c>
       <c r="F81" s="3">
-        <v>-3400</v>
+        <v>4600</v>
       </c>
       <c r="G81" s="3">
-        <v>-4900</v>
+        <v>-3500</v>
       </c>
       <c r="H81" s="3">
-        <v>-2100</v>
+        <v>-5000</v>
       </c>
       <c r="I81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>86800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-11300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,49 +3627,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>12100</v>
+        <v>-25000</v>
       </c>
       <c r="E83" s="3">
-        <v>12200</v>
+        <v>12500</v>
       </c>
       <c r="F83" s="3">
+        <v>12500</v>
+      </c>
+      <c r="G83" s="3">
+        <v>11800</v>
+      </c>
+      <c r="H83" s="3">
+        <v>11800</v>
+      </c>
+      <c r="I83" s="3">
+        <v>11900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K83" s="3">
+        <v>39200</v>
+      </c>
+      <c r="L83" s="3">
+        <v>11300</v>
+      </c>
+      <c r="M83" s="3">
+        <v>11200</v>
+      </c>
+      <c r="N83" s="3">
         <v>11400</v>
       </c>
-      <c r="G83" s="3">
-        <v>11400</v>
-      </c>
-      <c r="H83" s="3">
-        <v>11500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>10400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>39200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>11300</v>
-      </c>
-      <c r="L83" s="3">
-        <v>11200</v>
-      </c>
-      <c r="M83" s="3">
-        <v>11400</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>43500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3200</v>
+        <v>-17400</v>
       </c>
       <c r="E89" s="3">
-        <v>20100</v>
+        <v>-3300</v>
       </c>
       <c r="F89" s="3">
-        <v>25400</v>
+        <v>20700</v>
       </c>
       <c r="G89" s="3">
-        <v>6500</v>
+        <v>26200</v>
       </c>
       <c r="H89" s="3">
-        <v>-50600</v>
+        <v>6700</v>
       </c>
       <c r="I89" s="3">
-        <v>-9100</v>
+        <v>-52100</v>
       </c>
       <c r="J89" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="K89" s="3">
         <v>118500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>26300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>44300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>12600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-47900</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="3">
-        <v>-33200</v>
+        <v>-49300</v>
       </c>
       <c r="F91" s="3">
-        <v>-30100</v>
+        <v>-34300</v>
       </c>
       <c r="G91" s="3">
-        <v>-23800</v>
+        <v>-31000</v>
       </c>
       <c r="H91" s="3">
-        <v>-9400</v>
+        <v>-24500</v>
       </c>
       <c r="I91" s="3">
-        <v>-12000</v>
+        <v>-9700</v>
       </c>
       <c r="J91" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-32000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-12300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-42000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-52200</v>
+        <v>86400</v>
       </c>
       <c r="E94" s="3">
-        <v>-31700</v>
+        <v>-53800</v>
       </c>
       <c r="F94" s="3">
-        <v>-30100</v>
+        <v>-32700</v>
       </c>
       <c r="G94" s="3">
-        <v>-22500</v>
+        <v>-31000</v>
       </c>
       <c r="H94" s="3">
-        <v>-41800</v>
+        <v>-23200</v>
       </c>
       <c r="I94" s="3">
-        <v>-27600</v>
+        <v>-43100</v>
       </c>
       <c r="J94" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="K94" s="3">
         <v>419400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-15400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-12300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>34900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,49 +4321,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>55400</v>
+        <v>-69400</v>
       </c>
       <c r="E100" s="3">
-        <v>11900</v>
+        <v>57100</v>
       </c>
       <c r="F100" s="3">
-        <v>4600</v>
+        <v>12300</v>
       </c>
       <c r="G100" s="3">
-        <v>15700</v>
+        <v>4800</v>
       </c>
       <c r="H100" s="3">
-        <v>92100</v>
+        <v>16200</v>
       </c>
       <c r="I100" s="3">
-        <v>37300</v>
+        <v>94900</v>
       </c>
       <c r="J100" s="3">
+        <v>38400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-539800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-11900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-30400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-49700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4131,8 +4379,8 @@
       <c r="E101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -4144,11 +4392,11 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
@@ -4156,50 +4404,56 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O101" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>300</v>
-      </c>
       <c r="F102" s="3">
+        <v>400</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>SOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,216 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44835</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44744</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44653</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44562</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44471</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44380</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44289</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44198</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43827</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43736</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
+      <c r="D8" s="3">
+        <v>306000</v>
       </c>
       <c r="E8" s="3">
-        <v>324300</v>
+        <v>317600</v>
       </c>
       <c r="F8" s="3">
-        <v>319900</v>
+        <v>336700</v>
       </c>
       <c r="G8" s="3">
-        <v>272000</v>
+        <v>332100</v>
       </c>
       <c r="H8" s="3">
+        <v>282300</v>
+      </c>
+      <c r="I8" s="3">
+        <v>274500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>279700</v>
+      </c>
+      <c r="K8" s="3">
+        <v>276500</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1020000</v>
+      </c>
+      <c r="M8" s="3">
+        <v>250100</v>
+      </c>
+      <c r="N8" s="3">
+        <v>235000</v>
+      </c>
+      <c r="O8" s="3">
         <v>264400</v>
       </c>
-      <c r="I8" s="3">
-        <v>269400</v>
-      </c>
-      <c r="J8" s="3">
-        <v>276500</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1020000</v>
-      </c>
-      <c r="L8" s="3">
-        <v>250100</v>
-      </c>
-      <c r="M8" s="3">
-        <v>235000</v>
-      </c>
-      <c r="N8" s="3">
-        <v>264400</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>925500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>379500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
+      <c r="D9" s="3">
+        <v>260000</v>
       </c>
       <c r="E9" s="3">
-        <v>277500</v>
+        <v>273300</v>
       </c>
       <c r="F9" s="3">
-        <v>282000</v>
+        <v>288100</v>
       </c>
       <c r="G9" s="3">
-        <v>247500</v>
+        <v>292800</v>
       </c>
       <c r="H9" s="3">
-        <v>233200</v>
+        <v>257400</v>
       </c>
       <c r="I9" s="3">
-        <v>234300</v>
+        <v>242100</v>
       </c>
       <c r="J9" s="3">
+        <v>243300</v>
+      </c>
+      <c r="K9" s="3">
         <v>236600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>879000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>215000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>205300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>602100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1178100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>345800</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
+      <c r="D10" s="3">
+        <v>46000</v>
       </c>
       <c r="E10" s="3">
-        <v>46800</v>
+        <v>44300</v>
       </c>
       <c r="F10" s="3">
-        <v>37900</v>
+        <v>48600</v>
       </c>
       <c r="G10" s="3">
-        <v>24500</v>
+        <v>39300</v>
       </c>
       <c r="H10" s="3">
-        <v>31100</v>
+        <v>24900</v>
       </c>
       <c r="I10" s="3">
+        <v>32300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>36500</v>
+      </c>
+      <c r="K10" s="3">
+        <v>39900</v>
+      </c>
+      <c r="L10" s="3">
+        <v>141000</v>
+      </c>
+      <c r="M10" s="3">
         <v>35100</v>
       </c>
-      <c r="J10" s="3">
-        <v>39900</v>
-      </c>
-      <c r="K10" s="3">
-        <v>141000</v>
-      </c>
-      <c r="L10" s="3">
-        <v>35100</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>29600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-337600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-252500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +891,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +936,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,81 +983,87 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>7800</v>
       </c>
       <c r="E14" s="3">
+        <v>33800</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G14" s="3">
         <v>1200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J14" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K14" s="3">
+        <v>200</v>
+      </c>
+      <c r="L14" s="3">
+        <v>26700</v>
+      </c>
+      <c r="M14" s="3">
         <v>1200</v>
       </c>
-      <c r="G14" s="3">
-        <v>8700</v>
-      </c>
-      <c r="H14" s="3">
-        <v>2800</v>
-      </c>
-      <c r="I14" s="3">
-        <v>7100</v>
-      </c>
-      <c r="J14" s="3">
-        <v>200</v>
-      </c>
-      <c r="K14" s="3">
-        <v>26700</v>
-      </c>
-      <c r="L14" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-1100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-54500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="E15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J15" s="3">
         <v>3500</v>
       </c>
-      <c r="F15" s="3">
-        <v>3500</v>
-      </c>
-      <c r="G15" s="3">
-        <v>3500</v>
-      </c>
-      <c r="H15" s="3">
-        <v>3500</v>
-      </c>
-      <c r="I15" s="3">
-        <v>3400</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>11600</v>
-      </c>
-      <c r="L15" s="3">
-        <v>2900</v>
       </c>
       <c r="M15" s="3">
         <v>2900</v>
@@ -1052,13 +1072,16 @@
         <v>2900</v>
       </c>
       <c r="O15" s="3">
+        <v>2900</v>
+      </c>
+      <c r="P15" s="3">
         <v>11700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1095,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>298700</v>
       </c>
       <c r="E17" s="3">
-        <v>315600</v>
+        <v>334900</v>
       </c>
       <c r="F17" s="3">
-        <v>315000</v>
+        <v>327600</v>
       </c>
       <c r="G17" s="3">
-        <v>276000</v>
+        <v>327100</v>
       </c>
       <c r="H17" s="3">
-        <v>260700</v>
+        <v>286700</v>
       </c>
       <c r="I17" s="3">
-        <v>273300</v>
+        <v>270600</v>
       </c>
       <c r="J17" s="3">
+        <v>283700</v>
+      </c>
+      <c r="K17" s="3">
         <v>270600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1045800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>247300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>234400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>261600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>904200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>388400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>7200</v>
       </c>
       <c r="E18" s="3">
-        <v>8700</v>
+        <v>-17300</v>
       </c>
       <c r="F18" s="3">
-        <v>4900</v>
+        <v>9000</v>
       </c>
       <c r="G18" s="3">
-        <v>-4100</v>
+        <v>5100</v>
       </c>
       <c r="H18" s="3">
-        <v>3700</v>
+        <v>-4300</v>
       </c>
       <c r="I18" s="3">
-        <v>-3900</v>
+        <v>3800</v>
       </c>
       <c r="J18" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K18" s="3">
         <v>5900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-25900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>21300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1208,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>-6500</v>
       </c>
       <c r="E20" s="3">
-        <v>-2700</v>
+        <v>-3700</v>
       </c>
       <c r="F20" s="3">
-        <v>-2400</v>
+        <v>-2800</v>
       </c>
       <c r="G20" s="3">
-        <v>-3500</v>
+        <v>-2500</v>
       </c>
       <c r="H20" s="3">
-        <v>-3800</v>
+        <v>-3600</v>
       </c>
       <c r="I20" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2200</v>
       </c>
-      <c r="J20" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-38800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-9700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-9400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-9800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-41700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>13400</v>
       </c>
       <c r="E21" s="3">
-        <v>18500</v>
+        <v>-7600</v>
       </c>
       <c r="F21" s="3">
-        <v>15000</v>
+        <v>19200</v>
       </c>
       <c r="G21" s="3">
+        <v>15600</v>
+      </c>
+      <c r="H21" s="3">
         <v>4300</v>
       </c>
-      <c r="H21" s="3">
-        <v>11600</v>
-      </c>
       <c r="I21" s="3">
-        <v>5800</v>
+        <v>12100</v>
       </c>
       <c r="J21" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K21" s="3">
         <v>14500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-25500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>23100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1275,13 +1312,13 @@
         <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>1400</v>
+        <v>2300</v>
       </c>
       <c r="F22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
+        <v>1500</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1100</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
@@ -1304,102 +1341,111 @@
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E23" s="3">
-        <v>4600</v>
+        <v>-23400</v>
       </c>
       <c r="F23" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G23" s="3">
         <v>1500</v>
       </c>
-      <c r="G23" s="3">
-        <v>-7500</v>
-      </c>
       <c r="H23" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>-6100</v>
-      </c>
       <c r="J23" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="K23" s="3">
         <v>3700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-64700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-20800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-20200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E24" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F24" s="3">
         <v>1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="I24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J24" s="3">
         <v>-5000</v>
       </c>
-      <c r="H24" s="3">
-        <v>3900</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-6700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-4000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1488,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>3300</v>
+        <v>-17500</v>
       </c>
       <c r="F26" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G26" s="3">
         <v>900</v>
       </c>
-      <c r="G26" s="3">
-        <v>-2500</v>
-      </c>
       <c r="H26" s="3">
-        <v>-4000</v>
+        <v>1500</v>
       </c>
       <c r="I26" s="3">
-        <v>-1200</v>
+        <v>-4200</v>
       </c>
       <c r="J26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K26" s="3">
         <v>2200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-57900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-16800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-15100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-1200</v>
       </c>
       <c r="E27" s="3">
-        <v>2300</v>
+        <v>-18500</v>
       </c>
       <c r="F27" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>-3500</v>
-      </c>
       <c r="H27" s="3">
-        <v>-5000</v>
+        <v>500</v>
       </c>
       <c r="I27" s="3">
-        <v>-2200</v>
+        <v>-5200</v>
       </c>
       <c r="J27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-71300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-27100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,22 +1629,25 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-1100</v>
       </c>
-      <c r="F29" s="3">
-        <v>4700</v>
-      </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>4900</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1601,25 +1659,28 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>158100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>5200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>7800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>9300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>15800</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1723,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1770,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>6500</v>
       </c>
       <c r="E32" s="3">
-        <v>2700</v>
+        <v>3700</v>
       </c>
       <c r="F32" s="3">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="G32" s="3">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="H32" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="I32" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K32" s="3">
         <v>2200</v>
       </c>
-      <c r="J32" s="3">
-        <v>2200</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>38800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>9700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>9400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>9800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>41700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>1500</v>
       </c>
       <c r="E33" s="3">
-        <v>1200</v>
+        <v>-18500</v>
       </c>
       <c r="F33" s="3">
-        <v>4600</v>
+        <v>1300</v>
       </c>
       <c r="G33" s="3">
-        <v>-3500</v>
+        <v>4800</v>
       </c>
       <c r="H33" s="3">
-        <v>-5000</v>
+        <v>500</v>
       </c>
       <c r="I33" s="3">
-        <v>-2200</v>
+        <v>-5200</v>
       </c>
       <c r="J33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>86800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-11300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1911,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>1500</v>
       </c>
       <c r="E35" s="3">
-        <v>1200</v>
+        <v>-18500</v>
       </c>
       <c r="F35" s="3">
-        <v>4600</v>
+        <v>1300</v>
       </c>
       <c r="G35" s="3">
-        <v>-3500</v>
+        <v>4800</v>
       </c>
       <c r="H35" s="3">
-        <v>-5000</v>
+        <v>500</v>
       </c>
       <c r="I35" s="3">
-        <v>-2200</v>
+        <v>-5200</v>
       </c>
       <c r="J35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>86800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-11300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44835</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44744</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44653</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44562</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44471</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44380</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44289</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44198</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43827</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43736</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2031,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2050,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E41" s="3">
+        <v>600</v>
+      </c>
+      <c r="F41" s="3">
+        <v>800</v>
+      </c>
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
+        <v>300</v>
+      </c>
+      <c r="I41" s="3">
+        <v>400</v>
+      </c>
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="K41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
-        <v>400</v>
-      </c>
-      <c r="I41" s="3">
-        <v>600</v>
-      </c>
-      <c r="J41" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K41" s="3">
-        <v>300</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2043,196 +2130,211 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>200</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>109200</v>
       </c>
       <c r="E43" s="3">
+        <v>114400</v>
+      </c>
+      <c r="F43" s="3">
+        <v>129500</v>
+      </c>
+      <c r="G43" s="3">
+        <v>147100</v>
+      </c>
+      <c r="H43" s="3">
+        <v>128500</v>
+      </c>
+      <c r="I43" s="3">
+        <v>130100</v>
+      </c>
+      <c r="J43" s="3">
         <v>124700</v>
       </c>
-      <c r="F43" s="3">
-        <v>141600</v>
-      </c>
-      <c r="G43" s="3">
-        <v>123800</v>
-      </c>
-      <c r="H43" s="3">
-        <v>125300</v>
-      </c>
-      <c r="I43" s="3">
-        <v>120100</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>127000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>103000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>192200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>165600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>193000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>101700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>174900</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>286300</v>
       </c>
       <c r="E44" s="3">
-        <v>348800</v>
+        <v>311200</v>
       </c>
       <c r="F44" s="3">
-        <v>290300</v>
+        <v>362100</v>
       </c>
       <c r="G44" s="3">
-        <v>293200</v>
+        <v>301400</v>
       </c>
       <c r="H44" s="3">
-        <v>307500</v>
+        <v>303900</v>
       </c>
       <c r="I44" s="3">
-        <v>306100</v>
+        <v>319300</v>
       </c>
       <c r="J44" s="3">
+        <v>317800</v>
+      </c>
+      <c r="K44" s="3">
         <v>220200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>190900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>404800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>405200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>347100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>197000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>443400</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>21700</v>
       </c>
       <c r="E45" s="3">
-        <v>38700</v>
+        <v>45000</v>
       </c>
       <c r="F45" s="3">
-        <v>21400</v>
+        <v>40200</v>
       </c>
       <c r="G45" s="3">
         <v>22200</v>
       </c>
       <c r="H45" s="3">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="I45" s="3">
-        <v>21000</v>
+        <v>22900</v>
       </c>
       <c r="J45" s="3">
+        <v>21800</v>
+      </c>
+      <c r="K45" s="3">
         <v>24600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>28000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>39300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>35800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>45000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>329600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>46200</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>418100</v>
       </c>
       <c r="E46" s="3">
-        <v>513000</v>
+        <v>471200</v>
       </c>
       <c r="F46" s="3">
-        <v>454000</v>
+        <v>532600</v>
       </c>
       <c r="G46" s="3">
-        <v>439500</v>
+        <v>471300</v>
       </c>
       <c r="H46" s="3">
-        <v>455200</v>
+        <v>455700</v>
       </c>
       <c r="I46" s="3">
-        <v>447900</v>
+        <v>472600</v>
       </c>
       <c r="J46" s="3">
+        <v>465000</v>
+      </c>
+      <c r="K46" s="3">
         <v>372800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>322200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>637600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>608700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>588700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>628400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>667300</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,96 +2377,105 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>559900</v>
       </c>
       <c r="E48" s="3">
-        <v>407100</v>
+        <v>512400</v>
       </c>
       <c r="F48" s="3">
-        <v>385000</v>
+        <v>422700</v>
       </c>
       <c r="G48" s="3">
-        <v>355300</v>
+        <v>399700</v>
       </c>
       <c r="H48" s="3">
-        <v>327700</v>
+        <v>368900</v>
       </c>
       <c r="I48" s="3">
-        <v>311800</v>
+        <v>340200</v>
       </c>
       <c r="J48" s="3">
+        <v>323700</v>
+      </c>
+      <c r="K48" s="3">
         <v>294500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>249700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>332900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>322100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>321100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>289400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>325500</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>193100</v>
       </c>
       <c r="E49" s="3">
-        <v>196100</v>
+        <v>196500</v>
       </c>
       <c r="F49" s="3">
-        <v>199500</v>
+        <v>203600</v>
       </c>
       <c r="G49" s="3">
-        <v>203000</v>
+        <v>207200</v>
       </c>
       <c r="H49" s="3">
-        <v>206500</v>
+        <v>210800</v>
       </c>
       <c r="I49" s="3">
-        <v>210000</v>
+        <v>214400</v>
       </c>
       <c r="J49" s="3">
+        <v>218000</v>
+      </c>
+      <c r="K49" s="3">
         <v>180000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>177500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>223000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>220600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>223700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>187600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>232000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2518,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2565,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>12300</v>
       </c>
       <c r="E52" s="3">
-        <v>7800</v>
+        <v>7600</v>
       </c>
       <c r="F52" s="3">
         <v>8100</v>
       </c>
       <c r="G52" s="3">
-        <v>7900</v>
+        <v>8400</v>
       </c>
       <c r="H52" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="I52" s="3">
-        <v>18800</v>
+        <v>8600</v>
       </c>
       <c r="J52" s="3">
+        <v>19600</v>
+      </c>
+      <c r="K52" s="3">
         <v>9900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>78900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2659,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>1183400</v>
       </c>
       <c r="E54" s="3">
-        <v>1123900</v>
+        <v>1187700</v>
       </c>
       <c r="F54" s="3">
-        <v>1046500</v>
+        <v>1166900</v>
       </c>
       <c r="G54" s="3">
-        <v>1005700</v>
+        <v>1086500</v>
       </c>
       <c r="H54" s="3">
-        <v>997700</v>
+        <v>1043600</v>
       </c>
       <c r="I54" s="3">
-        <v>988500</v>
+        <v>1035800</v>
       </c>
       <c r="J54" s="3">
+        <v>1026300</v>
+      </c>
+      <c r="K54" s="3">
         <v>857200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>756800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1201800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1158900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1139300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1184300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1229500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2727,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2746,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="E57" s="3">
-        <v>190600</v>
+        <v>162600</v>
       </c>
       <c r="F57" s="3">
-        <v>180500</v>
+        <v>197900</v>
       </c>
       <c r="G57" s="3">
-        <v>161700</v>
+        <v>187400</v>
       </c>
       <c r="H57" s="3">
-        <v>152500</v>
+        <v>167500</v>
       </c>
       <c r="I57" s="3">
-        <v>154300</v>
+        <v>158400</v>
       </c>
       <c r="J57" s="3">
+        <v>160200</v>
+      </c>
+      <c r="K57" s="3">
         <v>142900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>153300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>188500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>169200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>156400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>114300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>172300</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>53200</v>
       </c>
       <c r="E58" s="3">
-        <v>30700</v>
+        <v>43400</v>
       </c>
       <c r="F58" s="3">
-        <v>23800</v>
+        <v>31900</v>
       </c>
       <c r="G58" s="3">
-        <v>13000</v>
+        <v>24700</v>
       </c>
       <c r="H58" s="3">
-        <v>10300</v>
+        <v>13500</v>
       </c>
       <c r="I58" s="3">
-        <v>10100</v>
+        <v>10700</v>
       </c>
       <c r="J58" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K58" s="3">
         <v>9900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>265100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>265200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>290600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>313800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>350100</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>19400</v>
       </c>
       <c r="E59" s="3">
-        <v>14200</v>
+        <v>27200</v>
       </c>
       <c r="F59" s="3">
-        <v>13500</v>
+        <v>14700</v>
       </c>
       <c r="G59" s="3">
-        <v>16300</v>
+        <v>14000</v>
       </c>
       <c r="H59" s="3">
-        <v>17300</v>
+        <v>16900</v>
       </c>
       <c r="I59" s="3">
-        <v>19200</v>
+        <v>17900</v>
       </c>
       <c r="J59" s="3">
         <v>19900</v>
       </c>
       <c r="K59" s="3">
+        <v>19900</v>
+      </c>
+      <c r="L59" s="3">
         <v>18600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>23200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>24600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>28900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>93900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>222700</v>
       </c>
       <c r="E60" s="3">
-        <v>235500</v>
+        <v>233100</v>
       </c>
       <c r="F60" s="3">
-        <v>217700</v>
+        <v>244500</v>
       </c>
       <c r="G60" s="3">
-        <v>191000</v>
+        <v>226100</v>
       </c>
       <c r="H60" s="3">
-        <v>180100</v>
+        <v>197900</v>
       </c>
       <c r="I60" s="3">
-        <v>183600</v>
+        <v>187000</v>
       </c>
       <c r="J60" s="3">
+        <v>190600</v>
+      </c>
+      <c r="K60" s="3">
         <v>172700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>176300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>476700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>459000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>475900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>520300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>553500</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>373300</v>
       </c>
       <c r="E61" s="3">
-        <v>364200</v>
+        <v>380100</v>
       </c>
       <c r="F61" s="3">
-        <v>308700</v>
+        <v>378200</v>
       </c>
       <c r="G61" s="3">
-        <v>286100</v>
+        <v>320500</v>
       </c>
       <c r="H61" s="3">
-        <v>283100</v>
+        <v>297100</v>
       </c>
       <c r="I61" s="3">
-        <v>264500</v>
+        <v>293900</v>
       </c>
       <c r="J61" s="3">
+        <v>274600</v>
+      </c>
+      <c r="K61" s="3">
         <v>173200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>85600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>313800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>306800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>307100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>302500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>310300</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>107200</v>
       </c>
       <c r="E62" s="3">
+        <v>112800</v>
+      </c>
+      <c r="F62" s="3">
+        <v>70000</v>
+      </c>
+      <c r="G62" s="3">
+        <v>71900</v>
+      </c>
+      <c r="H62" s="3">
+        <v>76500</v>
+      </c>
+      <c r="I62" s="3">
+        <v>89900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>91100</v>
+      </c>
+      <c r="K62" s="3">
         <v>67400</v>
       </c>
-      <c r="F62" s="3">
-        <v>69200</v>
-      </c>
-      <c r="G62" s="3">
-        <v>84900</v>
-      </c>
-      <c r="H62" s="3">
-        <v>86600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>87700</v>
-      </c>
-      <c r="J62" s="3">
-        <v>67400</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>64600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>86200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>80700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>78600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>89000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>87600</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3073,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3120,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3167,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>703200</v>
       </c>
       <c r="E66" s="3">
-        <v>667100</v>
+        <v>726000</v>
       </c>
       <c r="F66" s="3">
-        <v>595700</v>
+        <v>692600</v>
       </c>
       <c r="G66" s="3">
-        <v>562000</v>
+        <v>618500</v>
       </c>
       <c r="H66" s="3">
-        <v>549900</v>
+        <v>571400</v>
       </c>
       <c r="I66" s="3">
-        <v>535800</v>
+        <v>570900</v>
       </c>
       <c r="J66" s="3">
+        <v>556300</v>
+      </c>
+      <c r="K66" s="3">
         <v>413400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>326600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>879100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>848700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>864000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>914300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>953600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3235,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3280,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,52 +3327,58 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>38800</v>
       </c>
       <c r="E70" s="3">
-        <v>37900</v>
+        <v>39500</v>
       </c>
       <c r="F70" s="3">
-        <v>37700</v>
+        <v>39300</v>
       </c>
       <c r="G70" s="3">
-        <v>37500</v>
+        <v>39100</v>
       </c>
       <c r="H70" s="3">
-        <v>37300</v>
+        <v>38900</v>
       </c>
       <c r="I70" s="3">
-        <v>37100</v>
+        <v>38700</v>
       </c>
       <c r="J70" s="3">
+        <v>38500</v>
+      </c>
+      <c r="K70" s="3">
         <v>36900</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>148500</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>149300</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>142400</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>107700</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>105800</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>105400</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3421,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
+        <v>-215300</v>
       </c>
       <c r="E72" s="3">
-        <v>-202000</v>
+        <v>-228300</v>
       </c>
       <c r="F72" s="3">
-        <v>-203300</v>
+        <v>-209700</v>
       </c>
       <c r="G72" s="3">
-        <v>-207900</v>
+        <v>-211000</v>
       </c>
       <c r="H72" s="3">
-        <v>-204400</v>
+        <v>-204300</v>
       </c>
       <c r="I72" s="3">
-        <v>-199300</v>
+        <v>-212200</v>
       </c>
       <c r="J72" s="3">
+        <v>-207000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-197100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-190900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-284300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-274200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-272100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-275700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-265900</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3515,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3562,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3609,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>441400</v>
       </c>
       <c r="E76" s="3">
-        <v>419000</v>
+        <v>422100</v>
       </c>
       <c r="F76" s="3">
-        <v>413200</v>
+        <v>435000</v>
       </c>
       <c r="G76" s="3">
-        <v>406200</v>
+        <v>429000</v>
       </c>
       <c r="H76" s="3">
-        <v>410500</v>
+        <v>433200</v>
       </c>
       <c r="I76" s="3">
-        <v>415600</v>
+        <v>426200</v>
       </c>
       <c r="J76" s="3">
+        <v>431500</v>
+      </c>
+      <c r="K76" s="3">
         <v>406900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>281800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>173500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>167800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>167600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>164200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>170400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3703,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44835</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44744</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44653</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44562</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44471</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44380</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44289</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44198</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43827</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43736</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>1500</v>
       </c>
       <c r="E81" s="3">
-        <v>1200</v>
+        <v>-18500</v>
       </c>
       <c r="F81" s="3">
-        <v>4600</v>
+        <v>1300</v>
       </c>
       <c r="G81" s="3">
-        <v>-3500</v>
+        <v>4800</v>
       </c>
       <c r="H81" s="3">
-        <v>-5000</v>
+        <v>500</v>
       </c>
       <c r="I81" s="3">
-        <v>-2200</v>
+        <v>-5200</v>
       </c>
       <c r="J81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>86800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-11300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3823,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>-25000</v>
+        <v>12700</v>
       </c>
       <c r="E83" s="3">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="F83" s="3">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="G83" s="3">
-        <v>11800</v>
+        <v>13000</v>
       </c>
       <c r="H83" s="3">
-        <v>11800</v>
+        <v>12200</v>
       </c>
       <c r="I83" s="3">
-        <v>11900</v>
+        <v>12200</v>
       </c>
       <c r="J83" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K83" s="3">
         <v>10700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>39200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>43500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3915,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3962,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4009,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4056,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4103,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-17400</v>
+        <v>38000</v>
       </c>
       <c r="E89" s="3">
-        <v>-3300</v>
+        <v>27600</v>
       </c>
       <c r="F89" s="3">
-        <v>20700</v>
+        <v>-3400</v>
       </c>
       <c r="G89" s="3">
-        <v>26200</v>
+        <v>21500</v>
       </c>
       <c r="H89" s="3">
-        <v>6700</v>
+        <v>27200</v>
       </c>
       <c r="I89" s="3">
-        <v>-52100</v>
+        <v>7000</v>
       </c>
       <c r="J89" s="3">
+        <v>-54100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-9300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>118500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>26300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>44300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>12600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4171,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>-38500</v>
       </c>
       <c r="E91" s="3">
-        <v>-49300</v>
+        <v>-52600</v>
       </c>
       <c r="F91" s="3">
-        <v>-34300</v>
+        <v>-51200</v>
       </c>
       <c r="G91" s="3">
-        <v>-31000</v>
+        <v>-35600</v>
       </c>
       <c r="H91" s="3">
-        <v>-24500</v>
+        <v>-32200</v>
       </c>
       <c r="I91" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-9700</v>
       </c>
-      <c r="J91" s="3">
-        <v>-12400</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-32000</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-15400</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-12300</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-42000</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-9700</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4263,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4310,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>86400</v>
+        <v>-27700</v>
       </c>
       <c r="E94" s="3">
-        <v>-53800</v>
+        <v>-30300</v>
       </c>
       <c r="F94" s="3">
-        <v>-32700</v>
+        <v>-55800</v>
       </c>
       <c r="G94" s="3">
-        <v>-31000</v>
+        <v>-33900</v>
       </c>
       <c r="H94" s="3">
-        <v>-23200</v>
+        <v>-32200</v>
       </c>
       <c r="I94" s="3">
-        <v>-43100</v>
+        <v>-24100</v>
       </c>
       <c r="J94" s="3">
+        <v>-44800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-28400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>419400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-15400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-12300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>34900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4378,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4423,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4470,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4517,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,63 +4564,69 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-69400</v>
+        <v>-10100</v>
       </c>
       <c r="E100" s="3">
-        <v>57100</v>
+        <v>2500</v>
       </c>
       <c r="F100" s="3">
-        <v>12300</v>
+        <v>59300</v>
       </c>
       <c r="G100" s="3">
-        <v>4800</v>
+        <v>12800</v>
       </c>
       <c r="H100" s="3">
-        <v>16200</v>
+        <v>5000</v>
       </c>
       <c r="I100" s="3">
-        <v>94900</v>
+        <v>16800</v>
       </c>
       <c r="J100" s="3">
+        <v>98500</v>
+      </c>
+      <c r="K100" s="3">
         <v>38400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-539800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-11900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-30400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-49700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -4395,11 +4641,11 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
@@ -4407,53 +4653,59 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P101" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
+        <v>400</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>400</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,216 +665,229 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44835</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44744</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44653</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44562</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44471</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44380</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44289</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44198</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43736</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>306000</v>
+        <v>302300</v>
       </c>
       <c r="E8" s="3">
-        <v>317600</v>
+        <v>298800</v>
       </c>
       <c r="F8" s="3">
-        <v>336700</v>
+        <v>310100</v>
       </c>
       <c r="G8" s="3">
-        <v>332100</v>
+        <v>328700</v>
       </c>
       <c r="H8" s="3">
-        <v>282300</v>
+        <v>324300</v>
       </c>
       <c r="I8" s="3">
-        <v>274500</v>
+        <v>275700</v>
       </c>
       <c r="J8" s="3">
+        <v>268000</v>
+      </c>
+      <c r="K8" s="3">
         <v>279700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>276500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1020000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>250100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>235000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>264400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>925500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>379500</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>260000</v>
+        <v>247700</v>
       </c>
       <c r="E9" s="3">
-        <v>273300</v>
+        <v>253800</v>
       </c>
       <c r="F9" s="3">
-        <v>288100</v>
+        <v>266900</v>
       </c>
       <c r="G9" s="3">
-        <v>292800</v>
+        <v>281300</v>
       </c>
       <c r="H9" s="3">
-        <v>257400</v>
+        <v>285400</v>
       </c>
       <c r="I9" s="3">
-        <v>242100</v>
+        <v>251400</v>
       </c>
       <c r="J9" s="3">
+        <v>236400</v>
+      </c>
+      <c r="K9" s="3">
         <v>243300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>236600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>879000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>215000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>205300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>602100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1178100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>345800</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>46000</v>
+        <v>54600</v>
       </c>
       <c r="E10" s="3">
-        <v>44300</v>
+        <v>44900</v>
       </c>
       <c r="F10" s="3">
-        <v>48600</v>
+        <v>43200</v>
       </c>
       <c r="G10" s="3">
-        <v>39300</v>
+        <v>47400</v>
       </c>
       <c r="H10" s="3">
-        <v>24900</v>
+        <v>38900</v>
       </c>
       <c r="I10" s="3">
-        <v>32300</v>
+        <v>24300</v>
       </c>
       <c r="J10" s="3">
+        <v>31600</v>
+      </c>
+      <c r="K10" s="3">
         <v>36500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>39900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>141000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>35100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>29600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-337600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-252500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -892,8 +905,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -939,8 +953,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,87 +1003,93 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>7800</v>
+        <v>17500</v>
       </c>
       <c r="E14" s="3">
-        <v>33800</v>
+        <v>7700</v>
       </c>
       <c r="F14" s="3">
-        <v>3400</v>
+        <v>33000</v>
       </c>
       <c r="G14" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H14" s="3">
         <v>1200</v>
       </c>
-      <c r="H14" s="3">
-        <v>9000</v>
-      </c>
       <c r="I14" s="3">
+        <v>8800</v>
+      </c>
+      <c r="J14" s="3">
         <v>2900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>7300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>26700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-1100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-54500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="E15" s="3">
-        <v>3600</v>
+        <v>3300</v>
       </c>
       <c r="F15" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="G15" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="H15" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="I15" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="J15" s="3">
         <v>3500</v>
       </c>
       <c r="K15" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L15" s="3">
         <v>2900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>11600</v>
-      </c>
-      <c r="M15" s="3">
-        <v>2900</v>
       </c>
       <c r="N15" s="3">
         <v>2900</v>
@@ -1075,13 +1098,16 @@
         <v>2900</v>
       </c>
       <c r="P15" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Q15" s="3">
         <v>11700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1096,102 +1122,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>298700</v>
+        <v>298900</v>
       </c>
       <c r="E17" s="3">
-        <v>334900</v>
+        <v>291700</v>
       </c>
       <c r="F17" s="3">
-        <v>327600</v>
+        <v>327000</v>
       </c>
       <c r="G17" s="3">
-        <v>327100</v>
+        <v>319900</v>
       </c>
       <c r="H17" s="3">
-        <v>286700</v>
+        <v>319200</v>
       </c>
       <c r="I17" s="3">
+        <v>279900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>264200</v>
+      </c>
+      <c r="K17" s="3">
+        <v>283700</v>
+      </c>
+      <c r="L17" s="3">
         <v>270600</v>
       </c>
-      <c r="J17" s="3">
-        <v>283700</v>
-      </c>
-      <c r="K17" s="3">
-        <v>270600</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1045800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>247300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>234400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>261600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>904200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>388400</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7200</v>
+        <v>3400</v>
       </c>
       <c r="E18" s="3">
-        <v>-17300</v>
+        <v>7100</v>
       </c>
       <c r="F18" s="3">
-        <v>9000</v>
+        <v>-16900</v>
       </c>
       <c r="G18" s="3">
+        <v>8800</v>
+      </c>
+      <c r="H18" s="3">
         <v>5100</v>
       </c>
-      <c r="H18" s="3">
-        <v>-4300</v>
-      </c>
       <c r="I18" s="3">
-        <v>3800</v>
+        <v>-4200</v>
       </c>
       <c r="J18" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-4000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-25900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>21300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1209,119 +1242,126 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6500</v>
+        <v>-4600</v>
       </c>
       <c r="E20" s="3">
-        <v>-3700</v>
+        <v>-4200</v>
       </c>
       <c r="F20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2800</v>
       </c>
-      <c r="G20" s="3">
-        <v>-2500</v>
-      </c>
       <c r="H20" s="3">
-        <v>-3600</v>
+        <v>-2400</v>
       </c>
       <c r="I20" s="3">
-        <v>-4000</v>
+        <v>-3500</v>
       </c>
       <c r="J20" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-38800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-9700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-9400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-9800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-41700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>13400</v>
+        <v>12300</v>
       </c>
       <c r="E21" s="3">
-        <v>-7600</v>
+        <v>15300</v>
       </c>
       <c r="F21" s="3">
-        <v>19200</v>
+        <v>-7400</v>
       </c>
       <c r="G21" s="3">
-        <v>15600</v>
+        <v>18700</v>
       </c>
       <c r="H21" s="3">
-        <v>4300</v>
+        <v>15400</v>
       </c>
       <c r="I21" s="3">
-        <v>12100</v>
+        <v>4200</v>
       </c>
       <c r="J21" s="3">
+        <v>11800</v>
+      </c>
+      <c r="K21" s="3">
         <v>6000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>14500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-25500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>23100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>3300</v>
       </c>
       <c r="E22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F22" s="3">
         <v>2300</v>
       </c>
-      <c r="F22" s="3">
-        <v>1500</v>
-      </c>
       <c r="G22" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
+        <v>1400</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1000</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
@@ -1344,108 +1384,117 @@
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E23" s="3">
         <v>700</v>
       </c>
-      <c r="E23" s="3">
-        <v>-23400</v>
-      </c>
       <c r="F23" s="3">
-        <v>4800</v>
+        <v>-22800</v>
       </c>
       <c r="G23" s="3">
-        <v>1500</v>
+        <v>4600</v>
       </c>
       <c r="H23" s="3">
-        <v>-7900</v>
+        <v>1600</v>
       </c>
       <c r="I23" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-64700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-20800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-20200</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
-        <v>-5900</v>
-      </c>
       <c r="F24" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="G24" s="3">
         <v>1300</v>
       </c>
-      <c r="G24" s="3">
-        <v>600</v>
-      </c>
       <c r="H24" s="3">
-        <v>-9500</v>
+        <v>300</v>
       </c>
       <c r="I24" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="J24" s="3">
         <v>4000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-5000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-6700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,102 +1540,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="E26" s="3">
-        <v>-17500</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>3500</v>
+        <v>-17100</v>
       </c>
       <c r="G26" s="3">
-        <v>900</v>
+        <v>3400</v>
       </c>
       <c r="H26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I26" s="3">
         <v>1500</v>
       </c>
-      <c r="I26" s="3">
-        <v>-4200</v>
-      </c>
       <c r="J26" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-57900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-16800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-15100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1200</v>
       </c>
-      <c r="E27" s="3">
-        <v>-18500</v>
-      </c>
       <c r="F27" s="3">
-        <v>2400</v>
+        <v>-18100</v>
       </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>2300</v>
       </c>
       <c r="H27" s="3">
+        <v>300</v>
+      </c>
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="I27" s="3">
-        <v>-5200</v>
-      </c>
       <c r="J27" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-71300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-27100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1632,25 +1690,28 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-1100</v>
       </c>
-      <c r="G29" s="3">
-        <v>4900</v>
-      </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1662,25 +1723,28 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>158100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>5200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>7800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>9300</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>15800</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1726,8 +1790,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1773,102 +1840,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6500</v>
+        <v>4600</v>
       </c>
       <c r="E32" s="3">
-        <v>3700</v>
+        <v>4200</v>
       </c>
       <c r="F32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G32" s="3">
         <v>2800</v>
       </c>
-      <c r="G32" s="3">
-        <v>2500</v>
-      </c>
       <c r="H32" s="3">
-        <v>3600</v>
+        <v>2400</v>
       </c>
       <c r="I32" s="3">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="J32" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K32" s="3">
         <v>2300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>38800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>9700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>9400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>9800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>41700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="E33" s="3">
-        <v>-18500</v>
+        <v>1400</v>
       </c>
       <c r="F33" s="3">
-        <v>1300</v>
+        <v>-18100</v>
       </c>
       <c r="G33" s="3">
-        <v>4800</v>
+        <v>1200</v>
       </c>
       <c r="H33" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="I33" s="3">
-        <v>-5200</v>
-      </c>
       <c r="J33" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>86800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1914,107 +1990,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="E35" s="3">
-        <v>-18500</v>
+        <v>1400</v>
       </c>
       <c r="F35" s="3">
-        <v>1300</v>
+        <v>-18100</v>
       </c>
       <c r="G35" s="3">
-        <v>4800</v>
+        <v>1200</v>
       </c>
       <c r="H35" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="I35" s="3">
-        <v>-5200</v>
-      </c>
       <c r="J35" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>86800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44835</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44744</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44653</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44562</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44471</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44380</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44289</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44198</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43736</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2032,8 +2117,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2051,55 +2137,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>600</v>
-      </c>
-      <c r="F41" s="3">
-        <v>800</v>
       </c>
       <c r="G41" s="3">
         <v>700</v>
       </c>
       <c r="H41" s="3">
+        <v>700</v>
+      </c>
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2133,208 +2223,223 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>200</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>109200</v>
+        <v>121500</v>
       </c>
       <c r="E43" s="3">
-        <v>114400</v>
+        <v>106600</v>
       </c>
       <c r="F43" s="3">
-        <v>129500</v>
+        <v>111700</v>
       </c>
       <c r="G43" s="3">
-        <v>147100</v>
+        <v>126400</v>
       </c>
       <c r="H43" s="3">
-        <v>128500</v>
+        <v>143600</v>
       </c>
       <c r="I43" s="3">
-        <v>130100</v>
+        <v>125500</v>
       </c>
       <c r="J43" s="3">
+        <v>127000</v>
+      </c>
+      <c r="K43" s="3">
         <v>124700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>127000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>103000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>192200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>165600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>193000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>101700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>174900</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>286300</v>
+        <v>270800</v>
       </c>
       <c r="E44" s="3">
-        <v>311200</v>
+        <v>279500</v>
       </c>
       <c r="F44" s="3">
-        <v>362100</v>
+        <v>303800</v>
       </c>
       <c r="G44" s="3">
-        <v>301400</v>
+        <v>353600</v>
       </c>
       <c r="H44" s="3">
-        <v>303900</v>
+        <v>294300</v>
       </c>
       <c r="I44" s="3">
-        <v>319300</v>
+        <v>296700</v>
       </c>
       <c r="J44" s="3">
+        <v>311700</v>
+      </c>
+      <c r="K44" s="3">
         <v>317800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>220200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>190900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>404800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>405200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>347100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>197000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>443400</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>21200</v>
+      </c>
+      <c r="F45" s="3">
+        <v>44000</v>
+      </c>
+      <c r="G45" s="3">
+        <v>39300</v>
+      </c>
+      <c r="H45" s="3">
         <v>21700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="I45" s="3">
+        <v>22500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>22300</v>
+      </c>
+      <c r="K45" s="3">
+        <v>21800</v>
+      </c>
+      <c r="L45" s="3">
+        <v>24600</v>
+      </c>
+      <c r="M45" s="3">
+        <v>28000</v>
+      </c>
+      <c r="N45" s="3">
+        <v>39300</v>
+      </c>
+      <c r="O45" s="3">
+        <v>35800</v>
+      </c>
+      <c r="P45" s="3">
         <v>45000</v>
       </c>
-      <c r="F45" s="3">
-        <v>40200</v>
-      </c>
-      <c r="G45" s="3">
-        <v>22200</v>
-      </c>
-      <c r="H45" s="3">
-        <v>23000</v>
-      </c>
-      <c r="I45" s="3">
-        <v>22900</v>
-      </c>
-      <c r="J45" s="3">
-        <v>21800</v>
-      </c>
-      <c r="K45" s="3">
-        <v>24600</v>
-      </c>
-      <c r="L45" s="3">
-        <v>28000</v>
-      </c>
-      <c r="M45" s="3">
-        <v>39300</v>
-      </c>
-      <c r="N45" s="3">
-        <v>35800</v>
-      </c>
-      <c r="O45" s="3">
-        <v>45000</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>329600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>46200</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>418100</v>
+        <v>414100</v>
       </c>
       <c r="E46" s="3">
-        <v>471200</v>
+        <v>408200</v>
       </c>
       <c r="F46" s="3">
-        <v>532600</v>
+        <v>460100</v>
       </c>
       <c r="G46" s="3">
-        <v>471300</v>
+        <v>520000</v>
       </c>
       <c r="H46" s="3">
-        <v>455700</v>
+        <v>460200</v>
       </c>
       <c r="I46" s="3">
-        <v>472600</v>
+        <v>445000</v>
       </c>
       <c r="J46" s="3">
+        <v>461400</v>
+      </c>
+      <c r="K46" s="3">
         <v>465000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>372800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>322200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>637600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>608700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>588700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>628400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>667300</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2380,102 +2485,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>559900</v>
+        <v>567800</v>
       </c>
       <c r="E48" s="3">
-        <v>512400</v>
+        <v>546700</v>
       </c>
       <c r="F48" s="3">
-        <v>422700</v>
+        <v>500300</v>
       </c>
       <c r="G48" s="3">
-        <v>399700</v>
+        <v>412700</v>
       </c>
       <c r="H48" s="3">
-        <v>368900</v>
+        <v>390200</v>
       </c>
       <c r="I48" s="3">
-        <v>340200</v>
+        <v>360200</v>
       </c>
       <c r="J48" s="3">
+        <v>332100</v>
+      </c>
+      <c r="K48" s="3">
         <v>323700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>294500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>249700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>332900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>322100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>321100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>289400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>325500</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>193100</v>
+        <v>185200</v>
       </c>
       <c r="E49" s="3">
-        <v>196500</v>
+        <v>188500</v>
       </c>
       <c r="F49" s="3">
-        <v>203600</v>
+        <v>191800</v>
       </c>
       <c r="G49" s="3">
-        <v>207200</v>
+        <v>198700</v>
       </c>
       <c r="H49" s="3">
-        <v>210800</v>
+        <v>202300</v>
       </c>
       <c r="I49" s="3">
-        <v>214400</v>
+        <v>205800</v>
       </c>
       <c r="J49" s="3">
+        <v>209300</v>
+      </c>
+      <c r="K49" s="3">
         <v>218000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>180000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>177500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>223000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>220600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>223700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>187600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>232000</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2521,8 +2635,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2568,55 +2685,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12300</v>
+        <v>18300</v>
       </c>
       <c r="E52" s="3">
-        <v>7600</v>
+        <v>12000</v>
       </c>
       <c r="F52" s="3">
-        <v>8100</v>
+        <v>7400</v>
       </c>
       <c r="G52" s="3">
-        <v>8400</v>
+        <v>7900</v>
       </c>
       <c r="H52" s="3">
         <v>8200</v>
       </c>
       <c r="I52" s="3">
-        <v>8600</v>
+        <v>8000</v>
       </c>
       <c r="J52" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K52" s="3">
         <v>19600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>78900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2662,55 +2785,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1183400</v>
+        <v>1185500</v>
       </c>
       <c r="E54" s="3">
-        <v>1187700</v>
+        <v>1155400</v>
       </c>
       <c r="F54" s="3">
-        <v>1166900</v>
+        <v>1159600</v>
       </c>
       <c r="G54" s="3">
-        <v>1086500</v>
+        <v>1139300</v>
       </c>
       <c r="H54" s="3">
-        <v>1043600</v>
+        <v>1060900</v>
       </c>
       <c r="I54" s="3">
-        <v>1035800</v>
+        <v>1018900</v>
       </c>
       <c r="J54" s="3">
+        <v>1011300</v>
+      </c>
+      <c r="K54" s="3">
         <v>1026300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>857200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>756800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1201800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1158900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1139300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1184300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1229500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2728,8 +2857,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2747,290 +2877,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>150000</v>
+        <v>159500</v>
       </c>
       <c r="E57" s="3">
-        <v>162600</v>
+        <v>146500</v>
       </c>
       <c r="F57" s="3">
-        <v>197900</v>
+        <v>158700</v>
       </c>
       <c r="G57" s="3">
-        <v>187400</v>
+        <v>193200</v>
       </c>
       <c r="H57" s="3">
-        <v>167500</v>
+        <v>182900</v>
       </c>
       <c r="I57" s="3">
-        <v>158400</v>
+        <v>163600</v>
       </c>
       <c r="J57" s="3">
+        <v>154600</v>
+      </c>
+      <c r="K57" s="3">
         <v>160200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>142900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>153300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>188500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>169200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>156400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>114300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>172300</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>53200</v>
+        <v>59100</v>
       </c>
       <c r="E58" s="3">
-        <v>43400</v>
+        <v>52000</v>
       </c>
       <c r="F58" s="3">
-        <v>31900</v>
+        <v>42400</v>
       </c>
       <c r="G58" s="3">
-        <v>24700</v>
+        <v>31100</v>
       </c>
       <c r="H58" s="3">
-        <v>13500</v>
+        <v>24100</v>
       </c>
       <c r="I58" s="3">
-        <v>10700</v>
+        <v>13200</v>
       </c>
       <c r="J58" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K58" s="3">
         <v>10500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>265100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>265200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>290600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>313800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>350100</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>19400</v>
+        <v>18400</v>
       </c>
       <c r="E59" s="3">
-        <v>27200</v>
+        <v>18900</v>
       </c>
       <c r="F59" s="3">
-        <v>14700</v>
+        <v>26500</v>
       </c>
       <c r="G59" s="3">
-        <v>14000</v>
+        <v>14400</v>
       </c>
       <c r="H59" s="3">
-        <v>16900</v>
+        <v>13600</v>
       </c>
       <c r="I59" s="3">
-        <v>17900</v>
+        <v>16500</v>
       </c>
       <c r="J59" s="3">
-        <v>19900</v>
+        <v>17500</v>
       </c>
       <c r="K59" s="3">
         <v>19900</v>
       </c>
       <c r="L59" s="3">
+        <v>19900</v>
+      </c>
+      <c r="M59" s="3">
         <v>18600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>23200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>24600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>28900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>93900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>222700</v>
+        <v>237000</v>
       </c>
       <c r="E60" s="3">
-        <v>233100</v>
+        <v>217400</v>
       </c>
       <c r="F60" s="3">
-        <v>244500</v>
+        <v>227600</v>
       </c>
       <c r="G60" s="3">
-        <v>226100</v>
+        <v>238700</v>
       </c>
       <c r="H60" s="3">
-        <v>197900</v>
+        <v>220700</v>
       </c>
       <c r="I60" s="3">
-        <v>187000</v>
+        <v>193200</v>
       </c>
       <c r="J60" s="3">
+        <v>182600</v>
+      </c>
+      <c r="K60" s="3">
         <v>190600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>172700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>176300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>476700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>459000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>475900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>520300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>553500</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>373300</v>
+        <v>381200</v>
       </c>
       <c r="E61" s="3">
-        <v>380100</v>
+        <v>364500</v>
       </c>
       <c r="F61" s="3">
-        <v>378200</v>
+        <v>371100</v>
       </c>
       <c r="G61" s="3">
-        <v>320500</v>
+        <v>369200</v>
       </c>
       <c r="H61" s="3">
-        <v>297100</v>
+        <v>313000</v>
       </c>
       <c r="I61" s="3">
-        <v>293900</v>
+        <v>290000</v>
       </c>
       <c r="J61" s="3">
+        <v>287000</v>
+      </c>
+      <c r="K61" s="3">
         <v>274600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>173200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>85600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>313800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>306800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>307100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>302500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>310300</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>107200</v>
+        <v>103500</v>
       </c>
       <c r="E62" s="3">
-        <v>112800</v>
+        <v>104700</v>
       </c>
       <c r="F62" s="3">
-        <v>70000</v>
+        <v>110200</v>
       </c>
       <c r="G62" s="3">
-        <v>71900</v>
+        <v>68300</v>
       </c>
       <c r="H62" s="3">
-        <v>76500</v>
+        <v>70200</v>
       </c>
       <c r="I62" s="3">
-        <v>89900</v>
+        <v>74700</v>
       </c>
       <c r="J62" s="3">
+        <v>87800</v>
+      </c>
+      <c r="K62" s="3">
         <v>91100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>67400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>64600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>86200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>80700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>78600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>89000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>87600</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3076,8 +3225,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3123,8 +3275,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3170,55 +3325,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>703200</v>
+        <v>721700</v>
       </c>
       <c r="E66" s="3">
-        <v>726000</v>
+        <v>686600</v>
       </c>
       <c r="F66" s="3">
-        <v>692600</v>
+        <v>708900</v>
       </c>
       <c r="G66" s="3">
-        <v>618500</v>
+        <v>676200</v>
       </c>
       <c r="H66" s="3">
-        <v>571400</v>
+        <v>603800</v>
       </c>
       <c r="I66" s="3">
-        <v>570900</v>
+        <v>557900</v>
       </c>
       <c r="J66" s="3">
+        <v>557400</v>
+      </c>
+      <c r="K66" s="3">
         <v>556300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>413400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>326600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>879100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>848700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>864000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>914300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>953600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3236,8 +3397,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3283,8 +3445,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3330,55 +3495,61 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>38800</v>
+        <v>19100</v>
       </c>
       <c r="E70" s="3">
-        <v>39500</v>
+        <v>37900</v>
       </c>
       <c r="F70" s="3">
-        <v>39300</v>
+        <v>38600</v>
       </c>
       <c r="G70" s="3">
-        <v>39100</v>
+        <v>38400</v>
       </c>
       <c r="H70" s="3">
-        <v>38900</v>
+        <v>38200</v>
       </c>
       <c r="I70" s="3">
-        <v>38700</v>
+        <v>38000</v>
       </c>
       <c r="J70" s="3">
+        <v>37800</v>
+      </c>
+      <c r="K70" s="3">
         <v>38500</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>36900</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>148500</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>149300</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>142400</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>107700</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>105800</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>105400</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3424,55 +3595,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-215300</v>
+        <v>-209300</v>
       </c>
       <c r="E72" s="3">
-        <v>-228300</v>
+        <v>-210200</v>
       </c>
       <c r="F72" s="3">
-        <v>-209700</v>
+        <v>-222900</v>
       </c>
       <c r="G72" s="3">
-        <v>-211000</v>
+        <v>-204800</v>
       </c>
       <c r="H72" s="3">
-        <v>-204300</v>
+        <v>-206000</v>
       </c>
       <c r="I72" s="3">
-        <v>-212200</v>
+        <v>-199400</v>
       </c>
       <c r="J72" s="3">
+        <v>-207200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-207000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-197100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-190900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-284300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-274200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-272100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-275700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-265900</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3518,8 +3695,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3565,8 +3745,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3612,55 +3795,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>441400</v>
+        <v>444600</v>
       </c>
       <c r="E76" s="3">
-        <v>422100</v>
+        <v>430900</v>
       </c>
       <c r="F76" s="3">
-        <v>435000</v>
+        <v>412100</v>
       </c>
       <c r="G76" s="3">
-        <v>429000</v>
+        <v>424700</v>
       </c>
       <c r="H76" s="3">
-        <v>433200</v>
+        <v>418800</v>
       </c>
       <c r="I76" s="3">
-        <v>426200</v>
+        <v>423000</v>
       </c>
       <c r="J76" s="3">
+        <v>416200</v>
+      </c>
+      <c r="K76" s="3">
         <v>431500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>406900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>281800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>173500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>167800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>167600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>164200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>170400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3706,107 +3895,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44835</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44744</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44653</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44562</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44471</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44380</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44289</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44198</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43736</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="E81" s="3">
-        <v>-18500</v>
+        <v>1400</v>
       </c>
       <c r="F81" s="3">
-        <v>1300</v>
+        <v>-18100</v>
       </c>
       <c r="G81" s="3">
-        <v>4800</v>
+        <v>1200</v>
       </c>
       <c r="H81" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="I81" s="3">
-        <v>-5200</v>
-      </c>
       <c r="J81" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>86800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3824,55 +4022,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F83" s="3">
+        <v>13100</v>
+      </c>
+      <c r="G83" s="3">
         <v>12700</v>
       </c>
-      <c r="E83" s="3">
-        <v>13500</v>
-      </c>
-      <c r="F83" s="3">
-        <v>13000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>13000</v>
-      </c>
       <c r="H83" s="3">
-        <v>12200</v>
+        <v>12700</v>
       </c>
       <c r="I83" s="3">
-        <v>12200</v>
+        <v>11900</v>
       </c>
       <c r="J83" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K83" s="3">
         <v>12300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>10700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>39200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>11400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>43500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3918,8 +4120,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3965,8 +4170,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4012,8 +4220,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4059,8 +4270,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4106,55 +4320,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>38000</v>
+        <v>5200</v>
       </c>
       <c r="E89" s="3">
-        <v>27600</v>
+        <v>37100</v>
       </c>
       <c r="F89" s="3">
-        <v>-3400</v>
+        <v>27000</v>
       </c>
       <c r="G89" s="3">
-        <v>21500</v>
+        <v>-3300</v>
       </c>
       <c r="H89" s="3">
-        <v>27200</v>
+        <v>21000</v>
       </c>
       <c r="I89" s="3">
-        <v>7000</v>
+        <v>26500</v>
       </c>
       <c r="J89" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-54100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>118500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>26300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>44300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>12600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4172,55 +4392,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-38500</v>
+        <v>-25800</v>
       </c>
       <c r="E91" s="3">
-        <v>-52600</v>
+        <v>-27800</v>
       </c>
       <c r="F91" s="3">
-        <v>-51200</v>
+        <v>-38000</v>
       </c>
       <c r="G91" s="3">
-        <v>-35600</v>
+        <v>-37000</v>
       </c>
       <c r="H91" s="3">
-        <v>-32200</v>
+        <v>-25700</v>
       </c>
       <c r="I91" s="3">
-        <v>-25400</v>
+        <v>-23300</v>
       </c>
       <c r="J91" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-10100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-32000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-12300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-42000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4266,8 +4490,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4313,55 +4540,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-27700</v>
+        <v>-34400</v>
       </c>
       <c r="E94" s="3">
-        <v>-30300</v>
+        <v>-27000</v>
       </c>
       <c r="F94" s="3">
-        <v>-55800</v>
+        <v>-29600</v>
       </c>
       <c r="G94" s="3">
-        <v>-33900</v>
+        <v>-54500</v>
       </c>
       <c r="H94" s="3">
-        <v>-32200</v>
+        <v>-33100</v>
       </c>
       <c r="I94" s="3">
-        <v>-24100</v>
+        <v>-31500</v>
       </c>
       <c r="J94" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-44800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-28400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>419400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-15400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-12300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>34900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4379,8 +4612,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4426,8 +4660,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4473,8 +4710,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4520,8 +4760,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4567,55 +4810,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-10100</v>
+        <v>29500</v>
       </c>
       <c r="E100" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="F100" s="3">
         <v>2500</v>
       </c>
-      <c r="F100" s="3">
-        <v>59300</v>
-      </c>
       <c r="G100" s="3">
-        <v>12800</v>
+        <v>57900</v>
       </c>
       <c r="H100" s="3">
-        <v>5000</v>
+        <v>12500</v>
       </c>
       <c r="I100" s="3">
-        <v>16800</v>
+        <v>4800</v>
       </c>
       <c r="J100" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K100" s="3">
         <v>98500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>38400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-539800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-11900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-30400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-49700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4644,11 +4893,11 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
@@ -4656,13 +4905,16 @@
         <v>0</v>
       </c>
       <c r="P101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q101" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4670,42 +4922,45 @@
         <v>300</v>
       </c>
       <c r="E102" s="3">
+        <v>300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>SOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,229 +665,241 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
         <v>45017</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44835</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44744</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44653</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44562</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44471</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44380</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44289</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44198</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43827</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43736</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>302300</v>
+        <v>280700</v>
       </c>
       <c r="E8" s="3">
-        <v>298800</v>
+        <v>302400</v>
       </c>
       <c r="F8" s="3">
-        <v>310100</v>
+        <v>298900</v>
       </c>
       <c r="G8" s="3">
-        <v>328700</v>
+        <v>310300</v>
       </c>
       <c r="H8" s="3">
-        <v>324300</v>
+        <v>328900</v>
       </c>
       <c r="I8" s="3">
-        <v>275700</v>
+        <v>324400</v>
       </c>
       <c r="J8" s="3">
+        <v>275800</v>
+      </c>
+      <c r="K8" s="3">
         <v>268000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>279700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>276500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1020000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>250100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>235000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>264400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>925500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>379500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>247700</v>
+        <v>250700</v>
       </c>
       <c r="E9" s="3">
-        <v>253800</v>
+        <v>256500</v>
       </c>
       <c r="F9" s="3">
-        <v>266900</v>
+        <v>253900</v>
       </c>
       <c r="G9" s="3">
-        <v>281300</v>
+        <v>267000</v>
       </c>
       <c r="H9" s="3">
-        <v>285400</v>
+        <v>281500</v>
       </c>
       <c r="I9" s="3">
-        <v>251400</v>
+        <v>285500</v>
       </c>
       <c r="J9" s="3">
+        <v>251500</v>
+      </c>
+      <c r="K9" s="3">
         <v>236400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>243300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>236600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>879000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>215000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>205300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>602100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1178100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>345800</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>54600</v>
+        <v>29900</v>
       </c>
       <c r="E10" s="3">
-        <v>44900</v>
+        <v>46000</v>
       </c>
       <c r="F10" s="3">
-        <v>43200</v>
+        <v>45000</v>
       </c>
       <c r="G10" s="3">
+        <v>43300</v>
+      </c>
+      <c r="H10" s="3">
         <v>47400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>38900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>24300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>31600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>36500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>39900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>141000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>35100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>29600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-337600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-252500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -906,8 +918,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -956,8 +969,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1006,58 +1022,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>17500</v>
+        <v>10600</v>
       </c>
       <c r="E14" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F14" s="3">
         <v>7700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>33000</v>
       </c>
-      <c r="G14" s="3">
-        <v>3300</v>
-      </c>
       <c r="H14" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I14" s="3">
         <v>1200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>8800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>7300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>26700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-54500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1068,7 +1090,7 @@
         <v>3300</v>
       </c>
       <c r="F15" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="G15" s="3">
         <v>3500</v>
@@ -1086,13 +1108,13 @@
         <v>3500</v>
       </c>
       <c r="L15" s="3">
+        <v>3500</v>
+      </c>
+      <c r="M15" s="3">
         <v>2900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>11600</v>
-      </c>
-      <c r="N15" s="3">
-        <v>2900</v>
       </c>
       <c r="O15" s="3">
         <v>2900</v>
@@ -1101,13 +1123,16 @@
         <v>2900</v>
       </c>
       <c r="Q15" s="3">
+        <v>2900</v>
+      </c>
+      <c r="R15" s="3">
         <v>11700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1123,108 +1148,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>298900</v>
+        <v>284800</v>
       </c>
       <c r="E17" s="3">
-        <v>291700</v>
+        <v>299000</v>
       </c>
       <c r="F17" s="3">
-        <v>327000</v>
+        <v>291800</v>
       </c>
       <c r="G17" s="3">
-        <v>319900</v>
+        <v>327200</v>
       </c>
       <c r="H17" s="3">
-        <v>319200</v>
+        <v>320100</v>
       </c>
       <c r="I17" s="3">
-        <v>279900</v>
+        <v>319400</v>
       </c>
       <c r="J17" s="3">
+        <v>280100</v>
+      </c>
+      <c r="K17" s="3">
         <v>264200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>283700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>270600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1045800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>247300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>234400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>261600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>904200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>388400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E18" s="3">
         <v>3400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-16900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-25900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>21300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1243,128 +1275,135 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-38800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-9700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-9400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-41700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E21" s="3">
         <v>12300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>15300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>18700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>15400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>11800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>14500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-25500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>23100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E22" s="3">
         <v>3300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1000</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1387,114 +1426,123 @@
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-22800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-64700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-20800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-20200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-6300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
-        <v>-5700</v>
-      </c>
       <c r="G24" s="3">
-        <v>1300</v>
+        <v>-5800</v>
       </c>
       <c r="H24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-9200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-5000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-6700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-4000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1543,108 +1591,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="E26" s="3">
         <v>1900</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-17100</v>
       </c>
-      <c r="G26" s="3">
-        <v>3400</v>
-      </c>
       <c r="H26" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I26" s="3">
         <v>1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-57900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-16800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-15100</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E27" s="3">
         <v>900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-18100</v>
       </c>
-      <c r="G27" s="3">
-        <v>2300</v>
-      </c>
       <c r="H27" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-71300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-27100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1693,8 +1750,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1702,20 +1762,20 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>2600</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-1100</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>4800</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
@@ -1726,25 +1786,28 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>158100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>5200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>7800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>9300</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>15800</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1793,8 +1856,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1843,108 +1909,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E32" s="3">
         <v>4600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>38800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>9700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>9400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>9800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>41700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E33" s="3">
         <v>900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-18100</v>
       </c>
-      <c r="G33" s="3">
-        <v>1200</v>
-      </c>
       <c r="H33" s="3">
-        <v>5100</v>
+        <v>1000</v>
       </c>
       <c r="I33" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J33" s="3">
         <v>500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>86800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-11300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1993,113 +2068,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E35" s="3">
         <v>900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-18100</v>
       </c>
-      <c r="G35" s="3">
-        <v>1200</v>
-      </c>
       <c r="H35" s="3">
-        <v>5100</v>
+        <v>1000</v>
       </c>
       <c r="I35" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J35" s="3">
         <v>500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>86800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-11300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
         <v>45017</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44835</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44744</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44653</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44562</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44471</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44380</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44289</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44198</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43827</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43736</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2118,8 +2202,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2138,58 +2223,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E41" s="3">
         <v>1200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
-      </c>
-      <c r="G41" s="3">
-        <v>700</v>
       </c>
       <c r="H41" s="3">
         <v>700</v>
       </c>
       <c r="I41" s="3">
+        <v>700</v>
+      </c>
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2226,220 +2315,235 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3" t="s">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>200</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>121500</v>
+        <v>103900</v>
       </c>
       <c r="E43" s="3">
+        <v>121600</v>
+      </c>
+      <c r="F43" s="3">
         <v>106600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>111700</v>
       </c>
-      <c r="G43" s="3">
-        <v>126400</v>
-      </c>
       <c r="H43" s="3">
+        <v>126500</v>
+      </c>
+      <c r="I43" s="3">
         <v>143600</v>
       </c>
-      <c r="I43" s="3">
-        <v>125500</v>
-      </c>
       <c r="J43" s="3">
+        <v>125600</v>
+      </c>
+      <c r="K43" s="3">
         <v>127000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>124700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>127000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>103000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>192200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>165600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>193000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>101700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>174900</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>270800</v>
+        <v>298200</v>
       </c>
       <c r="E44" s="3">
-        <v>279500</v>
+        <v>270900</v>
       </c>
       <c r="F44" s="3">
-        <v>303800</v>
+        <v>279700</v>
       </c>
       <c r="G44" s="3">
-        <v>353600</v>
+        <v>304000</v>
       </c>
       <c r="H44" s="3">
-        <v>294300</v>
+        <v>353700</v>
       </c>
       <c r="I44" s="3">
-        <v>296700</v>
+        <v>294400</v>
       </c>
       <c r="J44" s="3">
+        <v>296900</v>
+      </c>
+      <c r="K44" s="3">
         <v>311700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>317800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>220200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>190900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>404800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>405200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>347100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>197000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>443400</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E45" s="3">
         <v>20600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>21200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>44000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>39300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>21700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>22500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>22300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>21800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>24600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>28000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>39300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>35800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>45000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>329600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>46200</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>414100</v>
+        <v>424600</v>
       </c>
       <c r="E46" s="3">
-        <v>408200</v>
+        <v>414300</v>
       </c>
       <c r="F46" s="3">
-        <v>460100</v>
+        <v>408400</v>
       </c>
       <c r="G46" s="3">
-        <v>520000</v>
+        <v>460300</v>
       </c>
       <c r="H46" s="3">
-        <v>460200</v>
+        <v>520300</v>
       </c>
       <c r="I46" s="3">
-        <v>445000</v>
+        <v>460400</v>
       </c>
       <c r="J46" s="3">
+        <v>445200</v>
+      </c>
+      <c r="K46" s="3">
         <v>461400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>465000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>372800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>322200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>637600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>608700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>588700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>628400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>667300</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2488,108 +2592,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>567800</v>
+        <v>585000</v>
       </c>
       <c r="E48" s="3">
-        <v>546700</v>
+        <v>568100</v>
       </c>
       <c r="F48" s="3">
-        <v>500300</v>
+        <v>547000</v>
       </c>
       <c r="G48" s="3">
-        <v>412700</v>
+        <v>500500</v>
       </c>
       <c r="H48" s="3">
-        <v>390200</v>
+        <v>412900</v>
       </c>
       <c r="I48" s="3">
-        <v>360200</v>
+        <v>390400</v>
       </c>
       <c r="J48" s="3">
+        <v>360300</v>
+      </c>
+      <c r="K48" s="3">
         <v>332100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>323700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>294500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>249700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>332900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>322100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>321100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>289400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>325500</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>185200</v>
+        <v>182000</v>
       </c>
       <c r="E49" s="3">
-        <v>188500</v>
+        <v>185300</v>
       </c>
       <c r="F49" s="3">
-        <v>191800</v>
+        <v>188600</v>
       </c>
       <c r="G49" s="3">
-        <v>198700</v>
+        <v>191900</v>
       </c>
       <c r="H49" s="3">
-        <v>202300</v>
+        <v>198800</v>
       </c>
       <c r="I49" s="3">
-        <v>205800</v>
+        <v>202400</v>
       </c>
       <c r="J49" s="3">
+        <v>205900</v>
+      </c>
+      <c r="K49" s="3">
         <v>209300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>218000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>180000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>177500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>223000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>220600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>223700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>187600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>232000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2638,8 +2751,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2688,58 +2804,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E52" s="3">
         <v>18300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>12000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>19600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>78900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2788,58 +2910,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1185500</v>
+        <v>1198200</v>
       </c>
       <c r="E54" s="3">
-        <v>1155400</v>
+        <v>1186100</v>
       </c>
       <c r="F54" s="3">
-        <v>1159600</v>
+        <v>1156000</v>
       </c>
       <c r="G54" s="3">
+        <v>1160200</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1139900</v>
+      </c>
+      <c r="I54" s="3">
+        <v>1061400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1019400</v>
+      </c>
+      <c r="K54" s="3">
+        <v>1011300</v>
+      </c>
+      <c r="L54" s="3">
+        <v>1026300</v>
+      </c>
+      <c r="M54" s="3">
+        <v>857200</v>
+      </c>
+      <c r="N54" s="3">
+        <v>756800</v>
+      </c>
+      <c r="O54" s="3">
+        <v>1201800</v>
+      </c>
+      <c r="P54" s="3">
+        <v>1158900</v>
+      </c>
+      <c r="Q54" s="3">
         <v>1139300</v>
       </c>
-      <c r="H54" s="3">
-        <v>1060900</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1018900</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1011300</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1026300</v>
-      </c>
-      <c r="L54" s="3">
-        <v>857200</v>
-      </c>
-      <c r="M54" s="3">
-        <v>756800</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1201800</v>
-      </c>
-      <c r="O54" s="3">
-        <v>1158900</v>
-      </c>
-      <c r="P54" s="3">
-        <v>1139300</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1184300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1229500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2858,8 +2986,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2878,308 +3007,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>159500</v>
+        <v>195200</v>
       </c>
       <c r="E57" s="3">
-        <v>146500</v>
+        <v>159600</v>
       </c>
       <c r="F57" s="3">
-        <v>158700</v>
+        <v>146600</v>
       </c>
       <c r="G57" s="3">
-        <v>193200</v>
+        <v>158800</v>
       </c>
       <c r="H57" s="3">
-        <v>182900</v>
+        <v>193300</v>
       </c>
       <c r="I57" s="3">
+        <v>183000</v>
+      </c>
+      <c r="J57" s="3">
         <v>163600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>154600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>160200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>142900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>153300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>188500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>169200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>156400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>114300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>172300</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>59100</v>
+        <v>61300</v>
       </c>
       <c r="E58" s="3">
+        <v>59200</v>
+      </c>
+      <c r="F58" s="3">
         <v>52000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>42400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>31100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>24100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>13200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>10400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>265100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>265200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>290600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>313800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>350100</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E59" s="3">
         <v>18400</v>
       </c>
-      <c r="E59" s="3">
-        <v>18900</v>
-      </c>
       <c r="F59" s="3">
+        <v>19000</v>
+      </c>
+      <c r="G59" s="3">
         <v>26500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>16500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>17500</v>
-      </c>
-      <c r="K59" s="3">
-        <v>19900</v>
       </c>
       <c r="L59" s="3">
         <v>19900</v>
       </c>
       <c r="M59" s="3">
+        <v>19900</v>
+      </c>
+      <c r="N59" s="3">
         <v>18600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>23200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>24600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>28900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>93900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>237000</v>
+        <v>276000</v>
       </c>
       <c r="E60" s="3">
-        <v>217400</v>
+        <v>237200</v>
       </c>
       <c r="F60" s="3">
-        <v>227600</v>
+        <v>217500</v>
       </c>
       <c r="G60" s="3">
-        <v>238700</v>
+        <v>227700</v>
       </c>
       <c r="H60" s="3">
-        <v>220700</v>
+        <v>238800</v>
       </c>
       <c r="I60" s="3">
-        <v>193200</v>
+        <v>220800</v>
       </c>
       <c r="J60" s="3">
+        <v>193300</v>
+      </c>
+      <c r="K60" s="3">
         <v>182600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>190600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>172700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>176300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>476700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>459000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>475900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>520300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>553500</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>381200</v>
+        <v>365700</v>
       </c>
       <c r="E61" s="3">
-        <v>364500</v>
+        <v>381400</v>
       </c>
       <c r="F61" s="3">
-        <v>371100</v>
+        <v>364700</v>
       </c>
       <c r="G61" s="3">
-        <v>369200</v>
+        <v>371300</v>
       </c>
       <c r="H61" s="3">
-        <v>313000</v>
+        <v>369400</v>
       </c>
       <c r="I61" s="3">
-        <v>290000</v>
+        <v>313100</v>
       </c>
       <c r="J61" s="3">
+        <v>290200</v>
+      </c>
+      <c r="K61" s="3">
         <v>287000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>274600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>173200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>85600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>313800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>306800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>307100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>302500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>310300</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>103500</v>
+        <v>115700</v>
       </c>
       <c r="E62" s="3">
-        <v>104700</v>
+        <v>103600</v>
       </c>
       <c r="F62" s="3">
+        <v>104800</v>
+      </c>
+      <c r="G62" s="3">
         <v>110200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>68300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>70200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>74700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>87800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>91100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>67400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>64600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>86200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>80700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>78600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>89000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>87600</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3228,8 +3376,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3278,8 +3429,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3328,58 +3482,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>721700</v>
+        <v>757400</v>
       </c>
       <c r="E66" s="3">
-        <v>686600</v>
+        <v>722100</v>
       </c>
       <c r="F66" s="3">
-        <v>708900</v>
+        <v>686900</v>
       </c>
       <c r="G66" s="3">
-        <v>676200</v>
+        <v>709200</v>
       </c>
       <c r="H66" s="3">
-        <v>603800</v>
+        <v>676500</v>
       </c>
       <c r="I66" s="3">
-        <v>557900</v>
+        <v>604100</v>
       </c>
       <c r="J66" s="3">
+        <v>558200</v>
+      </c>
+      <c r="K66" s="3">
         <v>557400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>556300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>413400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>326600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>879100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>848700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>864000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>914300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>953600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3398,8 +3558,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3448,8 +3609,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3498,58 +3662,64 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E70" s="3">
         <v>19100</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>37900</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>38600</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>38400</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>38200</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>38000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>37800</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>38500</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>36900</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>148500</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>149300</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>142400</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>107700</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>105800</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>105400</v>
       </c>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3598,58 +3768,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-209300</v>
+        <v>-235400</v>
       </c>
       <c r="E72" s="3">
-        <v>-210200</v>
+        <v>-209400</v>
       </c>
       <c r="F72" s="3">
-        <v>-222900</v>
+        <v>-210300</v>
       </c>
       <c r="G72" s="3">
-        <v>-204800</v>
+        <v>-223000</v>
       </c>
       <c r="H72" s="3">
-        <v>-206000</v>
+        <v>-204900</v>
       </c>
       <c r="I72" s="3">
-        <v>-199400</v>
+        <v>-206100</v>
       </c>
       <c r="J72" s="3">
+        <v>-199500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-207200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-207000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-197100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-190900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-284300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-274200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-272100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-275700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-265900</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3698,8 +3874,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3748,8 +3927,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3798,58 +3980,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>444600</v>
+        <v>421500</v>
       </c>
       <c r="E76" s="3">
-        <v>430900</v>
+        <v>444900</v>
       </c>
       <c r="F76" s="3">
-        <v>412100</v>
+        <v>431200</v>
       </c>
       <c r="G76" s="3">
-        <v>424700</v>
+        <v>412300</v>
       </c>
       <c r="H76" s="3">
-        <v>418800</v>
+        <v>424900</v>
       </c>
       <c r="I76" s="3">
-        <v>423000</v>
+        <v>419000</v>
       </c>
       <c r="J76" s="3">
+        <v>423200</v>
+      </c>
+      <c r="K76" s="3">
         <v>416200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>431500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>406900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>281800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>173500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>167800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>167600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>164200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>170400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3898,113 +4086,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
         <v>45017</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44835</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44744</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44653</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44562</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44471</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44380</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44289</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44198</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43827</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43736</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E81" s="3">
         <v>900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-18100</v>
       </c>
-      <c r="G81" s="3">
-        <v>1200</v>
-      </c>
       <c r="H81" s="3">
-        <v>5100</v>
+        <v>1000</v>
       </c>
       <c r="I81" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J81" s="3">
         <v>500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>86800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-11300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4023,58 +4220,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E83" s="3">
         <v>13500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>12400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>13100</v>
-      </c>
-      <c r="G83" s="3">
-        <v>12700</v>
       </c>
       <c r="H83" s="3">
         <v>12700</v>
       </c>
       <c r="I83" s="3">
+        <v>12700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K83" s="3">
         <v>11900</v>
       </c>
-      <c r="J83" s="3">
-        <v>11900</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>10700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>39200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>11200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>43500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4123,8 +4324,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4173,8 +4377,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4223,8 +4430,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4273,8 +4483,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4323,58 +4536,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E89" s="3">
         <v>5200</v>
       </c>
-      <c r="E89" s="3">
-        <v>37100</v>
-      </c>
       <c r="F89" s="3">
+        <v>37200</v>
+      </c>
+      <c r="G89" s="3">
         <v>27000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>21000</v>
       </c>
-      <c r="I89" s="3">
-        <v>26500</v>
-      </c>
       <c r="J89" s="3">
+        <v>26600</v>
+      </c>
+      <c r="K89" s="3">
         <v>6800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-54100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>118500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>26300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>44300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>12600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4393,58 +4612,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-25800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-27800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-38000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-37000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-25700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-23300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-18400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-12400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-32000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-42000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4493,8 +4716,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4543,58 +4769,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-34400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-27000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-29600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-54500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-33100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-31500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-23500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-44800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-28400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>419400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-15400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>34900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4613,8 +4845,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4663,8 +4896,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4713,8 +4949,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4763,8 +5002,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4813,58 +5055,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E100" s="3">
         <v>29500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-9800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>57900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>12500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>16400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>98500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>38400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-539800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-11900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-30400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-49700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4896,11 +5144,11 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
@@ -4908,59 +5156,65 @@
         <v>0</v>
       </c>
       <c r="Q101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R101" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>300</v>
       </c>
       <c r="F102" s="3">
+        <v>300</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>SOY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,241 +665,254 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45017</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44835</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44744</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44653</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44562</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44471</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44380</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44289</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44198</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43736</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>280700</v>
+        <v>209800</v>
       </c>
       <c r="E8" s="3">
-        <v>302400</v>
+        <v>407300</v>
       </c>
       <c r="F8" s="3">
-        <v>298900</v>
+        <v>308000</v>
       </c>
       <c r="G8" s="3">
-        <v>310300</v>
+        <v>304400</v>
       </c>
       <c r="H8" s="3">
-        <v>328900</v>
+        <v>198100</v>
       </c>
       <c r="I8" s="3">
-        <v>324400</v>
+        <v>395600</v>
       </c>
       <c r="J8" s="3">
+        <v>330400</v>
+      </c>
+      <c r="K8" s="3">
         <v>275800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>268000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>279700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>276500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1020000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>250100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>235000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>264400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>925500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>379500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>250700</v>
+        <v>175500</v>
       </c>
       <c r="E9" s="3">
-        <v>256500</v>
+        <v>332600</v>
       </c>
       <c r="F9" s="3">
-        <v>253900</v>
+        <v>261200</v>
       </c>
       <c r="G9" s="3">
-        <v>267000</v>
+        <v>258600</v>
       </c>
       <c r="H9" s="3">
-        <v>281500</v>
+        <v>162800</v>
       </c>
       <c r="I9" s="3">
-        <v>285500</v>
+        <v>326400</v>
       </c>
       <c r="J9" s="3">
+        <v>290700</v>
+      </c>
+      <c r="K9" s="3">
         <v>251500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>236400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>243300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>236600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>879000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>215000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>205300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>602100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1178100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>345800</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>29900</v>
+        <v>34300</v>
       </c>
       <c r="E10" s="3">
-        <v>46000</v>
+        <v>74700</v>
       </c>
       <c r="F10" s="3">
-        <v>45000</v>
+        <v>46800</v>
       </c>
       <c r="G10" s="3">
-        <v>43300</v>
+        <v>45800</v>
       </c>
       <c r="H10" s="3">
-        <v>47400</v>
+        <v>35200</v>
       </c>
       <c r="I10" s="3">
-        <v>38900</v>
+        <v>69200</v>
       </c>
       <c r="J10" s="3">
+        <v>39600</v>
+      </c>
+      <c r="K10" s="3">
         <v>24300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>31600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>36500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>39900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>141000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>35100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>29600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-337600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-252500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -919,8 +932,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -972,8 +986,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1025,84 +1042,90 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>10600</v>
+        <v>7700</v>
       </c>
       <c r="E14" s="3">
-        <v>9600</v>
+        <v>20000</v>
       </c>
       <c r="F14" s="3">
-        <v>7700</v>
+        <v>9800</v>
       </c>
       <c r="G14" s="3">
-        <v>33000</v>
+        <v>7800</v>
       </c>
       <c r="H14" s="3">
-        <v>3700</v>
+        <v>33900</v>
       </c>
       <c r="I14" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J14" s="3">
         <v>1200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>8800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>26700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-1100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-54500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3300</v>
+        <v>600</v>
       </c>
       <c r="E15" s="3">
-        <v>3300</v>
+        <v>1200</v>
       </c>
       <c r="F15" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="G15" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="H15" s="3">
-        <v>3500</v>
+        <v>600</v>
       </c>
       <c r="I15" s="3">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="J15" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="K15" s="3">
         <v>3500</v>
@@ -1111,13 +1134,13 @@
         <v>3500</v>
       </c>
       <c r="M15" s="3">
+        <v>3500</v>
+      </c>
+      <c r="N15" s="3">
         <v>2900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>11600</v>
-      </c>
-      <c r="O15" s="3">
-        <v>2900</v>
       </c>
       <c r="P15" s="3">
         <v>2900</v>
@@ -1126,13 +1149,16 @@
         <v>2900</v>
       </c>
       <c r="R15" s="3">
+        <v>2900</v>
+      </c>
+      <c r="S15" s="3">
         <v>11700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1149,114 +1175,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>284800</v>
+        <v>207800</v>
       </c>
       <c r="E17" s="3">
-        <v>299000</v>
+        <v>405000</v>
       </c>
       <c r="F17" s="3">
-        <v>291800</v>
+        <v>304500</v>
       </c>
       <c r="G17" s="3">
-        <v>327200</v>
+        <v>297200</v>
       </c>
       <c r="H17" s="3">
-        <v>320100</v>
+        <v>189000</v>
       </c>
       <c r="I17" s="3">
-        <v>319400</v>
+        <v>384700</v>
       </c>
       <c r="J17" s="3">
+        <v>325200</v>
+      </c>
+      <c r="K17" s="3">
         <v>280100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>264200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>283700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>270600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1045800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>247300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>234400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>261600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>904200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>388400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-4100</v>
+        <v>2000</v>
       </c>
       <c r="E18" s="3">
-        <v>3400</v>
+        <v>2300</v>
       </c>
       <c r="F18" s="3">
-        <v>7100</v>
+        <v>3500</v>
       </c>
       <c r="G18" s="3">
-        <v>-16900</v>
+        <v>7200</v>
       </c>
       <c r="H18" s="3">
-        <v>8800</v>
+        <v>9000</v>
       </c>
       <c r="I18" s="3">
-        <v>5100</v>
+        <v>10900</v>
       </c>
       <c r="J18" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-4200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-25900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>21300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-8800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1276,137 +1309,144 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5900</v>
+        <v>-6600</v>
       </c>
       <c r="E20" s="3">
-        <v>-4600</v>
+        <v>-10000</v>
       </c>
       <c r="F20" s="3">
-        <v>-4200</v>
+        <v>-4700</v>
       </c>
       <c r="G20" s="3">
-        <v>-3600</v>
+        <v>-4300</v>
       </c>
       <c r="H20" s="3">
-        <v>-2800</v>
+        <v>-3000</v>
       </c>
       <c r="I20" s="3">
-        <v>-2400</v>
+        <v>-4300</v>
       </c>
       <c r="J20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-38800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-9700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-9800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-41700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4500</v>
+        <v>-1800</v>
       </c>
       <c r="E21" s="3">
-        <v>12300</v>
+        <v>20900</v>
       </c>
       <c r="F21" s="3">
-        <v>15300</v>
+        <v>12500</v>
       </c>
       <c r="G21" s="3">
-        <v>-7400</v>
+        <v>15600</v>
       </c>
       <c r="H21" s="3">
-        <v>18700</v>
+        <v>19400</v>
       </c>
       <c r="I21" s="3">
-        <v>15400</v>
+        <v>32400</v>
       </c>
       <c r="J21" s="3">
+        <v>15600</v>
+      </c>
+      <c r="K21" s="3">
         <v>4200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>14500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-25500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>23100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="E22" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F22" s="3">
         <v>3300</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2200</v>
       </c>
       <c r="G22" s="3">
         <v>2300</v>
       </c>
       <c r="H22" s="3">
-        <v>1400</v>
+        <v>2300</v>
       </c>
       <c r="I22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+        <v>2500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1100</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1429,120 +1469,129 @@
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-13500</v>
+        <v>-7800</v>
       </c>
       <c r="E23" s="3">
-        <v>-4500</v>
+        <v>-14400</v>
       </c>
       <c r="F23" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="G23" s="3">
         <v>700</v>
       </c>
-      <c r="G23" s="3">
-        <v>-22800</v>
-      </c>
       <c r="H23" s="3">
-        <v>4600</v>
+        <v>3700</v>
       </c>
       <c r="I23" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J23" s="3">
         <v>1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-64700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-20800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-20200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>11900</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>-6300</v>
+        <v>5500</v>
       </c>
       <c r="F24" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
-        <v>-5800</v>
-      </c>
       <c r="H24" s="3">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="I24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-9200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-5000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-6700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-4000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-5000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1594,114 +1643,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-25400</v>
+        <v>-7800</v>
       </c>
       <c r="E26" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="F26" s="3">
         <v>1900</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
-        <v>-17100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="I26" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J26" s="3">
         <v>1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-57900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-16800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-15100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-26000</v>
+        <v>-8400</v>
       </c>
       <c r="E27" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="F27" s="3">
         <v>900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-18100</v>
-      </c>
       <c r="H27" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="I27" s="3">
+        <v>600</v>
+      </c>
+      <c r="J27" s="3">
         <v>300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-71300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-27100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1753,31 +1811,34 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-192800</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>-4100</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>2600</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
-        <v>-1100</v>
+        <v>-19700</v>
       </c>
       <c r="I29" s="3">
-        <v>4800</v>
+        <v>5600</v>
       </c>
       <c r="J29" s="3">
-        <v>0</v>
+        <v>4900</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1789,25 +1850,28 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>158100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>5200</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>7800</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>9300</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>15800</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1859,8 +1923,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1912,114 +1979,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5900</v>
+        <v>6600</v>
       </c>
       <c r="E32" s="3">
-        <v>4600</v>
+        <v>10000</v>
       </c>
       <c r="F32" s="3">
-        <v>4200</v>
+        <v>4700</v>
       </c>
       <c r="G32" s="3">
-        <v>3600</v>
+        <v>4300</v>
       </c>
       <c r="H32" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="I32" s="3">
-        <v>2400</v>
+        <v>4300</v>
       </c>
       <c r="J32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K32" s="3">
         <v>3500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>38800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>9700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>9400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>9800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>41700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-26000</v>
+        <v>-201200</v>
       </c>
       <c r="E33" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="F33" s="3">
         <v>900</v>
       </c>
-      <c r="F33" s="3">
-        <v>1400</v>
-      </c>
       <c r="G33" s="3">
-        <v>-18100</v>
+        <v>1500</v>
       </c>
       <c r="H33" s="3">
-        <v>1000</v>
+        <v>-17500</v>
       </c>
       <c r="I33" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J33" s="3">
         <v>5200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>86800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-11300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2071,119 +2147,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-26000</v>
+        <v>-201200</v>
       </c>
       <c r="E35" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="F35" s="3">
         <v>900</v>
       </c>
-      <c r="F35" s="3">
-        <v>1400</v>
-      </c>
       <c r="G35" s="3">
-        <v>-18100</v>
+        <v>1500</v>
       </c>
       <c r="H35" s="3">
-        <v>1000</v>
+        <v>-17500</v>
       </c>
       <c r="I35" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J35" s="3">
         <v>5200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>86800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-11300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45017</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44835</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44744</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44653</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44562</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44471</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44380</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44289</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44198</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43736</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2203,8 +2288,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2224,61 +2310,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>1300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G41" s="3">
+        <v>900</v>
+      </c>
+      <c r="H41" s="3">
+        <v>600</v>
+      </c>
+      <c r="I41" s="3">
+        <v>800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>700</v>
+      </c>
+      <c r="K41" s="3">
+        <v>300</v>
+      </c>
+      <c r="L41" s="3">
+        <v>400</v>
+      </c>
+      <c r="M41" s="3">
+        <v>700</v>
+      </c>
+      <c r="N41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O41" s="3">
+        <v>300</v>
+      </c>
+      <c r="P41" s="3">
         <v>1200</v>
       </c>
-      <c r="F41" s="3">
-        <v>900</v>
-      </c>
-      <c r="G41" s="3">
-        <v>600</v>
-      </c>
-      <c r="H41" s="3">
-        <v>700</v>
-      </c>
-      <c r="I41" s="3">
-        <v>700</v>
-      </c>
-      <c r="J41" s="3">
-        <v>300</v>
-      </c>
-      <c r="K41" s="3">
-        <v>400</v>
-      </c>
-      <c r="L41" s="3">
-        <v>700</v>
-      </c>
-      <c r="M41" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N41" s="3">
-        <v>300</v>
-      </c>
-      <c r="O41" s="3">
-        <v>1200</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2318,232 +2408,247 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-      <c r="P42" s="3" t="s">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>200</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>103900</v>
+        <v>88100</v>
       </c>
       <c r="E43" s="3">
-        <v>121600</v>
+        <v>105800</v>
       </c>
       <c r="F43" s="3">
-        <v>106600</v>
+        <v>123800</v>
       </c>
       <c r="G43" s="3">
-        <v>111700</v>
+        <v>108600</v>
       </c>
       <c r="H43" s="3">
-        <v>126500</v>
+        <v>113800</v>
       </c>
       <c r="I43" s="3">
-        <v>143600</v>
+        <v>128800</v>
       </c>
       <c r="J43" s="3">
+        <v>146300</v>
+      </c>
+      <c r="K43" s="3">
         <v>125600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>127000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>124700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>127000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>103000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>192200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>165600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>193000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>101700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>174900</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>298200</v>
+        <v>116000</v>
       </c>
       <c r="E44" s="3">
-        <v>270900</v>
+        <v>303600</v>
       </c>
       <c r="F44" s="3">
-        <v>279700</v>
+        <v>275900</v>
       </c>
       <c r="G44" s="3">
-        <v>304000</v>
+        <v>284800</v>
       </c>
       <c r="H44" s="3">
-        <v>353700</v>
+        <v>309600</v>
       </c>
       <c r="I44" s="3">
-        <v>294400</v>
+        <v>360200</v>
       </c>
       <c r="J44" s="3">
+        <v>299800</v>
+      </c>
+      <c r="K44" s="3">
         <v>296900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>311700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>317800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>220200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>190900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>404800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>405200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>347100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>197000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>443400</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>21300</v>
+        <v>227300</v>
       </c>
       <c r="E45" s="3">
-        <v>20600</v>
+        <v>21600</v>
       </c>
       <c r="F45" s="3">
-        <v>21200</v>
+        <v>21000</v>
       </c>
       <c r="G45" s="3">
-        <v>44000</v>
+        <v>21600</v>
       </c>
       <c r="H45" s="3">
+        <v>44800</v>
+      </c>
+      <c r="I45" s="3">
+        <v>40000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>22100</v>
+      </c>
+      <c r="K45" s="3">
+        <v>22500</v>
+      </c>
+      <c r="L45" s="3">
+        <v>22300</v>
+      </c>
+      <c r="M45" s="3">
+        <v>21800</v>
+      </c>
+      <c r="N45" s="3">
+        <v>24600</v>
+      </c>
+      <c r="O45" s="3">
+        <v>28000</v>
+      </c>
+      <c r="P45" s="3">
         <v>39300</v>
       </c>
-      <c r="I45" s="3">
-        <v>21700</v>
-      </c>
-      <c r="J45" s="3">
-        <v>22500</v>
-      </c>
-      <c r="K45" s="3">
-        <v>22300</v>
-      </c>
-      <c r="L45" s="3">
-        <v>21800</v>
-      </c>
-      <c r="M45" s="3">
-        <v>24600</v>
-      </c>
-      <c r="N45" s="3">
-        <v>28000</v>
-      </c>
-      <c r="O45" s="3">
-        <v>39300</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>35800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>45000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>329600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>46200</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>424600</v>
+        <v>431900</v>
       </c>
       <c r="E46" s="3">
-        <v>414300</v>
+        <v>432400</v>
       </c>
       <c r="F46" s="3">
-        <v>408400</v>
+        <v>421900</v>
       </c>
       <c r="G46" s="3">
-        <v>460300</v>
+        <v>415900</v>
       </c>
       <c r="H46" s="3">
-        <v>520300</v>
+        <v>468800</v>
       </c>
       <c r="I46" s="3">
-        <v>460400</v>
+        <v>529800</v>
       </c>
       <c r="J46" s="3">
+        <v>468900</v>
+      </c>
+      <c r="K46" s="3">
         <v>445200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>461400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>465000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>372800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>322200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>637600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>608700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>588700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>628400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>667300</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2595,114 +2700,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>585000</v>
+        <v>551800</v>
       </c>
       <c r="E48" s="3">
-        <v>568100</v>
+        <v>595800</v>
       </c>
       <c r="F48" s="3">
-        <v>547000</v>
+        <v>578600</v>
       </c>
       <c r="G48" s="3">
-        <v>500500</v>
+        <v>557000</v>
       </c>
       <c r="H48" s="3">
-        <v>412900</v>
+        <v>509700</v>
       </c>
       <c r="I48" s="3">
-        <v>390400</v>
+        <v>420500</v>
       </c>
       <c r="J48" s="3">
+        <v>397600</v>
+      </c>
+      <c r="K48" s="3">
         <v>360300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>332100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>323700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>294500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>249700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>332900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>322100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>321100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>289400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>325500</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>182000</v>
+        <v>36200</v>
       </c>
       <c r="E49" s="3">
-        <v>185300</v>
+        <v>185400</v>
       </c>
       <c r="F49" s="3">
-        <v>188600</v>
+        <v>188700</v>
       </c>
       <c r="G49" s="3">
-        <v>191900</v>
+        <v>192100</v>
       </c>
       <c r="H49" s="3">
-        <v>198800</v>
+        <v>195400</v>
       </c>
       <c r="I49" s="3">
-        <v>202400</v>
+        <v>202500</v>
       </c>
       <c r="J49" s="3">
+        <v>206100</v>
+      </c>
+      <c r="K49" s="3">
         <v>205900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>209300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>218000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>180000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>177500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>223000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>220600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>223700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>187600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>232000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2754,8 +2868,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2807,61 +2924,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6600</v>
+        <v>7200</v>
       </c>
       <c r="E52" s="3">
-        <v>18300</v>
+        <v>6700</v>
       </c>
       <c r="F52" s="3">
-        <v>12000</v>
+        <v>18700</v>
       </c>
       <c r="G52" s="3">
+        <v>12200</v>
+      </c>
+      <c r="H52" s="3">
+        <v>7500</v>
+      </c>
+      <c r="I52" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K52" s="3">
+        <v>8000</v>
+      </c>
+      <c r="L52" s="3">
+        <v>8400</v>
+      </c>
+      <c r="M52" s="3">
+        <v>19600</v>
+      </c>
+      <c r="N52" s="3">
+        <v>9900</v>
+      </c>
+      <c r="O52" s="3">
         <v>7400</v>
       </c>
-      <c r="H52" s="3">
-        <v>7900</v>
-      </c>
-      <c r="I52" s="3">
-        <v>8200</v>
-      </c>
-      <c r="J52" s="3">
-        <v>8000</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="P52" s="3">
         <v>8400</v>
       </c>
-      <c r="L52" s="3">
-        <v>19600</v>
-      </c>
-      <c r="M52" s="3">
-        <v>9900</v>
-      </c>
-      <c r="N52" s="3">
-        <v>7400</v>
-      </c>
-      <c r="O52" s="3">
-        <v>8400</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>78900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2913,61 +3036,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1198200</v>
+        <v>1027000</v>
       </c>
       <c r="E54" s="3">
-        <v>1186100</v>
+        <v>1220200</v>
       </c>
       <c r="F54" s="3">
-        <v>1156000</v>
+        <v>1207900</v>
       </c>
       <c r="G54" s="3">
-        <v>1160200</v>
+        <v>1177200</v>
       </c>
       <c r="H54" s="3">
-        <v>1139900</v>
+        <v>1181500</v>
       </c>
       <c r="I54" s="3">
-        <v>1061400</v>
+        <v>1160800</v>
       </c>
       <c r="J54" s="3">
+        <v>1080900</v>
+      </c>
+      <c r="K54" s="3">
         <v>1019400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1011300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1026300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>857200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>756800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1201800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1158900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1139300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1184300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1229500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2987,8 +3116,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3008,326 +3138,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>195200</v>
+        <v>184900</v>
       </c>
       <c r="E57" s="3">
-        <v>159600</v>
+        <v>198800</v>
       </c>
       <c r="F57" s="3">
-        <v>146600</v>
+        <v>162500</v>
       </c>
       <c r="G57" s="3">
-        <v>158800</v>
+        <v>149300</v>
       </c>
       <c r="H57" s="3">
-        <v>193300</v>
+        <v>161700</v>
       </c>
       <c r="I57" s="3">
-        <v>183000</v>
+        <v>196800</v>
       </c>
       <c r="J57" s="3">
+        <v>186400</v>
+      </c>
+      <c r="K57" s="3">
         <v>163600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>154600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>160200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>142900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>153300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>188500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>169200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>156400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>114300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>172300</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>61300</v>
+        <v>64200</v>
       </c>
       <c r="E58" s="3">
-        <v>59200</v>
+        <v>62400</v>
       </c>
       <c r="F58" s="3">
-        <v>52000</v>
+        <v>60300</v>
       </c>
       <c r="G58" s="3">
-        <v>42400</v>
+        <v>52900</v>
       </c>
       <c r="H58" s="3">
-        <v>31100</v>
+        <v>43200</v>
       </c>
       <c r="I58" s="3">
-        <v>24100</v>
+        <v>31700</v>
       </c>
       <c r="J58" s="3">
+        <v>24600</v>
+      </c>
+      <c r="K58" s="3">
         <v>13200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>265100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>265200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>290600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>313800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>350100</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>19500</v>
+        <v>45200</v>
       </c>
       <c r="E59" s="3">
-        <v>18400</v>
+        <v>19800</v>
       </c>
       <c r="F59" s="3">
-        <v>19000</v>
+        <v>18700</v>
       </c>
       <c r="G59" s="3">
-        <v>26500</v>
+        <v>19300</v>
       </c>
       <c r="H59" s="3">
-        <v>14400</v>
+        <v>27000</v>
       </c>
       <c r="I59" s="3">
-        <v>13600</v>
+        <v>14600</v>
       </c>
       <c r="J59" s="3">
+        <v>13900</v>
+      </c>
+      <c r="K59" s="3">
         <v>16500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>17500</v>
-      </c>
-      <c r="L59" s="3">
-        <v>19900</v>
       </c>
       <c r="M59" s="3">
         <v>19900</v>
       </c>
       <c r="N59" s="3">
+        <v>19900</v>
+      </c>
+      <c r="O59" s="3">
         <v>18600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>23200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>24600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>28900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>93900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>276000</v>
+        <v>294400</v>
       </c>
       <c r="E60" s="3">
-        <v>237200</v>
+        <v>281100</v>
       </c>
       <c r="F60" s="3">
-        <v>217500</v>
+        <v>241500</v>
       </c>
       <c r="G60" s="3">
-        <v>227700</v>
+        <v>221500</v>
       </c>
       <c r="H60" s="3">
-        <v>238800</v>
+        <v>231900</v>
       </c>
       <c r="I60" s="3">
-        <v>220800</v>
+        <v>243200</v>
       </c>
       <c r="J60" s="3">
+        <v>224900</v>
+      </c>
+      <c r="K60" s="3">
         <v>193300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>182600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>190600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>172700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>176300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>476700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>459000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>475900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>520300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>553500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>365700</v>
+        <v>368800</v>
       </c>
       <c r="E61" s="3">
-        <v>381400</v>
+        <v>372400</v>
       </c>
       <c r="F61" s="3">
-        <v>364700</v>
+        <v>388400</v>
       </c>
       <c r="G61" s="3">
-        <v>371300</v>
+        <v>371400</v>
       </c>
       <c r="H61" s="3">
-        <v>369400</v>
+        <v>378100</v>
       </c>
       <c r="I61" s="3">
-        <v>313100</v>
+        <v>376200</v>
       </c>
       <c r="J61" s="3">
+        <v>318900</v>
+      </c>
+      <c r="K61" s="3">
         <v>290200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>287000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>274600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>173200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>85600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>313800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>306800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>307100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>302500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>310300</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>115700</v>
+        <v>111600</v>
       </c>
       <c r="E62" s="3">
-        <v>103600</v>
+        <v>117900</v>
       </c>
       <c r="F62" s="3">
-        <v>104800</v>
+        <v>105500</v>
       </c>
       <c r="G62" s="3">
-        <v>110200</v>
+        <v>106700</v>
       </c>
       <c r="H62" s="3">
-        <v>68300</v>
+        <v>112200</v>
       </c>
       <c r="I62" s="3">
-        <v>70200</v>
+        <v>69600</v>
       </c>
       <c r="J62" s="3">
+        <v>71500</v>
+      </c>
+      <c r="K62" s="3">
         <v>74700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>87800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>91100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>67400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>64600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>86200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>80700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>78600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>89000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>87600</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3379,8 +3528,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3432,8 +3584,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3485,61 +3640,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>757400</v>
+        <v>774800</v>
       </c>
       <c r="E66" s="3">
-        <v>722100</v>
+        <v>771300</v>
       </c>
       <c r="F66" s="3">
-        <v>686900</v>
+        <v>735400</v>
       </c>
       <c r="G66" s="3">
-        <v>709200</v>
+        <v>699600</v>
       </c>
       <c r="H66" s="3">
-        <v>676500</v>
+        <v>722300</v>
       </c>
       <c r="I66" s="3">
-        <v>604100</v>
+        <v>689000</v>
       </c>
       <c r="J66" s="3">
+        <v>615200</v>
+      </c>
+      <c r="K66" s="3">
         <v>558200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>557400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>556300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>413400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>326600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>879100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>848700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>864000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>914300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>953600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3559,8 +3720,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3612,8 +3774,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3665,61 +3830,67 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>19300</v>
+        <v>19800</v>
       </c>
       <c r="E70" s="3">
-        <v>19100</v>
+        <v>19600</v>
       </c>
       <c r="F70" s="3">
-        <v>37900</v>
+        <v>19500</v>
       </c>
       <c r="G70" s="3">
         <v>38600</v>
       </c>
       <c r="H70" s="3">
-        <v>38400</v>
+        <v>39300</v>
       </c>
       <c r="I70" s="3">
-        <v>38200</v>
+        <v>39100</v>
       </c>
       <c r="J70" s="3">
+        <v>38900</v>
+      </c>
+      <c r="K70" s="3">
         <v>38000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>37800</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>38500</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>36900</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>148500</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>149300</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>142400</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>107700</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>105800</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>105400</v>
       </c>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3771,61 +3942,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-235400</v>
+        <v>-440900</v>
       </c>
       <c r="E72" s="3">
-        <v>-209400</v>
+        <v>-239700</v>
       </c>
       <c r="F72" s="3">
-        <v>-210300</v>
+        <v>-213200</v>
       </c>
       <c r="G72" s="3">
-        <v>-223000</v>
+        <v>-214100</v>
       </c>
       <c r="H72" s="3">
-        <v>-204900</v>
+        <v>-227100</v>
       </c>
       <c r="I72" s="3">
-        <v>-206100</v>
+        <v>-208700</v>
       </c>
       <c r="J72" s="3">
+        <v>-209900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-199500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-207200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-207000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-197100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-190900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-284300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-274200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-272100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-275700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-265900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3877,8 +4054,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3930,8 +4110,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3983,61 +4166,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>421500</v>
+        <v>232400</v>
       </c>
       <c r="E76" s="3">
-        <v>444900</v>
+        <v>429300</v>
       </c>
       <c r="F76" s="3">
-        <v>431200</v>
+        <v>453000</v>
       </c>
       <c r="G76" s="3">
-        <v>412300</v>
+        <v>439100</v>
       </c>
       <c r="H76" s="3">
-        <v>424900</v>
+        <v>419900</v>
       </c>
       <c r="I76" s="3">
-        <v>419000</v>
+        <v>432700</v>
       </c>
       <c r="J76" s="3">
+        <v>426700</v>
+      </c>
+      <c r="K76" s="3">
         <v>423200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>416200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>431500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>406900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>281800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>173500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>167800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>167600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>164200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>170400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4089,119 +4278,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45108</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45017</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44835</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44744</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44653</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44562</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44471</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44380</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44289</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44198</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43736</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-26000</v>
+        <v>-201200</v>
       </c>
       <c r="E81" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="F81" s="3">
         <v>900</v>
       </c>
-      <c r="F81" s="3">
-        <v>1400</v>
-      </c>
       <c r="G81" s="3">
-        <v>-18100</v>
+        <v>1500</v>
       </c>
       <c r="H81" s="3">
-        <v>1000</v>
+        <v>-17500</v>
       </c>
       <c r="I81" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J81" s="3">
         <v>5200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>86800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-11300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-17600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4221,61 +4419,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>14600</v>
+        <v>2900</v>
       </c>
       <c r="E83" s="3">
-        <v>13500</v>
+        <v>28600</v>
       </c>
       <c r="F83" s="3">
-        <v>12400</v>
+        <v>13800</v>
       </c>
       <c r="G83" s="3">
-        <v>13100</v>
+        <v>12600</v>
       </c>
       <c r="H83" s="3">
-        <v>12700</v>
+        <v>13400</v>
       </c>
       <c r="I83" s="3">
-        <v>12700</v>
+        <v>25800</v>
       </c>
       <c r="J83" s="3">
+        <v>12900</v>
+      </c>
+      <c r="K83" s="3">
         <v>12000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>10700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>39200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>11300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>11400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>43500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4327,8 +4529,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4380,8 +4585,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4433,8 +4641,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4486,8 +4697,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4539,61 +4753,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>27200</v>
+      </c>
+      <c r="F89" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G89" s="3">
+        <v>37800</v>
+      </c>
+      <c r="H89" s="3">
+        <v>27500</v>
+      </c>
+      <c r="I89" s="3">
+        <v>18000</v>
+      </c>
+      <c r="J89" s="3">
         <v>21400</v>
       </c>
-      <c r="E89" s="3">
-        <v>5200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>37200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>27000</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="I89" s="3">
-        <v>21000</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>26600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-54100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>118500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>26300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>44300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>12600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4613,61 +4833,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-25800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-27800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-38000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-37000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-25700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-23300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-12400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-32000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-12300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-42000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4719,8 +4943,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4772,61 +4999,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-10900</v>
+        <v>-6700</v>
       </c>
       <c r="E94" s="3">
-        <v>-34400</v>
+        <v>-46100</v>
       </c>
       <c r="F94" s="3">
-        <v>-27000</v>
+        <v>-35000</v>
       </c>
       <c r="G94" s="3">
-        <v>-29600</v>
+        <v>-27500</v>
       </c>
       <c r="H94" s="3">
-        <v>-54500</v>
+        <v>-30100</v>
       </c>
       <c r="I94" s="3">
-        <v>-33100</v>
+        <v>-89300</v>
       </c>
       <c r="J94" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-31500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-23500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-44800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-28400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>419400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-15400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-12300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>34900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4846,8 +5079,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4899,8 +5133,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4952,8 +5189,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5005,8 +5245,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5058,61 +5301,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-10500</v>
+        <v>23000</v>
       </c>
       <c r="E100" s="3">
-        <v>29500</v>
+        <v>19400</v>
       </c>
       <c r="F100" s="3">
-        <v>-9800</v>
+        <v>30000</v>
       </c>
       <c r="G100" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="H100" s="3">
         <v>2500</v>
       </c>
-      <c r="H100" s="3">
-        <v>57900</v>
-      </c>
       <c r="I100" s="3">
-        <v>12500</v>
+        <v>71700</v>
       </c>
       <c r="J100" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K100" s="3">
         <v>4800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>16400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>98500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>38400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-539800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-11900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-30400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-49700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5147,11 +5396,11 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
@@ -5159,62 +5408,68 @@
         <v>0</v>
       </c>
       <c r="R101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S101" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>3500</v>
       </c>
       <c r="E102" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F102" s="3">
         <v>300</v>
       </c>
       <c r="G102" s="3">
+        <v>300</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>400</v>
       </c>
       <c r="J102" s="3">
+        <v>400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-400</v>
       </c>
     </row>
